--- a/Classification Cont.xlsx
+++ b/Classification Cont.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Documents\SCHOOL\Towson\2018-2022 -- DSc - Computer Security\6_Fall 2018\COSC 757 - Data Mining\Assignments\Classification Competition - 11-1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whatch2\Desktop\ClassificationCompetition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB9D78E6-4A50-4604-A927-6272B7DDEF75}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Learning" sheetId="3" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Sheet5" sheetId="7" r:id="rId4"/>
     <sheet name="crossval" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="80">
   <si>
     <t>TN</t>
   </si>
@@ -221,11 +220,62 @@
   <si>
     <t>Numeric Only 2</t>
   </si>
+  <si>
+    <t>FULL SET 1a</t>
+  </si>
+  <si>
+    <t>DT-entropy, min-leaf-5</t>
+  </si>
+  <si>
+    <t>ET-entropy</t>
+  </si>
+  <si>
+    <t>RF-100</t>
+  </si>
+  <si>
+    <t>NB-multinomial</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>FULL SET 2a</t>
+  </si>
+  <si>
+    <t>FULL SET 1a min-max</t>
+  </si>
+  <si>
+    <t>FULL SET 2a min-max</t>
+  </si>
+  <si>
+    <t>Must Be Non-Negative</t>
+  </si>
+  <si>
+    <t>RF-500</t>
+  </si>
+  <si>
+    <t>RF-250</t>
+  </si>
+  <si>
+    <t>RF-1000</t>
+  </si>
+  <si>
+    <t>RF-100-entropy</t>
+  </si>
+  <si>
+    <t>RF-2000</t>
+  </si>
+  <si>
+    <t>FULL SET RF min-max</t>
+  </si>
+  <si>
+    <t>Numeric Only min-max 1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -926,49 +976,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="147">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.000"/>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="144">
     <dxf>
       <font>
         <b/>
@@ -3294,11 +3302,2786 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5E5B433-1669-4131-9583-5412492E13C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34:C38"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="10" max="21" width="14.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="J3">
+        <v>6</v>
+      </c>
+      <c r="K3">
+        <v>13</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>27</v>
+      </c>
+      <c r="N3">
+        <v>34</v>
+      </c>
+      <c r="O3">
+        <v>41</v>
+      </c>
+      <c r="P3">
+        <v>48</v>
+      </c>
+      <c r="Q3">
+        <v>55</v>
+      </c>
+      <c r="R3">
+        <v>62</v>
+      </c>
+      <c r="S3">
+        <v>69</v>
+      </c>
+      <c r="T3">
+        <v>76</v>
+      </c>
+      <c r="U3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="15" t="str">
+        <f>A5</f>
+        <v>FULL SET 1</v>
+      </c>
+      <c r="K5" s="15" t="str">
+        <f>A12</f>
+        <v>FULL SET 2</v>
+      </c>
+      <c r="L5" s="15" t="str">
+        <f>A19</f>
+        <v>Binary Only 1</v>
+      </c>
+      <c r="M5" s="15" t="str">
+        <f>A26</f>
+        <v>Numeric Only 1</v>
+      </c>
+      <c r="N5" s="15" t="str">
+        <f>A33</f>
+        <v>Numeric Only 2</v>
+      </c>
+      <c r="O5" s="15" t="str">
+        <f>A40</f>
+        <v>FULL SET 1a</v>
+      </c>
+      <c r="P5" s="15" t="str">
+        <f>A47</f>
+        <v>FULL SET 2a</v>
+      </c>
+      <c r="Q5" s="15" t="str">
+        <f>A54</f>
+        <v>FULL SET 1a min-max</v>
+      </c>
+      <c r="R5" s="15" t="str">
+        <f>A61</f>
+        <v>FULL SET 2a min-max</v>
+      </c>
+      <c r="S5" s="15" t="str">
+        <f>A68</f>
+        <v>FULL SET RF min-max</v>
+      </c>
+      <c r="T5" s="15" t="str">
+        <f>A75</f>
+        <v>Numeric Only min-max 1</v>
+      </c>
+      <c r="U5" s="16">
+        <f>A82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0.59636320797211395</v>
+      </c>
+      <c r="C6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D6">
+        <v>0.6</v>
+      </c>
+      <c r="E6">
+        <v>0.59</v>
+      </c>
+      <c r="F6">
+        <v>144303</v>
+      </c>
+      <c r="I6" s="5" t="str">
+        <f>A6</f>
+        <v>KNN-3</v>
+      </c>
+      <c r="J6" s="19">
+        <f>B6</f>
+        <v>0.59636320797211395</v>
+      </c>
+      <c r="K6" s="19">
+        <f>B13</f>
+        <v>0.59636320797211395</v>
+      </c>
+      <c r="L6" s="19">
+        <f>B20</f>
+        <v>0.41493939834930599</v>
+      </c>
+      <c r="M6" s="19">
+        <f>B27</f>
+        <v>0.59636320797211395</v>
+      </c>
+      <c r="N6" s="19">
+        <f>B34</f>
+        <v>0.59636320797211395</v>
+      </c>
+      <c r="O6" s="19">
+        <f>B41</f>
+        <v>0.59636320797211395</v>
+      </c>
+      <c r="P6" s="19">
+        <f>B48</f>
+        <v>0.59636320797211395</v>
+      </c>
+      <c r="Q6" s="19">
+        <f>B55</f>
+        <v>0.87506150253286397</v>
+      </c>
+      <c r="R6" s="19">
+        <f>B62</f>
+        <v>0.87506150253286397</v>
+      </c>
+      <c r="S6" s="19">
+        <f>B69</f>
+        <v>0.94522636397025706</v>
+      </c>
+      <c r="T6" s="19">
+        <f>B76</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="21">
+        <f>B83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>0.92657810301934096</v>
+      </c>
+      <c r="C7">
+        <v>0.93</v>
+      </c>
+      <c r="D7">
+        <v>0.93</v>
+      </c>
+      <c r="E7">
+        <v>0.93</v>
+      </c>
+      <c r="F7">
+        <v>144303</v>
+      </c>
+      <c r="I7" s="8" t="str">
+        <f t="shared" ref="I7:I10" si="0">A7</f>
+        <v>DT-CART</v>
+      </c>
+      <c r="J7" s="18">
+        <f t="shared" ref="J7:J10" si="1">B7</f>
+        <v>0.92657810301934096</v>
+      </c>
+      <c r="K7" s="18">
+        <f t="shared" ref="K7:K10" si="2">B14</f>
+        <v>0.92668898082506901</v>
+      </c>
+      <c r="L7" s="18">
+        <f t="shared" ref="L7:L10" si="3">B21</f>
+        <v>0.53996105417073703</v>
+      </c>
+      <c r="M7" s="18">
+        <f t="shared" ref="M7:M10" si="4">B28</f>
+        <v>0.89691828998704104</v>
+      </c>
+      <c r="N7" s="18">
+        <f t="shared" ref="N7:N10" si="5">B35</f>
+        <v>0.89735487134709602</v>
+      </c>
+      <c r="O7" s="18">
+        <f t="shared" ref="O7:O10" si="6">B42</f>
+        <v>0.92111044122436803</v>
+      </c>
+      <c r="P7" s="18">
+        <f t="shared" ref="P7:P10" si="7">B49</f>
+        <v>0.92097184396720699</v>
+      </c>
+      <c r="Q7" s="18">
+        <f t="shared" ref="Q7:Q10" si="8">B56</f>
+        <v>0.92077087794432499</v>
+      </c>
+      <c r="R7" s="18">
+        <f t="shared" ref="R7:R10" si="9">B63</f>
+        <v>0.92134605656154001</v>
+      </c>
+      <c r="S7" s="18">
+        <f t="shared" ref="S7:S10" si="10">B70</f>
+        <v>0.94267617443850704</v>
+      </c>
+      <c r="T7" s="18">
+        <f t="shared" ref="T7:T10" si="11">B77</f>
+        <v>0</v>
+      </c>
+      <c r="U7" s="20">
+        <f t="shared" ref="U7:U10" si="12">B84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>0.929869787876897</v>
+      </c>
+      <c r="C8">
+        <v>0.93</v>
+      </c>
+      <c r="D8">
+        <v>0.93</v>
+      </c>
+      <c r="E8">
+        <v>0.93</v>
+      </c>
+      <c r="F8">
+        <v>144303</v>
+      </c>
+      <c r="I8" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>DT-entropy</v>
+      </c>
+      <c r="J8" s="18">
+        <f t="shared" si="1"/>
+        <v>0.929869787876897</v>
+      </c>
+      <c r="K8" s="18">
+        <f t="shared" si="2"/>
+        <v>0.92953715445971297</v>
+      </c>
+      <c r="L8" s="18">
+        <f t="shared" si="3"/>
+        <v>0.54000263334788601</v>
+      </c>
+      <c r="M8" s="18">
+        <f t="shared" si="4"/>
+        <v>0.90954450011434196</v>
+      </c>
+      <c r="N8" s="18">
+        <f t="shared" si="5"/>
+        <v>0.90928809518859599</v>
+      </c>
+      <c r="O8" s="18">
+        <f t="shared" si="6"/>
+        <v>0.82454973216079996</v>
+      </c>
+      <c r="P8" s="18">
+        <f t="shared" si="7"/>
+        <v>0.81624082659404096</v>
+      </c>
+      <c r="Q8" s="18">
+        <f t="shared" si="8"/>
+        <v>0.84075175152283699</v>
+      </c>
+      <c r="R8" s="18">
+        <f t="shared" si="9"/>
+        <v>0.82231831632051999</v>
+      </c>
+      <c r="S8" s="18">
+        <f t="shared" si="10"/>
+        <v>0.94284942100995806</v>
+      </c>
+      <c r="T8" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U8" s="20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9">
+        <v>0.92458923237909096</v>
+      </c>
+      <c r="C9">
+        <v>0.92</v>
+      </c>
+      <c r="D9">
+        <v>0.92</v>
+      </c>
+      <c r="E9">
+        <v>0.92</v>
+      </c>
+      <c r="F9">
+        <v>144303</v>
+      </c>
+      <c r="I9" s="8" t="str">
+        <f t="shared" si="0"/>
+        <v>RF-10</v>
+      </c>
+      <c r="J9" s="18">
+        <f t="shared" si="1"/>
+        <v>0.92458923237909096</v>
+      </c>
+      <c r="K9" s="18">
+        <f t="shared" si="2"/>
+        <v>0.926903806573667</v>
+      </c>
+      <c r="L9" s="18">
+        <f t="shared" si="3"/>
+        <v>0.546149421702944</v>
+      </c>
+      <c r="M9" s="18">
+        <f t="shared" si="4"/>
+        <v>0.91805437170398396</v>
+      </c>
+      <c r="N9" s="18">
+        <f t="shared" si="5"/>
+        <v>0.91667532899523896</v>
+      </c>
+      <c r="O9" s="18">
+        <f t="shared" si="6"/>
+        <v>0.94211485554700802</v>
+      </c>
+      <c r="P9" s="18">
+        <f t="shared" si="7"/>
+        <v>0.942163364587014</v>
+      </c>
+      <c r="Q9" s="18">
+        <f t="shared" si="8"/>
+        <v>0.942544507044205</v>
+      </c>
+      <c r="R9" s="18">
+        <f t="shared" si="9"/>
+        <v>0.94309889607284603</v>
+      </c>
+      <c r="S9" s="18">
+        <f t="shared" si="10"/>
+        <v>0.94316819470142599</v>
+      </c>
+      <c r="T9" s="18">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U9" s="20">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>0.63402008274256205</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.63</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.64</v>
+      </c>
+      <c r="F10">
+        <v>144303</v>
+      </c>
+      <c r="I10" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>NB-gaussian</v>
+      </c>
+      <c r="J10" s="17">
+        <f t="shared" si="1"/>
+        <v>0.63402008274256205</v>
+      </c>
+      <c r="K10" s="17">
+        <f t="shared" si="2"/>
+        <v>0.63402008274256205</v>
+      </c>
+      <c r="L10" s="17">
+        <f t="shared" si="3"/>
+        <v>0.488409804369971</v>
+      </c>
+      <c r="M10" s="17">
+        <f t="shared" si="4"/>
+        <v>0.63363201042251305</v>
+      </c>
+      <c r="N10" s="17">
+        <f t="shared" si="5"/>
+        <v>0.63363201042251305</v>
+      </c>
+      <c r="O10" s="17" t="str">
+        <f t="shared" si="6"/>
+        <v>-</v>
+      </c>
+      <c r="P10" s="17" t="str">
+        <f t="shared" si="7"/>
+        <v>-</v>
+      </c>
+      <c r="Q10" s="17">
+        <f t="shared" si="8"/>
+        <v>0.64247451542933898</v>
+      </c>
+      <c r="R10" s="17">
+        <f t="shared" si="9"/>
+        <v>0.64247451542933898</v>
+      </c>
+      <c r="S10" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T10" s="17">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U10" s="22">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="15" t="str">
+        <f>J5</f>
+        <v>FULL SET 1</v>
+      </c>
+      <c r="K12" s="15" t="str">
+        <f t="shared" ref="K12:U12" si="13">K5</f>
+        <v>FULL SET 2</v>
+      </c>
+      <c r="L12" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v>Binary Only 1</v>
+      </c>
+      <c r="M12" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v>Numeric Only 1</v>
+      </c>
+      <c r="N12" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v>Numeric Only 2</v>
+      </c>
+      <c r="O12" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v>FULL SET 1a</v>
+      </c>
+      <c r="P12" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v>FULL SET 2a</v>
+      </c>
+      <c r="Q12" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v>FULL SET 1a min-max</v>
+      </c>
+      <c r="R12" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v>FULL SET 2a min-max</v>
+      </c>
+      <c r="S12" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v>FULL SET RF min-max</v>
+      </c>
+      <c r="T12" s="15" t="str">
+        <f t="shared" si="13"/>
+        <v>Numeric Only min-max 1</v>
+      </c>
+      <c r="U12" s="16">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13">
+        <v>0.59636320797211395</v>
+      </c>
+      <c r="C13">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D13">
+        <v>0.6</v>
+      </c>
+      <c r="E13">
+        <v>0.59</v>
+      </c>
+      <c r="F13">
+        <v>144303</v>
+      </c>
+      <c r="I13" s="5" t="str">
+        <f>A13</f>
+        <v>KNN-7</v>
+      </c>
+      <c r="J13" s="19">
+        <f>C6</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="K13" s="19">
+        <f>C13</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="L13" s="19">
+        <f>C20</f>
+        <v>0.39</v>
+      </c>
+      <c r="M13" s="19">
+        <f>C27</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N13" s="19">
+        <f>C34</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O13" s="19">
+        <f>C41</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="P13" s="19">
+        <f>C48</f>
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="Q13" s="19">
+        <f>C55</f>
+        <v>0.87</v>
+      </c>
+      <c r="R13" s="19">
+        <f>C62</f>
+        <v>0.87</v>
+      </c>
+      <c r="S13" s="19">
+        <f>C69</f>
+        <v>0.95</v>
+      </c>
+      <c r="T13" s="19">
+        <f>C76</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="21">
+        <f>C83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0.92668898082506901</v>
+      </c>
+      <c r="C14">
+        <v>0.93</v>
+      </c>
+      <c r="D14">
+        <v>0.93</v>
+      </c>
+      <c r="E14">
+        <v>0.93</v>
+      </c>
+      <c r="F14">
+        <v>144303</v>
+      </c>
+      <c r="I14" s="8" t="str">
+        <f t="shared" ref="I14:I17" si="14">A14</f>
+        <v>KNN-3</v>
+      </c>
+      <c r="J14" s="18">
+        <f t="shared" ref="J14:J17" si="15">C7</f>
+        <v>0.93</v>
+      </c>
+      <c r="K14" s="18">
+        <f t="shared" ref="K14:K17" si="16">C14</f>
+        <v>0.93</v>
+      </c>
+      <c r="L14" s="18">
+        <f t="shared" ref="L14:L17" si="17">C21</f>
+        <v>0.54</v>
+      </c>
+      <c r="M14" s="18">
+        <f t="shared" ref="M14:M17" si="18">C28</f>
+        <v>0.9</v>
+      </c>
+      <c r="N14" s="18">
+        <f t="shared" ref="N14:N17" si="19">C35</f>
+        <v>0.9</v>
+      </c>
+      <c r="O14" s="18">
+        <f t="shared" ref="O14:O17" si="20">C42</f>
+        <v>0.92</v>
+      </c>
+      <c r="P14" s="18">
+        <f t="shared" ref="P14:P17" si="21">C49</f>
+        <v>0.92</v>
+      </c>
+      <c r="Q14" s="18">
+        <f t="shared" ref="Q14:Q17" si="22">C56</f>
+        <v>0.92</v>
+      </c>
+      <c r="R14" s="18">
+        <f t="shared" ref="R14:R17" si="23">C63</f>
+        <v>0.92</v>
+      </c>
+      <c r="S14" s="18">
+        <f t="shared" ref="S14:S17" si="24">C70</f>
+        <v>0.94</v>
+      </c>
+      <c r="T14" s="18">
+        <f t="shared" ref="T14:T17" si="25">C77</f>
+        <v>0</v>
+      </c>
+      <c r="U14" s="20">
+        <f t="shared" ref="U14:U17" si="26">C84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0.92953715445971297</v>
+      </c>
+      <c r="C15">
+        <v>0.93</v>
+      </c>
+      <c r="D15">
+        <v>0.93</v>
+      </c>
+      <c r="E15">
+        <v>0.93</v>
+      </c>
+      <c r="F15">
+        <v>144303</v>
+      </c>
+      <c r="I15" s="8" t="str">
+        <f t="shared" si="14"/>
+        <v>DT-CART</v>
+      </c>
+      <c r="J15" s="18">
+        <f t="shared" si="15"/>
+        <v>0.93</v>
+      </c>
+      <c r="K15" s="18">
+        <f t="shared" si="16"/>
+        <v>0.93</v>
+      </c>
+      <c r="L15" s="18">
+        <f t="shared" si="17"/>
+        <v>0.54</v>
+      </c>
+      <c r="M15" s="18">
+        <f t="shared" si="18"/>
+        <v>0.91</v>
+      </c>
+      <c r="N15" s="18">
+        <f t="shared" si="19"/>
+        <v>0.91</v>
+      </c>
+      <c r="O15" s="18">
+        <f t="shared" si="20"/>
+        <v>0.82</v>
+      </c>
+      <c r="P15" s="18">
+        <f t="shared" si="21"/>
+        <v>0.82</v>
+      </c>
+      <c r="Q15" s="18">
+        <f t="shared" si="22"/>
+        <v>0.84</v>
+      </c>
+      <c r="R15" s="18">
+        <f t="shared" si="23"/>
+        <v>0.82</v>
+      </c>
+      <c r="S15" s="18">
+        <f t="shared" si="24"/>
+        <v>0.94</v>
+      </c>
+      <c r="T15" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U15" s="20">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>0.926903806573667</v>
+      </c>
+      <c r="C16">
+        <v>0.93</v>
+      </c>
+      <c r="D16">
+        <v>0.93</v>
+      </c>
+      <c r="E16">
+        <v>0.93</v>
+      </c>
+      <c r="F16">
+        <v>144303</v>
+      </c>
+      <c r="I16" s="8" t="str">
+        <f t="shared" si="14"/>
+        <v>DT-entropy</v>
+      </c>
+      <c r="J16" s="18">
+        <f t="shared" si="15"/>
+        <v>0.92</v>
+      </c>
+      <c r="K16" s="18">
+        <f t="shared" si="16"/>
+        <v>0.93</v>
+      </c>
+      <c r="L16" s="18">
+        <f t="shared" si="17"/>
+        <v>0.54</v>
+      </c>
+      <c r="M16" s="18">
+        <f t="shared" si="18"/>
+        <v>0.92</v>
+      </c>
+      <c r="N16" s="18">
+        <f t="shared" si="19"/>
+        <v>0.92</v>
+      </c>
+      <c r="O16" s="18">
+        <f t="shared" si="20"/>
+        <v>0.94</v>
+      </c>
+      <c r="P16" s="18">
+        <f t="shared" si="21"/>
+        <v>0.94</v>
+      </c>
+      <c r="Q16" s="18">
+        <f t="shared" si="22"/>
+        <v>0.94</v>
+      </c>
+      <c r="R16" s="18">
+        <f>C65</f>
+        <v>0.94</v>
+      </c>
+      <c r="S16" s="18">
+        <f t="shared" si="24"/>
+        <v>0.94</v>
+      </c>
+      <c r="T16" s="18">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U16" s="20">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>0.63402008274256205</v>
+      </c>
+      <c r="C17">
+        <v>0.64</v>
+      </c>
+      <c r="D17">
+        <v>0.63</v>
+      </c>
+      <c r="E17">
+        <v>0.64</v>
+      </c>
+      <c r="F17">
+        <v>144303</v>
+      </c>
+      <c r="I17" s="11" t="str">
+        <f t="shared" si="14"/>
+        <v>RF-10</v>
+      </c>
+      <c r="J17" s="17">
+        <f t="shared" si="15"/>
+        <v>0.64</v>
+      </c>
+      <c r="K17" s="17">
+        <f t="shared" si="16"/>
+        <v>0.64</v>
+      </c>
+      <c r="L17" s="17">
+        <f t="shared" si="17"/>
+        <v>0.24</v>
+      </c>
+      <c r="M17" s="17">
+        <f t="shared" si="18"/>
+        <v>0.64</v>
+      </c>
+      <c r="N17" s="17">
+        <f t="shared" si="19"/>
+        <v>0.64</v>
+      </c>
+      <c r="O17" s="17" t="str">
+        <f t="shared" si="20"/>
+        <v>-</v>
+      </c>
+      <c r="P17" s="17" t="str">
+        <f t="shared" si="21"/>
+        <v>-</v>
+      </c>
+      <c r="Q17" s="17">
+        <f t="shared" si="22"/>
+        <v>0.63</v>
+      </c>
+      <c r="R17" s="17">
+        <f t="shared" si="23"/>
+        <v>0.63</v>
+      </c>
+      <c r="S17" s="17">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="17">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="U17" s="22">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19" s="15" t="str">
+        <f>J5</f>
+        <v>FULL SET 1</v>
+      </c>
+      <c r="K19" s="15" t="str">
+        <f t="shared" ref="K19:U19" si="27">K5</f>
+        <v>FULL SET 2</v>
+      </c>
+      <c r="L19" s="15" t="str">
+        <f t="shared" si="27"/>
+        <v>Binary Only 1</v>
+      </c>
+      <c r="M19" s="15" t="str">
+        <f t="shared" si="27"/>
+        <v>Numeric Only 1</v>
+      </c>
+      <c r="N19" s="15" t="str">
+        <f t="shared" si="27"/>
+        <v>Numeric Only 2</v>
+      </c>
+      <c r="O19" s="15" t="str">
+        <f t="shared" si="27"/>
+        <v>FULL SET 1a</v>
+      </c>
+      <c r="P19" s="15" t="str">
+        <f t="shared" si="27"/>
+        <v>FULL SET 2a</v>
+      </c>
+      <c r="Q19" s="15" t="str">
+        <f t="shared" si="27"/>
+        <v>FULL SET 1a min-max</v>
+      </c>
+      <c r="R19" s="15" t="str">
+        <f t="shared" si="27"/>
+        <v>FULL SET 2a min-max</v>
+      </c>
+      <c r="S19" s="15" t="str">
+        <f t="shared" si="27"/>
+        <v>FULL SET RF min-max</v>
+      </c>
+      <c r="T19" s="15" t="str">
+        <f t="shared" si="27"/>
+        <v>Numeric Only min-max 1</v>
+      </c>
+      <c r="U19" s="16">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0.41493939834930599</v>
+      </c>
+      <c r="C20">
+        <v>0.39</v>
+      </c>
+      <c r="D20">
+        <v>0.41</v>
+      </c>
+      <c r="E20">
+        <v>0.4</v>
+      </c>
+      <c r="F20">
+        <v>144303</v>
+      </c>
+      <c r="I20" s="5" t="str">
+        <f>A20</f>
+        <v>KNN-3</v>
+      </c>
+      <c r="J20" s="19">
+        <f>D6</f>
+        <v>0.6</v>
+      </c>
+      <c r="K20" s="19">
+        <f>D13</f>
+        <v>0.6</v>
+      </c>
+      <c r="L20" s="19">
+        <f>D20</f>
+        <v>0.41</v>
+      </c>
+      <c r="M20" s="19">
+        <f>D27</f>
+        <v>0.6</v>
+      </c>
+      <c r="N20" s="19">
+        <f>D34</f>
+        <v>0.6</v>
+      </c>
+      <c r="O20" s="19">
+        <f>D41</f>
+        <v>0.6</v>
+      </c>
+      <c r="P20" s="19">
+        <f>D48</f>
+        <v>0.6</v>
+      </c>
+      <c r="Q20" s="19">
+        <f>D55</f>
+        <v>0.88</v>
+      </c>
+      <c r="R20" s="19">
+        <f>D62</f>
+        <v>0.88</v>
+      </c>
+      <c r="S20" s="19">
+        <f>D69</f>
+        <v>0.95</v>
+      </c>
+      <c r="T20" s="19">
+        <f>D76</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="21">
+        <f>D83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>0.53996105417073703</v>
+      </c>
+      <c r="C21">
+        <v>0.54</v>
+      </c>
+      <c r="D21">
+        <v>0.54</v>
+      </c>
+      <c r="E21">
+        <v>0.54</v>
+      </c>
+      <c r="F21">
+        <v>144303</v>
+      </c>
+      <c r="I21" s="8" t="str">
+        <f t="shared" ref="I21:I24" si="28">A21</f>
+        <v>DT-CART</v>
+      </c>
+      <c r="J21" s="18">
+        <f t="shared" ref="J21:J24" si="29">D7</f>
+        <v>0.93</v>
+      </c>
+      <c r="K21" s="18">
+        <f t="shared" ref="K21:K24" si="30">D14</f>
+        <v>0.93</v>
+      </c>
+      <c r="L21" s="18">
+        <f t="shared" ref="L21:L24" si="31">D21</f>
+        <v>0.54</v>
+      </c>
+      <c r="M21" s="18">
+        <f t="shared" ref="M21:M24" si="32">D28</f>
+        <v>0.9</v>
+      </c>
+      <c r="N21" s="18">
+        <f t="shared" ref="N21:N24" si="33">D35</f>
+        <v>0.9</v>
+      </c>
+      <c r="O21" s="18">
+        <f t="shared" ref="O21:O24" si="34">D42</f>
+        <v>0.92</v>
+      </c>
+      <c r="P21" s="18">
+        <f t="shared" ref="P21:P24" si="35">D49</f>
+        <v>0.92</v>
+      </c>
+      <c r="Q21" s="18">
+        <f t="shared" ref="Q21:Q24" si="36">D56</f>
+        <v>0.92</v>
+      </c>
+      <c r="R21" s="18">
+        <f t="shared" ref="R21:R24" si="37">D63</f>
+        <v>0.92</v>
+      </c>
+      <c r="S21" s="18">
+        <f t="shared" ref="S21:S24" si="38">D70</f>
+        <v>0.94</v>
+      </c>
+      <c r="T21" s="18">
+        <f t="shared" ref="T21:T24" si="39">D77</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="20">
+        <f t="shared" ref="U21:U24" si="40">D84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22">
+        <v>0.54000263334788601</v>
+      </c>
+      <c r="C22">
+        <v>0.54</v>
+      </c>
+      <c r="D22">
+        <v>0.54</v>
+      </c>
+      <c r="E22">
+        <v>0.54</v>
+      </c>
+      <c r="F22">
+        <v>144303</v>
+      </c>
+      <c r="I22" s="8" t="str">
+        <f t="shared" si="28"/>
+        <v>DT-entropy</v>
+      </c>
+      <c r="J22" s="18">
+        <f t="shared" si="29"/>
+        <v>0.93</v>
+      </c>
+      <c r="K22" s="18">
+        <f t="shared" si="30"/>
+        <v>0.93</v>
+      </c>
+      <c r="L22" s="18">
+        <f t="shared" si="31"/>
+        <v>0.54</v>
+      </c>
+      <c r="M22" s="18">
+        <f t="shared" si="32"/>
+        <v>0.91</v>
+      </c>
+      <c r="N22" s="18">
+        <f t="shared" si="33"/>
+        <v>0.91</v>
+      </c>
+      <c r="O22" s="18">
+        <f t="shared" si="34"/>
+        <v>0.82</v>
+      </c>
+      <c r="P22" s="18">
+        <f t="shared" si="35"/>
+        <v>0.82</v>
+      </c>
+      <c r="Q22" s="18">
+        <f t="shared" si="36"/>
+        <v>0.84</v>
+      </c>
+      <c r="R22" s="18">
+        <f t="shared" si="37"/>
+        <v>0.82</v>
+      </c>
+      <c r="S22" s="18">
+        <f t="shared" si="38"/>
+        <v>0.94</v>
+      </c>
+      <c r="T22" s="18">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="U22" s="20">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23">
+        <v>0.546149421702944</v>
+      </c>
+      <c r="C23">
+        <v>0.54</v>
+      </c>
+      <c r="D23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E23">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F23">
+        <v>144303</v>
+      </c>
+      <c r="I23" s="8" t="str">
+        <f t="shared" si="28"/>
+        <v>RF-10</v>
+      </c>
+      <c r="J23" s="18">
+        <f t="shared" si="29"/>
+        <v>0.92</v>
+      </c>
+      <c r="K23" s="18">
+        <f t="shared" si="30"/>
+        <v>0.93</v>
+      </c>
+      <c r="L23" s="18">
+        <f t="shared" si="31"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M23" s="18">
+        <f t="shared" si="32"/>
+        <v>0.92</v>
+      </c>
+      <c r="N23" s="18">
+        <f t="shared" si="33"/>
+        <v>0.92</v>
+      </c>
+      <c r="O23" s="18">
+        <f t="shared" si="34"/>
+        <v>0.94</v>
+      </c>
+      <c r="P23" s="18">
+        <f t="shared" si="35"/>
+        <v>0.94</v>
+      </c>
+      <c r="Q23" s="18">
+        <f t="shared" si="36"/>
+        <v>0.94</v>
+      </c>
+      <c r="R23" s="18">
+        <f t="shared" si="37"/>
+        <v>0.94</v>
+      </c>
+      <c r="S23" s="18">
+        <f t="shared" si="38"/>
+        <v>0.94</v>
+      </c>
+      <c r="T23" s="18">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="U23" s="20">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>0.488409804369971</v>
+      </c>
+      <c r="C24">
+        <v>0.24</v>
+      </c>
+      <c r="D24">
+        <v>0.49</v>
+      </c>
+      <c r="E24">
+        <v>0.32</v>
+      </c>
+      <c r="F24">
+        <v>144303</v>
+      </c>
+      <c r="I24" s="11" t="str">
+        <f t="shared" si="28"/>
+        <v>NB-gaussian</v>
+      </c>
+      <c r="J24" s="17">
+        <f t="shared" si="29"/>
+        <v>0.63</v>
+      </c>
+      <c r="K24" s="17">
+        <f t="shared" si="30"/>
+        <v>0.63</v>
+      </c>
+      <c r="L24" s="17">
+        <f t="shared" si="31"/>
+        <v>0.49</v>
+      </c>
+      <c r="M24" s="17">
+        <f t="shared" si="32"/>
+        <v>0.63</v>
+      </c>
+      <c r="N24" s="17">
+        <f t="shared" si="33"/>
+        <v>0.63</v>
+      </c>
+      <c r="O24" s="17" t="str">
+        <f t="shared" si="34"/>
+        <v>-</v>
+      </c>
+      <c r="P24" s="17" t="str">
+        <f t="shared" si="35"/>
+        <v>-</v>
+      </c>
+      <c r="Q24" s="17">
+        <f t="shared" si="36"/>
+        <v>0.64</v>
+      </c>
+      <c r="R24" s="17">
+        <f t="shared" si="37"/>
+        <v>0.64</v>
+      </c>
+      <c r="S24" s="17">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="T24" s="17">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="U24" s="22">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" t="s">
+        <v>10</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="15" t="str">
+        <f>J5</f>
+        <v>FULL SET 1</v>
+      </c>
+      <c r="K26" s="15" t="str">
+        <f t="shared" ref="K26:U26" si="41">K5</f>
+        <v>FULL SET 2</v>
+      </c>
+      <c r="L26" s="15" t="str">
+        <f t="shared" si="41"/>
+        <v>Binary Only 1</v>
+      </c>
+      <c r="M26" s="15" t="str">
+        <f t="shared" si="41"/>
+        <v>Numeric Only 1</v>
+      </c>
+      <c r="N26" s="15" t="str">
+        <f t="shared" si="41"/>
+        <v>Numeric Only 2</v>
+      </c>
+      <c r="O26" s="15" t="str">
+        <f t="shared" si="41"/>
+        <v>FULL SET 1a</v>
+      </c>
+      <c r="P26" s="15" t="str">
+        <f t="shared" si="41"/>
+        <v>FULL SET 2a</v>
+      </c>
+      <c r="Q26" s="15" t="str">
+        <f t="shared" si="41"/>
+        <v>FULL SET 1a min-max</v>
+      </c>
+      <c r="R26" s="15" t="str">
+        <f t="shared" si="41"/>
+        <v>FULL SET 2a min-max</v>
+      </c>
+      <c r="S26" s="15" t="str">
+        <f t="shared" si="41"/>
+        <v>FULL SET RF min-max</v>
+      </c>
+      <c r="T26" s="15" t="str">
+        <f t="shared" si="41"/>
+        <v>Numeric Only min-max 1</v>
+      </c>
+      <c r="U26" s="16">
+        <f t="shared" si="41"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0.59636320797211395</v>
+      </c>
+      <c r="C27">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D27">
+        <v>0.6</v>
+      </c>
+      <c r="E27">
+        <v>0.59</v>
+      </c>
+      <c r="F27">
+        <v>144303</v>
+      </c>
+      <c r="I27" s="5" t="str">
+        <f>A27</f>
+        <v>KNN-3</v>
+      </c>
+      <c r="J27" s="19">
+        <f>E6</f>
+        <v>0.59</v>
+      </c>
+      <c r="K27" s="19">
+        <f>E13</f>
+        <v>0.59</v>
+      </c>
+      <c r="L27" s="19">
+        <f>E20</f>
+        <v>0.4</v>
+      </c>
+      <c r="M27" s="19">
+        <f>E27</f>
+        <v>0.59</v>
+      </c>
+      <c r="N27" s="19">
+        <f>E34</f>
+        <v>0.59</v>
+      </c>
+      <c r="O27" s="19">
+        <f>E41</f>
+        <v>0.59</v>
+      </c>
+      <c r="P27" s="19">
+        <f>E48</f>
+        <v>0.59</v>
+      </c>
+      <c r="Q27" s="19">
+        <f>E55</f>
+        <v>0.87</v>
+      </c>
+      <c r="R27" s="19">
+        <f>E62</f>
+        <v>0.87</v>
+      </c>
+      <c r="S27" s="19">
+        <f>E69</f>
+        <v>0.94</v>
+      </c>
+      <c r="T27" s="19">
+        <f>E76</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="21">
+        <f>E83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28">
+        <v>0.89691828998704104</v>
+      </c>
+      <c r="C28">
+        <v>0.9</v>
+      </c>
+      <c r="D28">
+        <v>0.9</v>
+      </c>
+      <c r="E28">
+        <v>0.9</v>
+      </c>
+      <c r="F28">
+        <v>144303</v>
+      </c>
+      <c r="I28" s="8" t="str">
+        <f t="shared" ref="I28:I31" si="42">A28</f>
+        <v>DT-CART</v>
+      </c>
+      <c r="J28" s="18">
+        <f t="shared" ref="J28:J31" si="43">E7</f>
+        <v>0.93</v>
+      </c>
+      <c r="K28" s="18">
+        <f t="shared" ref="K28:K31" si="44">E14</f>
+        <v>0.93</v>
+      </c>
+      <c r="L28" s="18">
+        <f t="shared" ref="L28:L31" si="45">E21</f>
+        <v>0.54</v>
+      </c>
+      <c r="M28" s="18">
+        <f t="shared" ref="M28:M31" si="46">E28</f>
+        <v>0.9</v>
+      </c>
+      <c r="N28" s="18">
+        <f t="shared" ref="N28:N31" si="47">E35</f>
+        <v>0.9</v>
+      </c>
+      <c r="O28" s="18">
+        <f t="shared" ref="O28:O31" si="48">E42</f>
+        <v>0.92</v>
+      </c>
+      <c r="P28" s="18">
+        <f t="shared" ref="P28:P31" si="49">E49</f>
+        <v>0.92</v>
+      </c>
+      <c r="Q28" s="18">
+        <f t="shared" ref="Q28:Q31" si="50">E56</f>
+        <v>0.92</v>
+      </c>
+      <c r="R28" s="18">
+        <f t="shared" ref="R28:R31" si="51">E63</f>
+        <v>0.92</v>
+      </c>
+      <c r="S28" s="18">
+        <f t="shared" ref="S28:S31" si="52">E70</f>
+        <v>0.94</v>
+      </c>
+      <c r="T28" s="18">
+        <f t="shared" ref="T28:T31" si="53">E77</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="20">
+        <f t="shared" ref="U28:U31" si="54">E84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29">
+        <v>0.90954450011434196</v>
+      </c>
+      <c r="C29">
+        <v>0.91</v>
+      </c>
+      <c r="D29">
+        <v>0.91</v>
+      </c>
+      <c r="E29">
+        <v>0.91</v>
+      </c>
+      <c r="F29">
+        <v>144303</v>
+      </c>
+      <c r="I29" s="8" t="str">
+        <f t="shared" si="42"/>
+        <v>DT-entropy</v>
+      </c>
+      <c r="J29" s="18">
+        <f t="shared" si="43"/>
+        <v>0.93</v>
+      </c>
+      <c r="K29" s="18">
+        <f t="shared" si="44"/>
+        <v>0.93</v>
+      </c>
+      <c r="L29" s="18">
+        <f t="shared" si="45"/>
+        <v>0.54</v>
+      </c>
+      <c r="M29" s="18">
+        <f t="shared" si="46"/>
+        <v>0.91</v>
+      </c>
+      <c r="N29" s="18">
+        <f t="shared" si="47"/>
+        <v>0.91</v>
+      </c>
+      <c r="O29" s="18">
+        <f t="shared" si="48"/>
+        <v>0.82</v>
+      </c>
+      <c r="P29" s="18">
+        <f t="shared" si="49"/>
+        <v>0.82</v>
+      </c>
+      <c r="Q29" s="18">
+        <f t="shared" si="50"/>
+        <v>0.84</v>
+      </c>
+      <c r="R29" s="18">
+        <f t="shared" si="51"/>
+        <v>0.82</v>
+      </c>
+      <c r="S29" s="18">
+        <f t="shared" si="52"/>
+        <v>0.94</v>
+      </c>
+      <c r="T29" s="18">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="U29" s="20">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>0.91805437170398396</v>
+      </c>
+      <c r="C30">
+        <v>0.92</v>
+      </c>
+      <c r="D30">
+        <v>0.92</v>
+      </c>
+      <c r="E30">
+        <v>0.92</v>
+      </c>
+      <c r="F30">
+        <v>144303</v>
+      </c>
+      <c r="I30" s="8" t="str">
+        <f t="shared" si="42"/>
+        <v>RF-10</v>
+      </c>
+      <c r="J30" s="18">
+        <f t="shared" si="43"/>
+        <v>0.92</v>
+      </c>
+      <c r="K30" s="18">
+        <f t="shared" si="44"/>
+        <v>0.93</v>
+      </c>
+      <c r="L30" s="18">
+        <f t="shared" si="45"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="M30" s="18">
+        <f t="shared" si="46"/>
+        <v>0.92</v>
+      </c>
+      <c r="N30" s="18">
+        <f t="shared" si="47"/>
+        <v>0.92</v>
+      </c>
+      <c r="O30" s="18">
+        <f t="shared" si="48"/>
+        <v>0.94</v>
+      </c>
+      <c r="P30" s="18">
+        <f t="shared" si="49"/>
+        <v>0.94</v>
+      </c>
+      <c r="Q30" s="18">
+        <f t="shared" si="50"/>
+        <v>0.94</v>
+      </c>
+      <c r="R30" s="18">
+        <f t="shared" si="51"/>
+        <v>0.94</v>
+      </c>
+      <c r="S30" s="18">
+        <f t="shared" si="52"/>
+        <v>0.94</v>
+      </c>
+      <c r="T30" s="18">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="U30" s="20">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31">
+        <v>0.63363201042251305</v>
+      </c>
+      <c r="C31">
+        <v>0.64</v>
+      </c>
+      <c r="D31">
+        <v>0.63</v>
+      </c>
+      <c r="E31">
+        <v>0.64</v>
+      </c>
+      <c r="F31">
+        <v>144303</v>
+      </c>
+      <c r="I31" s="11" t="str">
+        <f t="shared" si="42"/>
+        <v>NB-gaussian</v>
+      </c>
+      <c r="J31" s="17">
+        <f t="shared" si="43"/>
+        <v>0.64</v>
+      </c>
+      <c r="K31" s="17">
+        <f t="shared" si="44"/>
+        <v>0.64</v>
+      </c>
+      <c r="L31" s="17">
+        <f t="shared" si="45"/>
+        <v>0.32</v>
+      </c>
+      <c r="M31" s="17">
+        <f t="shared" si="46"/>
+        <v>0.64</v>
+      </c>
+      <c r="N31" s="17">
+        <f t="shared" si="47"/>
+        <v>0.64</v>
+      </c>
+      <c r="O31" s="17" t="str">
+        <f t="shared" si="48"/>
+        <v>-</v>
+      </c>
+      <c r="P31" s="17" t="str">
+        <f t="shared" si="49"/>
+        <v>-</v>
+      </c>
+      <c r="Q31" s="17">
+        <f t="shared" si="50"/>
+        <v>0.62</v>
+      </c>
+      <c r="R31" s="17">
+        <f t="shared" si="51"/>
+        <v>0.62</v>
+      </c>
+      <c r="S31" s="17">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="17">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="22">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>0.59636320797211395</v>
+      </c>
+      <c r="C34">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D34">
+        <v>0.6</v>
+      </c>
+      <c r="E34">
+        <v>0.59</v>
+      </c>
+      <c r="F34">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>0.89735487134709602</v>
+      </c>
+      <c r="C35">
+        <v>0.9</v>
+      </c>
+      <c r="D35">
+        <v>0.9</v>
+      </c>
+      <c r="E35">
+        <v>0.9</v>
+      </c>
+      <c r="F35">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36">
+        <v>0.90928809518859599</v>
+      </c>
+      <c r="C36">
+        <v>0.91</v>
+      </c>
+      <c r="D36">
+        <v>0.91</v>
+      </c>
+      <c r="E36">
+        <v>0.91</v>
+      </c>
+      <c r="F36">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37">
+        <v>0.91667532899523896</v>
+      </c>
+      <c r="C37">
+        <v>0.92</v>
+      </c>
+      <c r="D37">
+        <v>0.92</v>
+      </c>
+      <c r="E37">
+        <v>0.92</v>
+      </c>
+      <c r="F37">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>0.63363201042251305</v>
+      </c>
+      <c r="C38">
+        <v>0.64</v>
+      </c>
+      <c r="D38">
+        <v>0.63</v>
+      </c>
+      <c r="E38">
+        <v>0.64</v>
+      </c>
+      <c r="F38">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41">
+        <v>0.59636320797211395</v>
+      </c>
+      <c r="C41">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D41">
+        <v>0.6</v>
+      </c>
+      <c r="E41">
+        <v>0.59</v>
+      </c>
+      <c r="F41">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42">
+        <v>0.92111044122436803</v>
+      </c>
+      <c r="C42">
+        <v>0.92</v>
+      </c>
+      <c r="D42">
+        <v>0.92</v>
+      </c>
+      <c r="E42">
+        <v>0.92</v>
+      </c>
+      <c r="F42">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43">
+        <v>0.82454973216079996</v>
+      </c>
+      <c r="C43">
+        <v>0.82</v>
+      </c>
+      <c r="D43">
+        <v>0.82</v>
+      </c>
+      <c r="E43">
+        <v>0.82</v>
+      </c>
+      <c r="F43">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44">
+        <v>0.94211485554700802</v>
+      </c>
+      <c r="C44">
+        <v>0.94</v>
+      </c>
+      <c r="D44">
+        <v>0.94</v>
+      </c>
+      <c r="E44">
+        <v>0.94</v>
+      </c>
+      <c r="F44">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>68</v>
+      </c>
+      <c r="E45" t="s">
+        <v>68</v>
+      </c>
+      <c r="F45" t="s">
+        <v>68</v>
+      </c>
+      <c r="G45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>57</v>
+      </c>
+      <c r="B48">
+        <v>0.59636320797211395</v>
+      </c>
+      <c r="C48">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D48">
+        <v>0.6</v>
+      </c>
+      <c r="E48">
+        <v>0.59</v>
+      </c>
+      <c r="F48">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>64</v>
+      </c>
+      <c r="B49">
+        <v>0.92097184396720699</v>
+      </c>
+      <c r="C49">
+        <v>0.92</v>
+      </c>
+      <c r="D49">
+        <v>0.92</v>
+      </c>
+      <c r="E49">
+        <v>0.92</v>
+      </c>
+      <c r="F49">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="B50">
+        <v>0.81624082659404096</v>
+      </c>
+      <c r="C50">
+        <v>0.82</v>
+      </c>
+      <c r="D50">
+        <v>0.82</v>
+      </c>
+      <c r="E50">
+        <v>0.82</v>
+      </c>
+      <c r="F50">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B51">
+        <v>0.942163364587014</v>
+      </c>
+      <c r="C51">
+        <v>0.94</v>
+      </c>
+      <c r="D51">
+        <v>0.94</v>
+      </c>
+      <c r="E51">
+        <v>0.94</v>
+      </c>
+      <c r="F51">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>67</v>
+      </c>
+      <c r="B52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>68</v>
+      </c>
+      <c r="E52" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" t="s">
+        <v>68</v>
+      </c>
+      <c r="G52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" t="s">
+        <v>9</v>
+      </c>
+      <c r="F54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55">
+        <v>0.87506150253286397</v>
+      </c>
+      <c r="C55">
+        <v>0.87</v>
+      </c>
+      <c r="D55">
+        <v>0.88</v>
+      </c>
+      <c r="E55">
+        <v>0.87</v>
+      </c>
+      <c r="F55">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56">
+        <v>0.92077087794432499</v>
+      </c>
+      <c r="C56">
+        <v>0.92</v>
+      </c>
+      <c r="D56">
+        <v>0.92</v>
+      </c>
+      <c r="E56">
+        <v>0.92</v>
+      </c>
+      <c r="F56">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57">
+        <v>0.84075175152283699</v>
+      </c>
+      <c r="C57">
+        <v>0.84</v>
+      </c>
+      <c r="D57">
+        <v>0.84</v>
+      </c>
+      <c r="E57">
+        <v>0.84</v>
+      </c>
+      <c r="F57">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58">
+        <v>0.942544507044205</v>
+      </c>
+      <c r="C58">
+        <v>0.94</v>
+      </c>
+      <c r="D58">
+        <v>0.94</v>
+      </c>
+      <c r="E58">
+        <v>0.94</v>
+      </c>
+      <c r="F58">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59">
+        <v>0.64247451542933898</v>
+      </c>
+      <c r="C59">
+        <v>0.63</v>
+      </c>
+      <c r="D59">
+        <v>0.64</v>
+      </c>
+      <c r="E59">
+        <v>0.62</v>
+      </c>
+      <c r="F59">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C61" t="s">
+        <v>7</v>
+      </c>
+      <c r="D61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" t="s">
+        <v>9</v>
+      </c>
+      <c r="F61" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62">
+        <v>0.87506150253286397</v>
+      </c>
+      <c r="C62">
+        <v>0.87</v>
+      </c>
+      <c r="D62">
+        <v>0.88</v>
+      </c>
+      <c r="E62">
+        <v>0.87</v>
+      </c>
+      <c r="F62">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>0.92134605656154001</v>
+      </c>
+      <c r="C63">
+        <v>0.92</v>
+      </c>
+      <c r="D63">
+        <v>0.92</v>
+      </c>
+      <c r="E63">
+        <v>0.92</v>
+      </c>
+      <c r="F63">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>0.82231831632051999</v>
+      </c>
+      <c r="C64">
+        <v>0.82</v>
+      </c>
+      <c r="D64">
+        <v>0.82</v>
+      </c>
+      <c r="E64">
+        <v>0.82</v>
+      </c>
+      <c r="F64">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>0.94309889607284603</v>
+      </c>
+      <c r="C65">
+        <v>0.94</v>
+      </c>
+      <c r="D65">
+        <v>0.94</v>
+      </c>
+      <c r="E65">
+        <v>0.94</v>
+      </c>
+      <c r="F65">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>0.64247451542933898</v>
+      </c>
+      <c r="C66">
+        <v>0.63</v>
+      </c>
+      <c r="D66">
+        <v>0.64</v>
+      </c>
+      <c r="E66">
+        <v>0.62</v>
+      </c>
+      <c r="F66">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" t="s">
+        <v>9</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69">
+        <v>0.94522636397025706</v>
+      </c>
+      <c r="C69">
+        <v>0.95</v>
+      </c>
+      <c r="D69">
+        <v>0.95</v>
+      </c>
+      <c r="E69">
+        <v>0.94</v>
+      </c>
+      <c r="F69">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70">
+        <v>0.94267617443850704</v>
+      </c>
+      <c r="C70">
+        <v>0.94</v>
+      </c>
+      <c r="D70">
+        <v>0.94</v>
+      </c>
+      <c r="E70">
+        <v>0.94</v>
+      </c>
+      <c r="F70">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71">
+        <v>0.94284942100995806</v>
+      </c>
+      <c r="C71">
+        <v>0.94</v>
+      </c>
+      <c r="D71">
+        <v>0.94</v>
+      </c>
+      <c r="E71">
+        <v>0.94</v>
+      </c>
+      <c r="F71">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72">
+        <v>0.94316819470142599</v>
+      </c>
+      <c r="C72">
+        <v>0.94</v>
+      </c>
+      <c r="D72">
+        <v>0.94</v>
+      </c>
+      <c r="E72">
+        <v>0.94</v>
+      </c>
+      <c r="F72">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>77</v>
+      </c>
+      <c r="F73">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>3</v>
+      </c>
+      <c r="F78">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="F80">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="B82" t="s">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>7</v>
+      </c>
+      <c r="D82" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" t="s">
+        <v>9</v>
+      </c>
+      <c r="F82" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>2</v>
+      </c>
+      <c r="F84">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>3</v>
+      </c>
+      <c r="F85">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>4</v>
+      </c>
+      <c r="F86">
+        <v>144303</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>144303</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="J6:J10">
+    <cfRule type="top10" dxfId="143" priority="48" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K6:K10">
+    <cfRule type="top10" dxfId="142" priority="47" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:L10">
+    <cfRule type="top10" dxfId="141" priority="46" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M6:M10">
+    <cfRule type="top10" dxfId="140" priority="45" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:N10">
+    <cfRule type="top10" dxfId="139" priority="44" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:O10">
+    <cfRule type="top10" dxfId="138" priority="43" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P6:P10">
+    <cfRule type="top10" dxfId="137" priority="42" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q6:Q10">
+    <cfRule type="top10" dxfId="136" priority="41" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R6:R10">
+    <cfRule type="top10" dxfId="135" priority="40" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S6:S10">
+    <cfRule type="top10" dxfId="134" priority="39" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T6:T10">
+    <cfRule type="top10" dxfId="133" priority="38" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U6:U10">
+    <cfRule type="top10" dxfId="132" priority="37" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13:J17">
+    <cfRule type="top10" dxfId="131" priority="36" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13:K17">
+    <cfRule type="top10" dxfId="130" priority="35" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L13:L17">
+    <cfRule type="top10" dxfId="129" priority="34" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M13:M17">
+    <cfRule type="top10" dxfId="128" priority="33" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13:N17">
+    <cfRule type="top10" dxfId="127" priority="32" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O13:O17">
+    <cfRule type="top10" dxfId="126" priority="31" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P13:P17">
+    <cfRule type="top10" dxfId="125" priority="30" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q13:Q17">
+    <cfRule type="top10" dxfId="124" priority="29" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R13:R17">
+    <cfRule type="top10" dxfId="123" priority="28" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S13:S17">
+    <cfRule type="top10" dxfId="122" priority="27" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T13:T17">
+    <cfRule type="top10" dxfId="121" priority="26" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U13:U17">
+    <cfRule type="top10" dxfId="120" priority="25" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J20:J24">
+    <cfRule type="top10" dxfId="119" priority="24" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K20:K24">
+    <cfRule type="top10" dxfId="118" priority="23" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20:L24">
+    <cfRule type="top10" dxfId="117" priority="22" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M20:M24">
+    <cfRule type="top10" dxfId="116" priority="21" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N20:N24">
+    <cfRule type="top10" dxfId="115" priority="20" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O20:O24">
+    <cfRule type="top10" dxfId="114" priority="19" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P20:P24">
+    <cfRule type="top10" dxfId="113" priority="18" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q20:Q24">
+    <cfRule type="top10" dxfId="112" priority="17" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R20:R24">
+    <cfRule type="top10" dxfId="111" priority="16" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S20:S24">
+    <cfRule type="top10" dxfId="110" priority="15" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T20:T24">
+    <cfRule type="top10" dxfId="109" priority="14" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U20:U24">
+    <cfRule type="top10" dxfId="108" priority="13" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J27:J31">
+    <cfRule type="top10" dxfId="107" priority="12" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K27:K31">
+    <cfRule type="top10" dxfId="106" priority="11" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L27:L31">
+    <cfRule type="top10" dxfId="105" priority="10" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M27:M31">
+    <cfRule type="top10" dxfId="104" priority="9" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N27:N31">
+    <cfRule type="top10" dxfId="103" priority="8" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O27:O31">
+    <cfRule type="top10" dxfId="102" priority="7" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P27:P31">
+    <cfRule type="top10" dxfId="101" priority="6" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q27:Q31">
+    <cfRule type="top10" dxfId="100" priority="5" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R27:R31">
+    <cfRule type="top10" dxfId="99" priority="4" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S27:S31">
+    <cfRule type="top10" dxfId="98" priority="3" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T27:T31">
+    <cfRule type="top10" dxfId="97" priority="2" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U27:U31">
+    <cfRule type="top10" dxfId="96" priority="1" rank="1"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U99"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3352,6 +6135,7 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>55</v>
       </c>
@@ -3378,2470 +6162,6 @@
       <c r="I5" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="15" t="str">
-        <f>A5</f>
-        <v>FULL SET 1</v>
-      </c>
-      <c r="K5" s="15" t="str">
-        <f>A12</f>
-        <v>FULL SET 2</v>
-      </c>
-      <c r="L5" s="15" t="str">
-        <f>A19</f>
-        <v>Binary Only 1</v>
-      </c>
-      <c r="M5" s="15" t="str">
-        <f>A26</f>
-        <v>Numeric Only 1</v>
-      </c>
-      <c r="N5" s="15" t="str">
-        <f>A33</f>
-        <v>Numeric Only 2</v>
-      </c>
-      <c r="O5" s="15">
-        <f>A40</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="15">
-        <f>A47</f>
-        <v>0</v>
-      </c>
-      <c r="Q5" s="15">
-        <f>A54</f>
-        <v>0</v>
-      </c>
-      <c r="R5" s="15">
-        <f>A61</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="15">
-        <f>A68</f>
-        <v>0</v>
-      </c>
-      <c r="T5" s="15">
-        <f>A75</f>
-        <v>0</v>
-      </c>
-      <c r="U5" s="16">
-        <f>A82</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6">
-        <v>0.59636320797211395</v>
-      </c>
-      <c r="C6">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D6">
-        <v>0.6</v>
-      </c>
-      <c r="E6">
-        <v>0.59</v>
-      </c>
-      <c r="F6">
-        <v>144303</v>
-      </c>
-      <c r="I6" s="5" t="str">
-        <f>A6</f>
-        <v>KNN-3</v>
-      </c>
-      <c r="J6" s="19">
-        <f>B6</f>
-        <v>0.59636320797211395</v>
-      </c>
-      <c r="K6" s="19">
-        <f>B13</f>
-        <v>0.59636320797211395</v>
-      </c>
-      <c r="L6" s="19">
-        <f>B20</f>
-        <v>0.41493939834930599</v>
-      </c>
-      <c r="M6" s="19">
-        <f>B27</f>
-        <v>0.59636320797211395</v>
-      </c>
-      <c r="N6" s="19">
-        <f>B34</f>
-        <v>0.59636320797211395</v>
-      </c>
-      <c r="O6" s="19">
-        <f>B41</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="19">
-        <f>B48</f>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="19">
-        <f>B55</f>
-        <v>0</v>
-      </c>
-      <c r="R6" s="19">
-        <f>B62</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="19">
-        <f>B69</f>
-        <v>0</v>
-      </c>
-      <c r="T6" s="19">
-        <f>B76</f>
-        <v>0</v>
-      </c>
-      <c r="U6" s="21">
-        <f>B83</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7">
-        <v>0.92657810301934096</v>
-      </c>
-      <c r="C7">
-        <v>0.93</v>
-      </c>
-      <c r="D7">
-        <v>0.93</v>
-      </c>
-      <c r="E7">
-        <v>0.93</v>
-      </c>
-      <c r="F7">
-        <v>144303</v>
-      </c>
-      <c r="I7" s="8" t="str">
-        <f t="shared" ref="I7:I10" si="0">A7</f>
-        <v>DT-CART</v>
-      </c>
-      <c r="J7" s="18">
-        <f t="shared" ref="J7:J10" si="1">B7</f>
-        <v>0.92657810301934096</v>
-      </c>
-      <c r="K7" s="18">
-        <f t="shared" ref="K7:K10" si="2">B14</f>
-        <v>0.92668898082506901</v>
-      </c>
-      <c r="L7" s="18">
-        <f t="shared" ref="L7:L10" si="3">B21</f>
-        <v>0.53996105417073703</v>
-      </c>
-      <c r="M7" s="18">
-        <f t="shared" ref="M7:M10" si="4">B28</f>
-        <v>0.89691828998704104</v>
-      </c>
-      <c r="N7" s="18">
-        <f t="shared" ref="N7:N10" si="5">B35</f>
-        <v>0.89735487134709602</v>
-      </c>
-      <c r="O7" s="18">
-        <f t="shared" ref="O7:O10" si="6">B42</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="18">
-        <f t="shared" ref="P7:P10" si="7">B49</f>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="18">
-        <f t="shared" ref="Q7:Q10" si="8">B56</f>
-        <v>0</v>
-      </c>
-      <c r="R7" s="18">
-        <f t="shared" ref="R7:R10" si="9">B63</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="18">
-        <f t="shared" ref="S7:S10" si="10">B70</f>
-        <v>0</v>
-      </c>
-      <c r="T7" s="18">
-        <f t="shared" ref="T7:T10" si="11">B77</f>
-        <v>0</v>
-      </c>
-      <c r="U7" s="20">
-        <f t="shared" ref="U7:U10" si="12">B84</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>0.929869787876897</v>
-      </c>
-      <c r="C8">
-        <v>0.93</v>
-      </c>
-      <c r="D8">
-        <v>0.93</v>
-      </c>
-      <c r="E8">
-        <v>0.93</v>
-      </c>
-      <c r="F8">
-        <v>144303</v>
-      </c>
-      <c r="I8" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>DT-entropy</v>
-      </c>
-      <c r="J8" s="18">
-        <f t="shared" si="1"/>
-        <v>0.929869787876897</v>
-      </c>
-      <c r="K8" s="18">
-        <f t="shared" si="2"/>
-        <v>0.92953715445971297</v>
-      </c>
-      <c r="L8" s="18">
-        <f t="shared" si="3"/>
-        <v>0.54000263334788601</v>
-      </c>
-      <c r="M8" s="18">
-        <f t="shared" si="4"/>
-        <v>0.90954450011434196</v>
-      </c>
-      <c r="N8" s="18">
-        <f t="shared" si="5"/>
-        <v>0.90928809518859599</v>
-      </c>
-      <c r="O8" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P8" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q8" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S8" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T8" s="18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U8" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>0.92458923237909096</v>
-      </c>
-      <c r="C9">
-        <v>0.92</v>
-      </c>
-      <c r="D9">
-        <v>0.92</v>
-      </c>
-      <c r="E9">
-        <v>0.92</v>
-      </c>
-      <c r="F9">
-        <v>144303</v>
-      </c>
-      <c r="I9" s="8" t="str">
-        <f t="shared" si="0"/>
-        <v>RF-10</v>
-      </c>
-      <c r="J9" s="18">
-        <f t="shared" si="1"/>
-        <v>0.92458923237909096</v>
-      </c>
-      <c r="K9" s="18">
-        <f t="shared" si="2"/>
-        <v>0.926903806573667</v>
-      </c>
-      <c r="L9" s="18">
-        <f t="shared" si="3"/>
-        <v>0.546149421702944</v>
-      </c>
-      <c r="M9" s="18">
-        <f t="shared" si="4"/>
-        <v>0.91805437170398396</v>
-      </c>
-      <c r="N9" s="18">
-        <f t="shared" si="5"/>
-        <v>0.91667532899523896</v>
-      </c>
-      <c r="O9" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P9" s="18">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q9" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R9" s="18">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S9" s="18">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T9" s="18">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U9" s="20">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10">
-        <v>0.63402008274256205</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.63</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.64</v>
-      </c>
-      <c r="F10">
-        <v>144303</v>
-      </c>
-      <c r="I10" s="11" t="str">
-        <f t="shared" si="0"/>
-        <v>NB-gaussian</v>
-      </c>
-      <c r="J10" s="17">
-        <f t="shared" si="1"/>
-        <v>0.63402008274256205</v>
-      </c>
-      <c r="K10" s="17">
-        <f t="shared" si="2"/>
-        <v>0.63402008274256205</v>
-      </c>
-      <c r="L10" s="17">
-        <f t="shared" si="3"/>
-        <v>0.488409804369971</v>
-      </c>
-      <c r="M10" s="17">
-        <f t="shared" si="4"/>
-        <v>0.63363201042251305</v>
-      </c>
-      <c r="N10" s="17">
-        <f t="shared" si="5"/>
-        <v>0.63363201042251305</v>
-      </c>
-      <c r="O10" s="17">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="P10" s="17">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="Q10" s="17">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="R10" s="17">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S10" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="T10" s="17">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U10" s="22">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" t="s">
-        <v>10</v>
-      </c>
-      <c r="I12" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="15" t="str">
-        <f>J5</f>
-        <v>FULL SET 1</v>
-      </c>
-      <c r="K12" s="15" t="str">
-        <f t="shared" ref="K12:U12" si="13">K5</f>
-        <v>FULL SET 2</v>
-      </c>
-      <c r="L12" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v>Binary Only 1</v>
-      </c>
-      <c r="M12" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v>Numeric Only 1</v>
-      </c>
-      <c r="N12" s="15" t="str">
-        <f t="shared" si="13"/>
-        <v>Numeric Only 2</v>
-      </c>
-      <c r="O12" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="P12" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="R12" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="T12" s="15">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="U12" s="16">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13">
-        <v>0.59636320797211395</v>
-      </c>
-      <c r="C13">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D13">
-        <v>0.6</v>
-      </c>
-      <c r="E13">
-        <v>0.59</v>
-      </c>
-      <c r="F13">
-        <v>144303</v>
-      </c>
-      <c r="I13" s="5" t="str">
-        <f>A13</f>
-        <v>KNN-7</v>
-      </c>
-      <c r="J13" s="19">
-        <f>C6</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="K13" s="19">
-        <f>C13</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="L13" s="19">
-        <f>C20</f>
-        <v>0.39</v>
-      </c>
-      <c r="M13" s="19">
-        <f>C27</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="N13" s="19">
-        <f>C34</f>
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="O13" s="19">
-        <f>C41</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="19">
-        <f>C48</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="19">
-        <f>C55</f>
-        <v>0</v>
-      </c>
-      <c r="R13" s="19">
-        <f>C62</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="19">
-        <f>C69</f>
-        <v>0</v>
-      </c>
-      <c r="T13" s="19">
-        <f>C76</f>
-        <v>0</v>
-      </c>
-      <c r="U13" s="21">
-        <f>C83</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14">
-        <v>0.92668898082506901</v>
-      </c>
-      <c r="C14">
-        <v>0.93</v>
-      </c>
-      <c r="D14">
-        <v>0.93</v>
-      </c>
-      <c r="E14">
-        <v>0.93</v>
-      </c>
-      <c r="F14">
-        <v>144303</v>
-      </c>
-      <c r="I14" s="8" t="str">
-        <f t="shared" ref="I14:I17" si="14">A14</f>
-        <v>DT-CART</v>
-      </c>
-      <c r="J14" s="18">
-        <f t="shared" ref="J14:J17" si="15">C7</f>
-        <v>0.93</v>
-      </c>
-      <c r="K14" s="18">
-        <f t="shared" ref="K14:K17" si="16">C14</f>
-        <v>0.93</v>
-      </c>
-      <c r="L14" s="18">
-        <f t="shared" ref="L14:L17" si="17">C21</f>
-        <v>0.54</v>
-      </c>
-      <c r="M14" s="18">
-        <f t="shared" ref="M14:M17" si="18">C28</f>
-        <v>0.9</v>
-      </c>
-      <c r="N14" s="18">
-        <f t="shared" ref="N14:N17" si="19">C35</f>
-        <v>0.9</v>
-      </c>
-      <c r="O14" s="18">
-        <f t="shared" ref="O14:O17" si="20">C42</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="18">
-        <f t="shared" ref="P14:P17" si="21">C49</f>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="18">
-        <f t="shared" ref="Q14:Q17" si="22">C56</f>
-        <v>0</v>
-      </c>
-      <c r="R14" s="18">
-        <f t="shared" ref="R14:R17" si="23">C63</f>
-        <v>0</v>
-      </c>
-      <c r="S14" s="18">
-        <f t="shared" ref="S14:S17" si="24">C70</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="18">
-        <f t="shared" ref="T14:T17" si="25">C77</f>
-        <v>0</v>
-      </c>
-      <c r="U14" s="20">
-        <f t="shared" ref="U14:U17" si="26">C84</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15">
-        <v>0.92953715445971297</v>
-      </c>
-      <c r="C15">
-        <v>0.93</v>
-      </c>
-      <c r="D15">
-        <v>0.93</v>
-      </c>
-      <c r="E15">
-        <v>0.93</v>
-      </c>
-      <c r="F15">
-        <v>144303</v>
-      </c>
-      <c r="I15" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>DT-entropy</v>
-      </c>
-      <c r="J15" s="18">
-        <f t="shared" si="15"/>
-        <v>0.93</v>
-      </c>
-      <c r="K15" s="18">
-        <f t="shared" si="16"/>
-        <v>0.93</v>
-      </c>
-      <c r="L15" s="18">
-        <f t="shared" si="17"/>
-        <v>0.54</v>
-      </c>
-      <c r="M15" s="18">
-        <f t="shared" si="18"/>
-        <v>0.91</v>
-      </c>
-      <c r="N15" s="18">
-        <f t="shared" si="19"/>
-        <v>0.91</v>
-      </c>
-      <c r="O15" s="18">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="P15" s="18">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Q15" s="18">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="R15" s="18">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="S15" s="18">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="T15" s="18">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="U15" s="20">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B16">
-        <v>0.926903806573667</v>
-      </c>
-      <c r="C16">
-        <v>0.93</v>
-      </c>
-      <c r="D16">
-        <v>0.93</v>
-      </c>
-      <c r="E16">
-        <v>0.93</v>
-      </c>
-      <c r="F16">
-        <v>144303</v>
-      </c>
-      <c r="I16" s="8" t="str">
-        <f t="shared" si="14"/>
-        <v>RF-10</v>
-      </c>
-      <c r="J16" s="18">
-        <f t="shared" si="15"/>
-        <v>0.92</v>
-      </c>
-      <c r="K16" s="18">
-        <f t="shared" si="16"/>
-        <v>0.93</v>
-      </c>
-      <c r="L16" s="18">
-        <f t="shared" si="17"/>
-        <v>0.54</v>
-      </c>
-      <c r="M16" s="18">
-        <f t="shared" si="18"/>
-        <v>0.92</v>
-      </c>
-      <c r="N16" s="18">
-        <f t="shared" si="19"/>
-        <v>0.92</v>
-      </c>
-      <c r="O16" s="18">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="P16" s="18">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Q16" s="18">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="18">
-        <f>C65</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="18">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="T16" s="18">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="U16" s="20">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17">
-        <v>0.63402008274256205</v>
-      </c>
-      <c r="C17">
-        <v>0.64</v>
-      </c>
-      <c r="D17">
-        <v>0.63</v>
-      </c>
-      <c r="E17">
-        <v>0.64</v>
-      </c>
-      <c r="F17">
-        <v>144303</v>
-      </c>
-      <c r="I17" s="11" t="str">
-        <f t="shared" si="14"/>
-        <v>NB-gaussian</v>
-      </c>
-      <c r="J17" s="17">
-        <f t="shared" si="15"/>
-        <v>0.64</v>
-      </c>
-      <c r="K17" s="17">
-        <f t="shared" si="16"/>
-        <v>0.64</v>
-      </c>
-      <c r="L17" s="17">
-        <f t="shared" si="17"/>
-        <v>0.24</v>
-      </c>
-      <c r="M17" s="17">
-        <f t="shared" si="18"/>
-        <v>0.64</v>
-      </c>
-      <c r="N17" s="17">
-        <f t="shared" si="19"/>
-        <v>0.64</v>
-      </c>
-      <c r="O17" s="17">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="P17" s="17">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="17">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="17">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="S17" s="17">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="17">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="U17" s="22">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="J19" s="15" t="str">
-        <f>J5</f>
-        <v>FULL SET 1</v>
-      </c>
-      <c r="K19" s="15" t="str">
-        <f t="shared" ref="K19:U19" si="27">K5</f>
-        <v>FULL SET 2</v>
-      </c>
-      <c r="L19" s="15" t="str">
-        <f t="shared" si="27"/>
-        <v>Binary Only 1</v>
-      </c>
-      <c r="M19" s="15" t="str">
-        <f t="shared" si="27"/>
-        <v>Numeric Only 1</v>
-      </c>
-      <c r="N19" s="15" t="str">
-        <f t="shared" si="27"/>
-        <v>Numeric Only 2</v>
-      </c>
-      <c r="O19" s="15">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="P19" s="15">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="15">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="R19" s="15">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S19" s="15">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="T19" s="15">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="16">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>0.41493939834930599</v>
-      </c>
-      <c r="C20">
-        <v>0.39</v>
-      </c>
-      <c r="D20">
-        <v>0.41</v>
-      </c>
-      <c r="E20">
-        <v>0.4</v>
-      </c>
-      <c r="F20">
-        <v>144303</v>
-      </c>
-      <c r="I20" s="5" t="str">
-        <f>A20</f>
-        <v>KNN-3</v>
-      </c>
-      <c r="J20" s="19">
-        <f>D6</f>
-        <v>0.6</v>
-      </c>
-      <c r="K20" s="19">
-        <f>D13</f>
-        <v>0.6</v>
-      </c>
-      <c r="L20" s="19">
-        <f>D20</f>
-        <v>0.41</v>
-      </c>
-      <c r="M20" s="19">
-        <f>D27</f>
-        <v>0.6</v>
-      </c>
-      <c r="N20" s="19">
-        <f>D34</f>
-        <v>0.6</v>
-      </c>
-      <c r="O20" s="19">
-        <f>D41</f>
-        <v>0</v>
-      </c>
-      <c r="P20" s="19">
-        <f>D48</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="19">
-        <f>D55</f>
-        <v>0</v>
-      </c>
-      <c r="R20" s="19">
-        <f>D62</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="19">
-        <f>D69</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="19">
-        <f>D76</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="21">
-        <f>D83</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>0.53996105417073703</v>
-      </c>
-      <c r="C21">
-        <v>0.54</v>
-      </c>
-      <c r="D21">
-        <v>0.54</v>
-      </c>
-      <c r="E21">
-        <v>0.54</v>
-      </c>
-      <c r="F21">
-        <v>144303</v>
-      </c>
-      <c r="I21" s="8" t="str">
-        <f t="shared" ref="I21:I24" si="28">A21</f>
-        <v>DT-CART</v>
-      </c>
-      <c r="J21" s="18">
-        <f t="shared" ref="J21:J24" si="29">D7</f>
-        <v>0.93</v>
-      </c>
-      <c r="K21" s="18">
-        <f t="shared" ref="K21:K24" si="30">D14</f>
-        <v>0.93</v>
-      </c>
-      <c r="L21" s="18">
-        <f t="shared" ref="L21:L24" si="31">D21</f>
-        <v>0.54</v>
-      </c>
-      <c r="M21" s="18">
-        <f t="shared" ref="M21:M24" si="32">D28</f>
-        <v>0.9</v>
-      </c>
-      <c r="N21" s="18">
-        <f t="shared" ref="N21:N24" si="33">D35</f>
-        <v>0.9</v>
-      </c>
-      <c r="O21" s="18">
-        <f t="shared" ref="O21:O24" si="34">D42</f>
-        <v>0</v>
-      </c>
-      <c r="P21" s="18">
-        <f t="shared" ref="P21:P24" si="35">D49</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="18">
-        <f t="shared" ref="Q21:Q24" si="36">D56</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="18">
-        <f t="shared" ref="R21:R24" si="37">D63</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="18">
-        <f t="shared" ref="S21:S24" si="38">D70</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="18">
-        <f t="shared" ref="T21:T24" si="39">D77</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="20">
-        <f t="shared" ref="U21:U24" si="40">D84</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22">
-        <v>0.54000263334788601</v>
-      </c>
-      <c r="C22">
-        <v>0.54</v>
-      </c>
-      <c r="D22">
-        <v>0.54</v>
-      </c>
-      <c r="E22">
-        <v>0.54</v>
-      </c>
-      <c r="F22">
-        <v>144303</v>
-      </c>
-      <c r="I22" s="8" t="str">
-        <f t="shared" si="28"/>
-        <v>DT-entropy</v>
-      </c>
-      <c r="J22" s="18">
-        <f t="shared" si="29"/>
-        <v>0.93</v>
-      </c>
-      <c r="K22" s="18">
-        <f t="shared" si="30"/>
-        <v>0.93</v>
-      </c>
-      <c r="L22" s="18">
-        <f t="shared" si="31"/>
-        <v>0.54</v>
-      </c>
-      <c r="M22" s="18">
-        <f t="shared" si="32"/>
-        <v>0.91</v>
-      </c>
-      <c r="N22" s="18">
-        <f t="shared" si="33"/>
-        <v>0.91</v>
-      </c>
-      <c r="O22" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="P22" s="18">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="18">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="R22" s="18">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="S22" s="18">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="T22" s="18">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="U22" s="20">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23">
-        <v>0.546149421702944</v>
-      </c>
-      <c r="C23">
-        <v>0.54</v>
-      </c>
-      <c r="D23">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="E23">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F23">
-        <v>144303</v>
-      </c>
-      <c r="I23" s="8" t="str">
-        <f t="shared" si="28"/>
-        <v>RF-10</v>
-      </c>
-      <c r="J23" s="18">
-        <f t="shared" si="29"/>
-        <v>0.92</v>
-      </c>
-      <c r="K23" s="18">
-        <f t="shared" si="30"/>
-        <v>0.93</v>
-      </c>
-      <c r="L23" s="18">
-        <f t="shared" si="31"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="M23" s="18">
-        <f t="shared" si="32"/>
-        <v>0.92</v>
-      </c>
-      <c r="N23" s="18">
-        <f t="shared" si="33"/>
-        <v>0.92</v>
-      </c>
-      <c r="O23" s="18">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="P23" s="18">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="18">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="R23" s="18">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="S23" s="18">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="T23" s="18">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="U23" s="20">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24">
-        <v>0.488409804369971</v>
-      </c>
-      <c r="C24">
-        <v>0.24</v>
-      </c>
-      <c r="D24">
-        <v>0.49</v>
-      </c>
-      <c r="E24">
-        <v>0.32</v>
-      </c>
-      <c r="F24">
-        <v>144303</v>
-      </c>
-      <c r="I24" s="11" t="str">
-        <f t="shared" si="28"/>
-        <v>NB-gaussian</v>
-      </c>
-      <c r="J24" s="17">
-        <f t="shared" si="29"/>
-        <v>0.63</v>
-      </c>
-      <c r="K24" s="17">
-        <f t="shared" si="30"/>
-        <v>0.63</v>
-      </c>
-      <c r="L24" s="17">
-        <f t="shared" si="31"/>
-        <v>0.49</v>
-      </c>
-      <c r="M24" s="17">
-        <f t="shared" si="32"/>
-        <v>0.63</v>
-      </c>
-      <c r="N24" s="17">
-        <f t="shared" si="33"/>
-        <v>0.63</v>
-      </c>
-      <c r="O24" s="17">
-        <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="P24" s="17">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="17">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="R24" s="17">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="S24" s="17">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="T24" s="17">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="U24" s="22">
-        <f t="shared" si="40"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" t="s">
-        <v>6</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="J26" s="15" t="str">
-        <f>J5</f>
-        <v>FULL SET 1</v>
-      </c>
-      <c r="K26" s="15" t="str">
-        <f t="shared" ref="K26:U26" si="41">K5</f>
-        <v>FULL SET 2</v>
-      </c>
-      <c r="L26" s="15" t="str">
-        <f t="shared" si="41"/>
-        <v>Binary Only 1</v>
-      </c>
-      <c r="M26" s="15" t="str">
-        <f t="shared" si="41"/>
-        <v>Numeric Only 1</v>
-      </c>
-      <c r="N26" s="15" t="str">
-        <f t="shared" si="41"/>
-        <v>Numeric Only 2</v>
-      </c>
-      <c r="O26" s="15">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="P26" s="15">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="15">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="R26" s="15">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="15">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="T26" s="15">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="U26" s="16">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>0.59636320797211395</v>
-      </c>
-      <c r="C27">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D27">
-        <v>0.6</v>
-      </c>
-      <c r="E27">
-        <v>0.59</v>
-      </c>
-      <c r="F27">
-        <v>144303</v>
-      </c>
-      <c r="I27" s="5" t="str">
-        <f>A27</f>
-        <v>KNN-3</v>
-      </c>
-      <c r="J27" s="19">
-        <f>E6</f>
-        <v>0.59</v>
-      </c>
-      <c r="K27" s="19">
-        <f>E13</f>
-        <v>0.59</v>
-      </c>
-      <c r="L27" s="19">
-        <f>E20</f>
-        <v>0.4</v>
-      </c>
-      <c r="M27" s="19">
-        <f>E27</f>
-        <v>0.59</v>
-      </c>
-      <c r="N27" s="19">
-        <f>E34</f>
-        <v>0.59</v>
-      </c>
-      <c r="O27" s="19">
-        <f>E41</f>
-        <v>0</v>
-      </c>
-      <c r="P27" s="19">
-        <f>E48</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="19">
-        <f>E55</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="19">
-        <f>E62</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="19">
-        <f>E69</f>
-        <v>0</v>
-      </c>
-      <c r="T27" s="19">
-        <f>E76</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="21">
-        <f>E83</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>2</v>
-      </c>
-      <c r="B28">
-        <v>0.89691828998704104</v>
-      </c>
-      <c r="C28">
-        <v>0.9</v>
-      </c>
-      <c r="D28">
-        <v>0.9</v>
-      </c>
-      <c r="E28">
-        <v>0.9</v>
-      </c>
-      <c r="F28">
-        <v>144303</v>
-      </c>
-      <c r="I28" s="8" t="str">
-        <f t="shared" ref="I28:I31" si="42">A28</f>
-        <v>DT-CART</v>
-      </c>
-      <c r="J28" s="18">
-        <f t="shared" ref="J28:J31" si="43">E7</f>
-        <v>0.93</v>
-      </c>
-      <c r="K28" s="18">
-        <f t="shared" ref="K28:K31" si="44">E14</f>
-        <v>0.93</v>
-      </c>
-      <c r="L28" s="18">
-        <f t="shared" ref="L28:L31" si="45">E21</f>
-        <v>0.54</v>
-      </c>
-      <c r="M28" s="18">
-        <f t="shared" ref="M28:M31" si="46">E28</f>
-        <v>0.9</v>
-      </c>
-      <c r="N28" s="18">
-        <f t="shared" ref="N28:N31" si="47">E35</f>
-        <v>0.9</v>
-      </c>
-      <c r="O28" s="18">
-        <f t="shared" ref="O28:O31" si="48">E42</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="18">
-        <f t="shared" ref="P28:P31" si="49">E49</f>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="18">
-        <f t="shared" ref="Q28:Q31" si="50">E56</f>
-        <v>0</v>
-      </c>
-      <c r="R28" s="18">
-        <f t="shared" ref="R28:R31" si="51">E63</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="18">
-        <f t="shared" ref="S28:S31" si="52">E70</f>
-        <v>0</v>
-      </c>
-      <c r="T28" s="18">
-        <f t="shared" ref="T28:T31" si="53">E77</f>
-        <v>0</v>
-      </c>
-      <c r="U28" s="20">
-        <f t="shared" ref="U28:U31" si="54">E84</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29">
-        <v>0.90954450011434196</v>
-      </c>
-      <c r="C29">
-        <v>0.91</v>
-      </c>
-      <c r="D29">
-        <v>0.91</v>
-      </c>
-      <c r="E29">
-        <v>0.91</v>
-      </c>
-      <c r="F29">
-        <v>144303</v>
-      </c>
-      <c r="I29" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v>DT-entropy</v>
-      </c>
-      <c r="J29" s="18">
-        <f t="shared" si="43"/>
-        <v>0.93</v>
-      </c>
-      <c r="K29" s="18">
-        <f t="shared" si="44"/>
-        <v>0.93</v>
-      </c>
-      <c r="L29" s="18">
-        <f t="shared" si="45"/>
-        <v>0.54</v>
-      </c>
-      <c r="M29" s="18">
-        <f t="shared" si="46"/>
-        <v>0.91</v>
-      </c>
-      <c r="N29" s="18">
-        <f t="shared" si="47"/>
-        <v>0.91</v>
-      </c>
-      <c r="O29" s="18">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="18">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="18">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="R29" s="18">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="S29" s="18">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="18">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="U29" s="20">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30">
-        <v>0.91805437170398396</v>
-      </c>
-      <c r="C30">
-        <v>0.92</v>
-      </c>
-      <c r="D30">
-        <v>0.92</v>
-      </c>
-      <c r="E30">
-        <v>0.92</v>
-      </c>
-      <c r="F30">
-        <v>144303</v>
-      </c>
-      <c r="I30" s="8" t="str">
-        <f t="shared" si="42"/>
-        <v>RF-10</v>
-      </c>
-      <c r="J30" s="18">
-        <f t="shared" si="43"/>
-        <v>0.92</v>
-      </c>
-      <c r="K30" s="18">
-        <f t="shared" si="44"/>
-        <v>0.93</v>
-      </c>
-      <c r="L30" s="18">
-        <f t="shared" si="45"/>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="M30" s="18">
-        <f t="shared" si="46"/>
-        <v>0.92</v>
-      </c>
-      <c r="N30" s="18">
-        <f t="shared" si="47"/>
-        <v>0.92</v>
-      </c>
-      <c r="O30" s="18">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="P30" s="18">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="18">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="R30" s="18">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="S30" s="18">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="T30" s="18">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="U30" s="20">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31">
-        <v>0.63363201042251305</v>
-      </c>
-      <c r="C31">
-        <v>0.64</v>
-      </c>
-      <c r="D31">
-        <v>0.63</v>
-      </c>
-      <c r="E31">
-        <v>0.64</v>
-      </c>
-      <c r="F31">
-        <v>144303</v>
-      </c>
-      <c r="I31" s="11" t="str">
-        <f t="shared" si="42"/>
-        <v>NB-gaussian</v>
-      </c>
-      <c r="J31" s="17">
-        <f t="shared" si="43"/>
-        <v>0.64</v>
-      </c>
-      <c r="K31" s="17">
-        <f t="shared" si="44"/>
-        <v>0.64</v>
-      </c>
-      <c r="L31" s="17">
-        <f t="shared" si="45"/>
-        <v>0.32</v>
-      </c>
-      <c r="M31" s="17">
-        <f t="shared" si="46"/>
-        <v>0.64</v>
-      </c>
-      <c r="N31" s="17">
-        <f t="shared" si="47"/>
-        <v>0.64</v>
-      </c>
-      <c r="O31" s="17">
-        <f t="shared" si="48"/>
-        <v>0</v>
-      </c>
-      <c r="P31" s="17">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="17">
-        <f t="shared" si="50"/>
-        <v>0</v>
-      </c>
-      <c r="R31" s="17">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="17">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="17">
-        <f t="shared" si="53"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="22">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" t="s">
-        <v>6</v>
-      </c>
-      <c r="C33" t="s">
-        <v>7</v>
-      </c>
-      <c r="D33" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" t="s">
-        <v>9</v>
-      </c>
-      <c r="F33" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B34">
-        <v>0.59636320797211395</v>
-      </c>
-      <c r="C34">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="D34">
-        <v>0.6</v>
-      </c>
-      <c r="E34">
-        <v>0.59</v>
-      </c>
-      <c r="F34">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>2</v>
-      </c>
-      <c r="B35">
-        <v>0.89735487134709602</v>
-      </c>
-      <c r="C35">
-        <v>0.9</v>
-      </c>
-      <c r="D35">
-        <v>0.9</v>
-      </c>
-      <c r="E35">
-        <v>0.9</v>
-      </c>
-      <c r="F35">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>3</v>
-      </c>
-      <c r="B36">
-        <v>0.90928809518859599</v>
-      </c>
-      <c r="C36">
-        <v>0.91</v>
-      </c>
-      <c r="D36">
-        <v>0.91</v>
-      </c>
-      <c r="E36">
-        <v>0.91</v>
-      </c>
-      <c r="F36">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37">
-        <v>0.91667532899523896</v>
-      </c>
-      <c r="C37">
-        <v>0.92</v>
-      </c>
-      <c r="D37">
-        <v>0.92</v>
-      </c>
-      <c r="E37">
-        <v>0.92</v>
-      </c>
-      <c r="F37">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38">
-        <v>0.63363201042251305</v>
-      </c>
-      <c r="C38">
-        <v>0.64</v>
-      </c>
-      <c r="D38">
-        <v>0.63</v>
-      </c>
-      <c r="E38">
-        <v>0.64</v>
-      </c>
-      <c r="F38">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" t="s">
-        <v>6</v>
-      </c>
-      <c r="C40" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>1</v>
-      </c>
-      <c r="F41">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>2</v>
-      </c>
-      <c r="F42">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-      <c r="F44">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>5</v>
-      </c>
-      <c r="F45">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="1"/>
-      <c r="B47" t="s">
-        <v>6</v>
-      </c>
-      <c r="C47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D47" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>2</v>
-      </c>
-      <c r="F49">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>3</v>
-      </c>
-      <c r="F50">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>5</v>
-      </c>
-      <c r="F52">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="1"/>
-      <c r="B54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54" t="s">
-        <v>7</v>
-      </c>
-      <c r="D54" t="s">
-        <v>8</v>
-      </c>
-      <c r="E54" t="s">
-        <v>9</v>
-      </c>
-      <c r="F54" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>1</v>
-      </c>
-      <c r="F55">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>2</v>
-      </c>
-      <c r="F56">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>3</v>
-      </c>
-      <c r="F57">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="1"/>
-      <c r="B61" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" t="s">
-        <v>7</v>
-      </c>
-      <c r="D61" t="s">
-        <v>8</v>
-      </c>
-      <c r="E61" t="s">
-        <v>9</v>
-      </c>
-      <c r="F61" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>2</v>
-      </c>
-      <c r="F63">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>3</v>
-      </c>
-      <c r="F64">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>4</v>
-      </c>
-      <c r="F65">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>5</v>
-      </c>
-      <c r="F66">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="1"/>
-      <c r="B68" t="s">
-        <v>6</v>
-      </c>
-      <c r="C68" t="s">
-        <v>7</v>
-      </c>
-      <c r="D68" t="s">
-        <v>8</v>
-      </c>
-      <c r="E68" t="s">
-        <v>9</v>
-      </c>
-      <c r="F68" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>1</v>
-      </c>
-      <c r="F69">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>2</v>
-      </c>
-      <c r="F70">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>3</v>
-      </c>
-      <c r="F71">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>4</v>
-      </c>
-      <c r="F72">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>5</v>
-      </c>
-      <c r="F73">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="1"/>
-      <c r="B75" t="s">
-        <v>6</v>
-      </c>
-      <c r="C75" t="s">
-        <v>7</v>
-      </c>
-      <c r="D75" t="s">
-        <v>8</v>
-      </c>
-      <c r="E75" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>1</v>
-      </c>
-      <c r="F76">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" t="s">
-        <v>2</v>
-      </c>
-      <c r="F77">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" t="s">
-        <v>3</v>
-      </c>
-      <c r="F78">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" t="s">
-        <v>4</v>
-      </c>
-      <c r="F79">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>5</v>
-      </c>
-      <c r="F80">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="1"/>
-      <c r="B82" t="s">
-        <v>6</v>
-      </c>
-      <c r="C82" t="s">
-        <v>7</v>
-      </c>
-      <c r="D82" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" t="s">
-        <v>9</v>
-      </c>
-      <c r="F82" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>1</v>
-      </c>
-      <c r="F83">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>2</v>
-      </c>
-      <c r="F84">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>3</v>
-      </c>
-      <c r="F85">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>4</v>
-      </c>
-      <c r="F86">
-        <v>144303</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>5</v>
-      </c>
-      <c r="F87">
-        <v>144303</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="J6:J10">
-    <cfRule type="top10" dxfId="146" priority="48" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K6:K10">
-    <cfRule type="top10" dxfId="145" priority="47" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6:L10">
-    <cfRule type="top10" dxfId="144" priority="46" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M6:M10">
-    <cfRule type="top10" dxfId="143" priority="45" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N6:N10">
-    <cfRule type="top10" dxfId="142" priority="44" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O6:O10">
-    <cfRule type="top10" dxfId="141" priority="43" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P6:P10">
-    <cfRule type="top10" dxfId="140" priority="42" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q6:Q10">
-    <cfRule type="top10" dxfId="139" priority="41" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R6:R10">
-    <cfRule type="top10" dxfId="138" priority="40" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S6:S10">
-    <cfRule type="top10" dxfId="137" priority="39" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T6:T10">
-    <cfRule type="top10" dxfId="136" priority="38" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U6:U10">
-    <cfRule type="top10" dxfId="135" priority="37" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J13:J17">
-    <cfRule type="top10" dxfId="134" priority="36" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13:K17">
-    <cfRule type="top10" dxfId="133" priority="35" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L13:L17">
-    <cfRule type="top10" dxfId="132" priority="34" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M13:M17">
-    <cfRule type="top10" dxfId="131" priority="33" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N13:N17">
-    <cfRule type="top10" dxfId="130" priority="32" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O13:O17">
-    <cfRule type="top10" dxfId="129" priority="31" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P13:P17">
-    <cfRule type="top10" dxfId="128" priority="30" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q13:Q17">
-    <cfRule type="top10" dxfId="127" priority="29" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R13:R17">
-    <cfRule type="top10" dxfId="126" priority="28" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S13:S17">
-    <cfRule type="top10" dxfId="125" priority="27" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T13:T17">
-    <cfRule type="top10" dxfId="124" priority="26" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U13:U17">
-    <cfRule type="top10" dxfId="123" priority="25" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J20:J24">
-    <cfRule type="top10" dxfId="122" priority="24" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K20:K24">
-    <cfRule type="top10" dxfId="121" priority="23" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L20:L24">
-    <cfRule type="top10" dxfId="120" priority="22" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M20:M24">
-    <cfRule type="top10" dxfId="119" priority="21" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N20:N24">
-    <cfRule type="top10" dxfId="118" priority="20" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O20:O24">
-    <cfRule type="top10" dxfId="117" priority="19" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P20:P24">
-    <cfRule type="top10" dxfId="116" priority="18" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q20:Q24">
-    <cfRule type="top10" dxfId="115" priority="17" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R20:R24">
-    <cfRule type="top10" dxfId="114" priority="16" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S20:S24">
-    <cfRule type="top10" dxfId="113" priority="15" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T20:T24">
-    <cfRule type="top10" dxfId="112" priority="14" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U20:U24">
-    <cfRule type="top10" dxfId="111" priority="13" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J27:J31">
-    <cfRule type="top10" dxfId="110" priority="12" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K27:K31">
-    <cfRule type="top10" dxfId="109" priority="11" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L27:L31">
-    <cfRule type="top10" dxfId="108" priority="10" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M27:M31">
-    <cfRule type="top10" dxfId="107" priority="9" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N27:N31">
-    <cfRule type="top10" dxfId="106" priority="8" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O27:O31">
-    <cfRule type="top10" dxfId="105" priority="7" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P27:P31">
-    <cfRule type="top10" dxfId="104" priority="6" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q27:Q31">
-    <cfRule type="top10" dxfId="103" priority="5" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R27:R31">
-    <cfRule type="top10" dxfId="102" priority="4" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S27:S31">
-    <cfRule type="top10" dxfId="101" priority="3" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T27:T31">
-    <cfRule type="top10" dxfId="100" priority="2" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U27:U31">
-    <cfRule type="top10" dxfId="99" priority="1" rank="1"/>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FAD94B5-0B3A-4D6E-9137-C2D42891BA1A}">
-  <dimension ref="A1:U99"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="9" max="9" width="13.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="J3">
-        <v>6</v>
-      </c>
-      <c r="K3">
-        <v>13</v>
-      </c>
-      <c r="L3">
-        <v>20</v>
-      </c>
-      <c r="M3">
-        <v>27</v>
-      </c>
-      <c r="N3">
-        <v>34</v>
-      </c>
-      <c r="O3">
-        <v>41</v>
-      </c>
-      <c r="P3">
-        <v>48</v>
-      </c>
-      <c r="Q3">
-        <v>55</v>
-      </c>
-      <c r="R3">
-        <v>62</v>
-      </c>
-      <c r="S3">
-        <v>69</v>
-      </c>
-      <c r="T3">
-        <v>76</v>
-      </c>
-      <c r="U3">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>23</v>
-      </c>
       <c r="J5" s="27" t="str">
         <f>A5</f>
         <v>FULL SET 1</v>
@@ -5920,7 +6240,7 @@
       </c>
       <c r="K6" s="19">
         <f>B14</f>
-        <v>0</v>
+        <v>0.71413127841224</v>
       </c>
       <c r="L6" s="19">
         <f>B22</f>
@@ -5992,7 +6312,7 @@
       </c>
       <c r="K7" s="18">
         <f t="shared" ref="K7:K10" si="1">B15</f>
-        <v>0</v>
+        <v>0.85380862633507104</v>
       </c>
       <c r="L7" s="18">
         <f t="shared" ref="L7:L10" si="2">B23</f>
@@ -6064,7 +6384,7 @@
       </c>
       <c r="K8" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.78661714158997598</v>
       </c>
       <c r="L8" s="18">
         <f t="shared" si="2"/>
@@ -6418,8 +6738,20 @@
       <c r="A14" t="s">
         <v>27</v>
       </c>
-      <c r="F14">
-        <v>120253</v>
+      <c r="B14">
+        <v>0.71413127841224</v>
+      </c>
+      <c r="C14">
+        <v>0.7</v>
+      </c>
+      <c r="D14">
+        <v>0.71</v>
+      </c>
+      <c r="E14">
+        <v>0.7</v>
+      </c>
+      <c r="F14" s="1">
+        <v>144304</v>
       </c>
       <c r="I14" s="5" t="str">
         <f>A14</f>
@@ -6431,7 +6763,7 @@
       </c>
       <c r="K14" s="19">
         <f>C14</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L14" s="19">
         <f>C22</f>
@@ -6478,8 +6810,20 @@
       <c r="A15" t="s">
         <v>28</v>
       </c>
-      <c r="F15">
-        <v>120253</v>
+      <c r="B15">
+        <v>0.85380862633507104</v>
+      </c>
+      <c r="C15">
+        <v>0.85</v>
+      </c>
+      <c r="D15">
+        <v>0.85</v>
+      </c>
+      <c r="E15">
+        <v>0.85</v>
+      </c>
+      <c r="F15" s="1">
+        <v>144304</v>
       </c>
       <c r="I15" s="8" t="str">
         <f t="shared" ref="I15:I18" si="26">A15</f>
@@ -6491,7 +6835,7 @@
       </c>
       <c r="K15" s="18">
         <f t="shared" ref="K15:K18" si="27">C15</f>
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="L15" s="18">
         <f t="shared" ref="L15:L18" si="28">C23</f>
@@ -6538,8 +6882,20 @@
       <c r="A16" t="s">
         <v>29</v>
       </c>
-      <c r="F16">
-        <v>120253</v>
+      <c r="B16">
+        <v>0.78661714158997598</v>
+      </c>
+      <c r="C16">
+        <v>0.78</v>
+      </c>
+      <c r="D16">
+        <v>0.79</v>
+      </c>
+      <c r="E16">
+        <v>0.78</v>
+      </c>
+      <c r="F16" s="1">
+        <v>144304</v>
       </c>
       <c r="I16" s="8" t="str">
         <f t="shared" si="26"/>
@@ -6551,7 +6907,7 @@
       </c>
       <c r="K16" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="L16" s="18">
         <f t="shared" si="28"/>
@@ -6598,8 +6954,8 @@
       <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="F17">
-        <v>120253</v>
+      <c r="F17" s="1">
+        <v>144304</v>
       </c>
       <c r="I17" s="8" t="str">
         <f t="shared" si="26"/>
@@ -6661,8 +7017,8 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18">
-        <v>120253</v>
+      <c r="F18" s="1">
+        <v>144304</v>
       </c>
       <c r="I18" s="8" t="str">
         <f t="shared" si="26"/>
@@ -6724,8 +7080,8 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19">
-        <v>120253</v>
+      <c r="F19" s="1">
+        <v>144304</v>
       </c>
       <c r="I19" s="11" t="str">
         <f t="shared" ref="I19" si="38">A19</f>
@@ -6894,7 +7250,7 @@
       </c>
       <c r="K22" s="19">
         <f t="shared" ref="K22:K27" si="52">D14</f>
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="L22" s="19">
         <f>D22</f>
@@ -6966,7 +7322,7 @@
       </c>
       <c r="K23" s="18">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="L23" s="18">
         <f t="shared" ref="L23:L26" si="54">D23</f>
@@ -7038,7 +7394,7 @@
       </c>
       <c r="K24" s="18">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="L24" s="18">
         <f t="shared" si="54"/>
@@ -7363,7 +7719,7 @@
       </c>
       <c r="K30" s="19">
         <f t="shared" ref="K30:K35" si="77">E14</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="L30" s="19">
         <f t="shared" ref="L30:L35" si="78">E22</f>
@@ -7423,7 +7779,7 @@
       </c>
       <c r="K31" s="18">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="L31" s="18">
         <f t="shared" si="78"/>
@@ -7483,7 +7839,7 @@
       </c>
       <c r="K32" s="18">
         <f t="shared" si="77"/>
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="L32" s="18">
         <f t="shared" si="78"/>
@@ -8236,156 +8592,156 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="J6:J11">
-    <cfRule type="top10" dxfId="98" priority="48" rank="1"/>
+    <cfRule type="top10" dxfId="95" priority="48" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:K11">
-    <cfRule type="top10" dxfId="97" priority="47" rank="1"/>
+    <cfRule type="top10" dxfId="94" priority="47" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L6:L11">
-    <cfRule type="top10" dxfId="96" priority="46" rank="1"/>
+    <cfRule type="top10" dxfId="93" priority="46" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M6:M11">
-    <cfRule type="top10" dxfId="95" priority="45" rank="1"/>
+    <cfRule type="top10" dxfId="92" priority="45" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:N11">
-    <cfRule type="top10" dxfId="94" priority="44" rank="1"/>
+    <cfRule type="top10" dxfId="91" priority="44" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6:O11">
-    <cfRule type="top10" dxfId="93" priority="43" rank="1"/>
+    <cfRule type="top10" dxfId="90" priority="43" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P6:P11">
-    <cfRule type="top10" dxfId="92" priority="42" rank="1"/>
+    <cfRule type="top10" dxfId="89" priority="42" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:Q11">
-    <cfRule type="top10" dxfId="91" priority="41" rank="1"/>
+    <cfRule type="top10" dxfId="88" priority="41" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R6:R11">
-    <cfRule type="top10" dxfId="90" priority="40" rank="1"/>
+    <cfRule type="top10" dxfId="87" priority="40" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S6:S11">
-    <cfRule type="top10" dxfId="89" priority="39" rank="1"/>
+    <cfRule type="top10" dxfId="86" priority="39" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:T11">
-    <cfRule type="top10" dxfId="88" priority="38" rank="1"/>
+    <cfRule type="top10" dxfId="85" priority="38" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U6:U11">
-    <cfRule type="top10" dxfId="87" priority="37" rank="1"/>
+    <cfRule type="top10" dxfId="84" priority="37" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J14:J19">
-    <cfRule type="top10" dxfId="86" priority="36" rank="1"/>
+    <cfRule type="top10" dxfId="83" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:K19">
-    <cfRule type="top10" dxfId="85" priority="35" rank="1"/>
+    <cfRule type="top10" dxfId="82" priority="35" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L14:L19">
-    <cfRule type="top10" dxfId="84" priority="34" rank="1"/>
+    <cfRule type="top10" dxfId="81" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M14:M19">
-    <cfRule type="top10" dxfId="83" priority="33" rank="1"/>
+    <cfRule type="top10" dxfId="80" priority="33" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:N19">
-    <cfRule type="top10" dxfId="82" priority="32" rank="1"/>
+    <cfRule type="top10" dxfId="79" priority="32" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14:O19">
-    <cfRule type="top10" dxfId="81" priority="31" rank="1"/>
+    <cfRule type="top10" dxfId="78" priority="31" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14:P19">
-    <cfRule type="top10" dxfId="80" priority="30" rank="1"/>
+    <cfRule type="top10" dxfId="77" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14:Q19">
-    <cfRule type="top10" dxfId="79" priority="29" rank="1"/>
+    <cfRule type="top10" dxfId="76" priority="29" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R14:R19">
-    <cfRule type="top10" dxfId="78" priority="28" rank="1"/>
+    <cfRule type="top10" dxfId="75" priority="28" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S14:S19">
-    <cfRule type="top10" dxfId="77" priority="27" rank="1"/>
+    <cfRule type="top10" dxfId="74" priority="27" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14:T19">
-    <cfRule type="top10" dxfId="76" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="73" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U14:U19">
-    <cfRule type="top10" dxfId="75" priority="25" rank="1"/>
+    <cfRule type="top10" dxfId="72" priority="25" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:J27">
-    <cfRule type="top10" dxfId="74" priority="24" rank="1"/>
+    <cfRule type="top10" dxfId="71" priority="24" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K22:K27">
-    <cfRule type="top10" dxfId="73" priority="23" rank="1"/>
+    <cfRule type="top10" dxfId="70" priority="23" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22:L27">
-    <cfRule type="top10" dxfId="72" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="69" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M22:M27">
-    <cfRule type="top10" dxfId="71" priority="21" rank="1"/>
+    <cfRule type="top10" dxfId="68" priority="21" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:N27">
-    <cfRule type="top10" dxfId="70" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="67" priority="20" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22:O27">
-    <cfRule type="top10" dxfId="69" priority="19" rank="1"/>
+    <cfRule type="top10" dxfId="66" priority="19" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P22:P27">
-    <cfRule type="top10" dxfId="68" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="65" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q22:Q27">
-    <cfRule type="top10" dxfId="67" priority="17" rank="1"/>
+    <cfRule type="top10" dxfId="64" priority="17" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R22:R27">
-    <cfRule type="top10" dxfId="66" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="63" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S22:S27">
-    <cfRule type="top10" dxfId="65" priority="15" rank="1"/>
+    <cfRule type="top10" dxfId="62" priority="15" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T22:T27">
-    <cfRule type="top10" dxfId="64" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="61" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U22:U27">
-    <cfRule type="top10" dxfId="63" priority="13" rank="1"/>
+    <cfRule type="top10" dxfId="60" priority="13" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J30:J35">
-    <cfRule type="top10" dxfId="62" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="59" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:K35">
-    <cfRule type="top10" dxfId="61" priority="11" rank="1"/>
+    <cfRule type="top10" dxfId="58" priority="11" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L30:L35">
-    <cfRule type="top10" dxfId="60" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="57" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M30:M35">
-    <cfRule type="top10" dxfId="59" priority="9" rank="1"/>
+    <cfRule type="top10" dxfId="56" priority="9" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30:N35">
-    <cfRule type="top10" dxfId="58" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="55" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30:O35">
-    <cfRule type="top10" dxfId="57" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="54" priority="7" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P30:P35">
-    <cfRule type="top10" dxfId="56" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="53" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q30:Q35">
-    <cfRule type="top10" dxfId="55" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="52" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R30:R35">
-    <cfRule type="top10" dxfId="54" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="51" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="S30:S35">
-    <cfRule type="top10" dxfId="53" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="50" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30:T35">
-    <cfRule type="top10" dxfId="52" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="49" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="U30:U35">
-    <cfRule type="top10" dxfId="51" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="48" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B12648-42CD-4FD0-A636-9A48A2BDE40F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8423,29 +8779,29 @@
         <f>'Basic Learning'!N5</f>
         <v>Numeric Only 2</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3" s="15" t="str">
         <f>'Basic Learning'!O5</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="15">
+        <v>FULL SET 1a</v>
+      </c>
+      <c r="H3" s="15" t="str">
         <f>'Basic Learning'!P5</f>
-        <v>0</v>
-      </c>
-      <c r="I3" s="15">
+        <v>FULL SET 2a</v>
+      </c>
+      <c r="I3" s="15" t="str">
         <f>'Basic Learning'!Q5</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="15">
+        <v>FULL SET 1a min-max</v>
+      </c>
+      <c r="J3" s="15" t="str">
         <f>'Basic Learning'!R5</f>
-        <v>0</v>
-      </c>
-      <c r="K3" s="15">
+        <v>FULL SET 2a min-max</v>
+      </c>
+      <c r="K3" s="15" t="str">
         <f>'Basic Learning'!S5</f>
-        <v>0</v>
-      </c>
-      <c r="L3" s="15">
+        <v>FULL SET RF min-max</v>
+      </c>
+      <c r="L3" s="15" t="str">
         <f>'Basic Learning'!T5</f>
-        <v>0</v>
+        <v>Numeric Only min-max 1</v>
       </c>
       <c r="M3" s="16">
         <f>'Basic Learning'!U5</f>
@@ -8478,23 +8834,23 @@
       </c>
       <c r="G4" s="19">
         <f>'Basic Learning'!O6</f>
-        <v>0</v>
+        <v>0.59636320797211395</v>
       </c>
       <c r="H4" s="19">
         <f>'Basic Learning'!P6</f>
-        <v>0</v>
+        <v>0.59636320797211395</v>
       </c>
       <c r="I4" s="19">
         <f>'Basic Learning'!Q6</f>
-        <v>0</v>
+        <v>0.87506150253286397</v>
       </c>
       <c r="J4" s="19">
         <f>'Basic Learning'!R6</f>
-        <v>0</v>
+        <v>0.87506150253286397</v>
       </c>
       <c r="K4" s="19">
         <f>'Basic Learning'!S6</f>
-        <v>0</v>
+        <v>0.94522636397025706</v>
       </c>
       <c r="L4" s="19">
         <f>'Basic Learning'!T6</f>
@@ -8531,23 +8887,23 @@
       </c>
       <c r="G5" s="18">
         <f>'Basic Learning'!O7</f>
-        <v>0</v>
+        <v>0.92111044122436803</v>
       </c>
       <c r="H5" s="18">
         <f>'Basic Learning'!P7</f>
-        <v>0</v>
+        <v>0.92097184396720699</v>
       </c>
       <c r="I5" s="18">
         <f>'Basic Learning'!Q7</f>
-        <v>0</v>
+        <v>0.92077087794432499</v>
       </c>
       <c r="J5" s="18">
         <f>'Basic Learning'!R7</f>
-        <v>0</v>
+        <v>0.92134605656154001</v>
       </c>
       <c r="K5" s="18">
         <f>'Basic Learning'!S7</f>
-        <v>0</v>
+        <v>0.94267617443850704</v>
       </c>
       <c r="L5" s="18">
         <f>'Basic Learning'!T7</f>
@@ -8584,23 +8940,23 @@
       </c>
       <c r="G6" s="18">
         <f>'Basic Learning'!O8</f>
-        <v>0</v>
+        <v>0.82454973216079996</v>
       </c>
       <c r="H6" s="18">
         <f>'Basic Learning'!P8</f>
-        <v>0</v>
+        <v>0.81624082659404096</v>
       </c>
       <c r="I6" s="18">
         <f>'Basic Learning'!Q8</f>
-        <v>0</v>
+        <v>0.84075175152283699</v>
       </c>
       <c r="J6" s="18">
         <f>'Basic Learning'!R8</f>
-        <v>0</v>
+        <v>0.82231831632051999</v>
       </c>
       <c r="K6" s="18">
         <f>'Basic Learning'!S8</f>
-        <v>0</v>
+        <v>0.94284942100995806</v>
       </c>
       <c r="L6" s="18">
         <f>'Basic Learning'!T8</f>
@@ -8637,23 +8993,23 @@
       </c>
       <c r="G7" s="18">
         <f>'Basic Learning'!O9</f>
-        <v>0</v>
+        <v>0.94211485554700802</v>
       </c>
       <c r="H7" s="18">
         <f>'Basic Learning'!P9</f>
-        <v>0</v>
+        <v>0.942163364587014</v>
       </c>
       <c r="I7" s="18">
         <f>'Basic Learning'!Q9</f>
-        <v>0</v>
+        <v>0.942544507044205</v>
       </c>
       <c r="J7" s="18">
         <f>'Basic Learning'!R9</f>
-        <v>0</v>
+        <v>0.94309889607284603</v>
       </c>
       <c r="K7" s="18">
         <f>'Basic Learning'!S9</f>
-        <v>0</v>
+        <v>0.94316819470142599</v>
       </c>
       <c r="L7" s="18">
         <f>'Basic Learning'!T9</f>
@@ -8688,21 +9044,21 @@
         <f>'Basic Learning'!N10</f>
         <v>0.63363201042251305</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="17" t="str">
         <f>'Basic Learning'!O10</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="17">
+        <v>-</v>
+      </c>
+      <c r="H8" s="17" t="str">
         <f>'Basic Learning'!P10</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="I8" s="17">
         <f>'Basic Learning'!Q10</f>
-        <v>0</v>
+        <v>0.64247451542933898</v>
       </c>
       <c r="J8" s="17">
         <f>'Basic Learning'!R10</f>
-        <v>0</v>
+        <v>0.64247451542933898</v>
       </c>
       <c r="K8" s="17">
         <f>'Basic Learning'!S10</f>
@@ -8727,7 +9083,7 @@
       </c>
       <c r="C9" s="19">
         <f>'Advanced Learning'!K6</f>
-        <v>0</v>
+        <v>0.71413127841224</v>
       </c>
       <c r="D9" s="19">
         <f>'Advanced Learning'!L6</f>
@@ -8780,7 +9136,7 @@
       </c>
       <c r="C10" s="18">
         <f>'Advanced Learning'!K7</f>
-        <v>0</v>
+        <v>0.85380862633507104</v>
       </c>
       <c r="D10" s="18">
         <f>'Advanced Learning'!L7</f>
@@ -8833,7 +9189,7 @@
       </c>
       <c r="C11" s="18">
         <f>'Advanced Learning'!K8</f>
-        <v>0</v>
+        <v>0.78661714158997598</v>
       </c>
       <c r="D11" s="18">
         <f>'Advanced Learning'!L8</f>
@@ -9059,29 +9415,29 @@
         <f>'Basic Learning'!N12</f>
         <v>Numeric Only 2</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="15" t="str">
         <f>'Basic Learning'!O12</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="15">
+        <v>FULL SET 1a</v>
+      </c>
+      <c r="H17" s="15" t="str">
         <f>'Basic Learning'!P12</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="15">
+        <v>FULL SET 2a</v>
+      </c>
+      <c r="I17" s="15" t="str">
         <f>'Basic Learning'!Q12</f>
-        <v>0</v>
-      </c>
-      <c r="J17" s="15">
+        <v>FULL SET 1a min-max</v>
+      </c>
+      <c r="J17" s="15" t="str">
         <f>'Basic Learning'!R12</f>
-        <v>0</v>
-      </c>
-      <c r="K17" s="15">
+        <v>FULL SET 2a min-max</v>
+      </c>
+      <c r="K17" s="15" t="str">
         <f>'Basic Learning'!S12</f>
-        <v>0</v>
-      </c>
-      <c r="L17" s="15">
+        <v>FULL SET RF min-max</v>
+      </c>
+      <c r="L17" s="15" t="str">
         <f>'Basic Learning'!T12</f>
-        <v>0</v>
+        <v>Numeric Only min-max 1</v>
       </c>
       <c r="M17" s="16">
         <f>'Basic Learning'!U12</f>
@@ -9114,23 +9470,23 @@
       </c>
       <c r="G18" s="6">
         <f>'Basic Learning'!O13</f>
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="H18" s="6">
         <f>'Basic Learning'!P13</f>
-        <v>0</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="I18" s="6">
         <f>'Basic Learning'!Q13</f>
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="J18" s="6">
         <f>'Basic Learning'!R13</f>
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="K18" s="6">
         <f>'Basic Learning'!S13</f>
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="L18" s="6">
         <f>'Basic Learning'!T13</f>
@@ -9167,23 +9523,23 @@
       </c>
       <c r="G19" s="9">
         <f>'Basic Learning'!O14</f>
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="H19" s="9">
         <f>'Basic Learning'!P14</f>
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="I19" s="9">
         <f>'Basic Learning'!Q14</f>
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="J19" s="9">
         <f>'Basic Learning'!R14</f>
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="K19" s="9">
         <f>'Basic Learning'!S14</f>
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="L19" s="9">
         <f>'Basic Learning'!T14</f>
@@ -9220,23 +9576,23 @@
       </c>
       <c r="G20" s="9">
         <f>'Basic Learning'!O15</f>
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="H20" s="9">
         <f>'Basic Learning'!P15</f>
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="I20" s="9">
         <f>'Basic Learning'!Q15</f>
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="J20" s="9">
         <f>'Basic Learning'!R15</f>
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="K20" s="9">
         <f>'Basic Learning'!S15</f>
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="L20" s="9">
         <f>'Basic Learning'!T15</f>
@@ -9273,23 +9629,23 @@
       </c>
       <c r="G21" s="9">
         <f>'Basic Learning'!O16</f>
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="H21" s="9">
         <f>'Basic Learning'!P16</f>
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="I21" s="9">
         <f>'Basic Learning'!Q16</f>
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="J21" s="9">
         <f>'Basic Learning'!R16</f>
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="K21" s="9">
         <f>'Basic Learning'!S16</f>
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="L21" s="9">
         <f>'Basic Learning'!T16</f>
@@ -9324,21 +9680,21 @@
         <f>'Basic Learning'!N17</f>
         <v>0.64</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G22" s="12" t="str">
         <f>'Basic Learning'!O17</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="12">
+        <v>-</v>
+      </c>
+      <c r="H22" s="12" t="str">
         <f>'Basic Learning'!P17</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="I22" s="12">
         <f>'Basic Learning'!Q17</f>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="J22" s="12">
         <f>'Basic Learning'!R17</f>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="K22" s="12">
         <f>'Basic Learning'!S17</f>
@@ -9363,7 +9719,7 @@
       </c>
       <c r="C23" s="6">
         <f>'Advanced Learning'!K14</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D23" s="6">
         <f>'Advanced Learning'!L14</f>
@@ -9416,7 +9772,7 @@
       </c>
       <c r="C24" s="9">
         <f>'Advanced Learning'!K15</f>
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="D24" s="9">
         <f>'Advanced Learning'!L15</f>
@@ -9469,7 +9825,7 @@
       </c>
       <c r="C25" s="9">
         <f>'Advanced Learning'!K16</f>
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="D25" s="9">
         <f>'Advanced Learning'!L16</f>
@@ -9695,29 +10051,29 @@
         <f>'Basic Learning'!N19</f>
         <v>Numeric Only 2</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="15" t="str">
         <f>'Basic Learning'!O19</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="15">
+        <v>FULL SET 1a</v>
+      </c>
+      <c r="H31" s="15" t="str">
         <f>'Basic Learning'!P19</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="15">
+        <v>FULL SET 2a</v>
+      </c>
+      <c r="I31" s="15" t="str">
         <f>'Basic Learning'!Q19</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="15">
+        <v>FULL SET 1a min-max</v>
+      </c>
+      <c r="J31" s="15" t="str">
         <f>'Basic Learning'!R19</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="15">
+        <v>FULL SET 2a min-max</v>
+      </c>
+      <c r="K31" s="15" t="str">
         <f>'Basic Learning'!S19</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="15">
+        <v>FULL SET RF min-max</v>
+      </c>
+      <c r="L31" s="15" t="str">
         <f>'Basic Learning'!T19</f>
-        <v>0</v>
+        <v>Numeric Only min-max 1</v>
       </c>
       <c r="M31" s="16">
         <f>'Basic Learning'!U19</f>
@@ -9750,23 +10106,23 @@
       </c>
       <c r="G32" s="6">
         <f>'Basic Learning'!O20</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H32" s="6">
         <f>'Basic Learning'!P20</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I32" s="6">
         <f>'Basic Learning'!Q20</f>
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="J32" s="6">
         <f>'Basic Learning'!R20</f>
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="K32" s="6">
         <f>'Basic Learning'!S20</f>
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="L32" s="6">
         <f>'Basic Learning'!T20</f>
@@ -9803,23 +10159,23 @@
       </c>
       <c r="G33" s="9">
         <f>'Basic Learning'!O21</f>
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="H33" s="9">
         <f>'Basic Learning'!P21</f>
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="I33" s="9">
         <f>'Basic Learning'!Q21</f>
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="J33" s="9">
         <f>'Basic Learning'!R21</f>
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="K33" s="9">
         <f>'Basic Learning'!S21</f>
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="L33" s="9">
         <f>'Basic Learning'!T21</f>
@@ -9856,23 +10212,23 @@
       </c>
       <c r="G34" s="9">
         <f>'Basic Learning'!O22</f>
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="H34" s="9">
         <f>'Basic Learning'!P22</f>
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="I34" s="9">
         <f>'Basic Learning'!Q22</f>
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="J34" s="9">
         <f>'Basic Learning'!R22</f>
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="K34" s="9">
         <f>'Basic Learning'!S22</f>
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="L34" s="9">
         <f>'Basic Learning'!T22</f>
@@ -9909,23 +10265,23 @@
       </c>
       <c r="G35" s="9">
         <f>'Basic Learning'!O23</f>
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="H35" s="9">
         <f>'Basic Learning'!P23</f>
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="I35" s="9">
         <f>'Basic Learning'!Q23</f>
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="J35" s="9">
         <f>'Basic Learning'!R23</f>
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="K35" s="9">
         <f>'Basic Learning'!S23</f>
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="L35" s="9">
         <f>'Basic Learning'!T23</f>
@@ -9960,21 +10316,21 @@
         <f>'Basic Learning'!N24</f>
         <v>0.63</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G36" s="12" t="str">
         <f>'Basic Learning'!O24</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="12">
+        <v>-</v>
+      </c>
+      <c r="H36" s="12" t="str">
         <f>'Basic Learning'!P24</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="I36" s="12">
         <f>'Basic Learning'!Q24</f>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="J36" s="12">
         <f>'Basic Learning'!R24</f>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="K36" s="12">
         <f>'Basic Learning'!S24</f>
@@ -9999,7 +10355,7 @@
       </c>
       <c r="C37" s="6">
         <f>'Advanced Learning'!K22</f>
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="D37" s="6">
         <f>'Advanced Learning'!L22</f>
@@ -10052,7 +10408,7 @@
       </c>
       <c r="C38" s="9">
         <f>'Advanced Learning'!K23</f>
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="D38" s="9">
         <f>'Advanced Learning'!L23</f>
@@ -10105,7 +10461,7 @@
       </c>
       <c r="C39" s="9">
         <f>'Advanced Learning'!K24</f>
-        <v>0</v>
+        <v>0.79</v>
       </c>
       <c r="D39" s="9">
         <f>'Advanced Learning'!L24</f>
@@ -10331,29 +10687,29 @@
         <f>'Basic Learning'!N26</f>
         <v>Numeric Only 2</v>
       </c>
-      <c r="G45" s="15">
+      <c r="G45" s="15" t="str">
         <f>'Basic Learning'!O26</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="15">
+        <v>FULL SET 1a</v>
+      </c>
+      <c r="H45" s="15" t="str">
         <f>'Basic Learning'!P26</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="15">
+        <v>FULL SET 2a</v>
+      </c>
+      <c r="I45" s="15" t="str">
         <f>'Basic Learning'!Q26</f>
-        <v>0</v>
-      </c>
-      <c r="J45" s="15">
+        <v>FULL SET 1a min-max</v>
+      </c>
+      <c r="J45" s="15" t="str">
         <f>'Basic Learning'!R26</f>
-        <v>0</v>
-      </c>
-      <c r="K45" s="15">
+        <v>FULL SET 2a min-max</v>
+      </c>
+      <c r="K45" s="15" t="str">
         <f>'Basic Learning'!S26</f>
-        <v>0</v>
-      </c>
-      <c r="L45" s="15">
+        <v>FULL SET RF min-max</v>
+      </c>
+      <c r="L45" s="15" t="str">
         <f>'Basic Learning'!T26</f>
-        <v>0</v>
+        <v>Numeric Only min-max 1</v>
       </c>
       <c r="M45" s="16">
         <f>'Basic Learning'!U26</f>
@@ -10386,23 +10742,23 @@
       </c>
       <c r="G46" s="6">
         <f>'Basic Learning'!O27</f>
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="H46" s="6">
         <f>'Basic Learning'!P27</f>
-        <v>0</v>
+        <v>0.59</v>
       </c>
       <c r="I46" s="6">
         <f>'Basic Learning'!Q27</f>
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="J46" s="6">
         <f>'Basic Learning'!R27</f>
-        <v>0</v>
+        <v>0.87</v>
       </c>
       <c r="K46" s="6">
         <f>'Basic Learning'!S27</f>
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="L46" s="6">
         <f>'Basic Learning'!T27</f>
@@ -10439,23 +10795,23 @@
       </c>
       <c r="G47" s="9">
         <f>'Basic Learning'!O28</f>
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="H47" s="9">
         <f>'Basic Learning'!P28</f>
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="I47" s="9">
         <f>'Basic Learning'!Q28</f>
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="J47" s="9">
         <f>'Basic Learning'!R28</f>
-        <v>0</v>
+        <v>0.92</v>
       </c>
       <c r="K47" s="9">
         <f>'Basic Learning'!S28</f>
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="L47" s="9">
         <f>'Basic Learning'!T28</f>
@@ -10492,23 +10848,23 @@
       </c>
       <c r="G48" s="9">
         <f>'Basic Learning'!O29</f>
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="H48" s="9">
         <f>'Basic Learning'!P29</f>
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="I48" s="9">
         <f>'Basic Learning'!Q29</f>
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="J48" s="9">
         <f>'Basic Learning'!R29</f>
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="K48" s="9">
         <f>'Basic Learning'!S29</f>
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="L48" s="9">
         <f>'Basic Learning'!T29</f>
@@ -10545,23 +10901,23 @@
       </c>
       <c r="G49" s="9">
         <f>'Basic Learning'!O30</f>
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="H49" s="9">
         <f>'Basic Learning'!P30</f>
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="I49" s="9">
         <f>'Basic Learning'!Q30</f>
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="J49" s="9">
         <f>'Basic Learning'!R30</f>
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="K49" s="9">
         <f>'Basic Learning'!S30</f>
-        <v>0</v>
+        <v>0.94</v>
       </c>
       <c r="L49" s="9">
         <f>'Basic Learning'!T30</f>
@@ -10596,21 +10952,21 @@
         <f>'Basic Learning'!N31</f>
         <v>0.64</v>
       </c>
-      <c r="G50" s="12">
+      <c r="G50" s="12" t="str">
         <f>'Basic Learning'!O31</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="12">
+        <v>-</v>
+      </c>
+      <c r="H50" s="12" t="str">
         <f>'Basic Learning'!P31</f>
-        <v>0</v>
+        <v>-</v>
       </c>
       <c r="I50" s="12">
         <f>'Basic Learning'!Q31</f>
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="J50" s="12">
         <f>'Basic Learning'!R31</f>
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="K50" s="12">
         <f>'Basic Learning'!S31</f>
@@ -10635,7 +10991,7 @@
       </c>
       <c r="C51" s="6">
         <f>'Advanced Learning'!K30</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="D51" s="6">
         <f>'Advanced Learning'!L30</f>
@@ -10688,7 +11044,7 @@
       </c>
       <c r="C52" s="9">
         <f>'Advanced Learning'!K31</f>
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="D52" s="9">
         <f>'Advanced Learning'!L31</f>
@@ -10741,7 +11097,7 @@
       </c>
       <c r="C53" s="9">
         <f>'Advanced Learning'!K32</f>
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="D53" s="9">
         <f>'Advanced Learning'!L32</f>
@@ -10945,155 +11301,155 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B4:B14">
-    <cfRule type="top10" dxfId="50" priority="84" rank="1"/>
+    <cfRule type="top10" dxfId="47" priority="84" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C14">
-    <cfRule type="top10" dxfId="49" priority="83" rank="1"/>
+    <cfRule type="top10" dxfId="46" priority="83" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:D14">
-    <cfRule type="top10" dxfId="48" priority="82" rank="1"/>
+    <cfRule type="top10" dxfId="45" priority="82" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:E14">
-    <cfRule type="top10" dxfId="47" priority="81" rank="1"/>
+    <cfRule type="top10" dxfId="44" priority="81" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:F14">
-    <cfRule type="top10" dxfId="46" priority="80" rank="1"/>
+    <cfRule type="top10" dxfId="43" priority="80" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G14">
-    <cfRule type="top10" dxfId="45" priority="79" rank="1"/>
+    <cfRule type="top10" dxfId="42" priority="79" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4:H14">
-    <cfRule type="top10" dxfId="44" priority="78" rank="1"/>
+    <cfRule type="top10" dxfId="41" priority="78" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I4:I14">
-    <cfRule type="top10" dxfId="43" priority="77" rank="1"/>
+    <cfRule type="top10" dxfId="40" priority="77" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J14">
-    <cfRule type="top10" dxfId="42" priority="76" rank="1"/>
+    <cfRule type="top10" dxfId="39" priority="76" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K4:K14">
-    <cfRule type="top10" dxfId="41" priority="75" rank="1"/>
+    <cfRule type="top10" dxfId="38" priority="75" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L4:L14">
-    <cfRule type="top10" dxfId="40" priority="74" rank="1"/>
+    <cfRule type="top10" dxfId="37" priority="74" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M4:M14">
-    <cfRule type="top10" dxfId="39" priority="73" rank="1"/>
+    <cfRule type="top10" dxfId="36" priority="73" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18:B28">
-    <cfRule type="top10" dxfId="38" priority="36" rank="1"/>
+    <cfRule type="top10" dxfId="35" priority="36" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:C28">
-    <cfRule type="top10" dxfId="37" priority="35" rank="1"/>
+    <cfRule type="top10" dxfId="34" priority="35" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D28">
-    <cfRule type="top10" dxfId="36" priority="34" rank="1"/>
+    <cfRule type="top10" dxfId="33" priority="34" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:E28">
-    <cfRule type="top10" dxfId="35" priority="33" rank="1"/>
+    <cfRule type="top10" dxfId="32" priority="33" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:F28">
-    <cfRule type="top10" dxfId="34" priority="32" rank="1"/>
+    <cfRule type="top10" dxfId="31" priority="32" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:G28">
-    <cfRule type="top10" dxfId="33" priority="31" rank="1"/>
+    <cfRule type="top10" dxfId="30" priority="31" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18:H28">
-    <cfRule type="top10" dxfId="32" priority="30" rank="1"/>
+    <cfRule type="top10" dxfId="29" priority="30" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I28">
-    <cfRule type="top10" dxfId="31" priority="29" rank="1"/>
+    <cfRule type="top10" dxfId="28" priority="29" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J18:J28">
-    <cfRule type="top10" dxfId="30" priority="28" rank="1"/>
+    <cfRule type="top10" dxfId="27" priority="28" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K18:K28">
-    <cfRule type="top10" dxfId="29" priority="27" rank="1"/>
+    <cfRule type="top10" dxfId="26" priority="27" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L18:L28">
-    <cfRule type="top10" dxfId="28" priority="26" rank="1"/>
+    <cfRule type="top10" dxfId="25" priority="26" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M18:M28">
-    <cfRule type="top10" dxfId="27" priority="25" rank="1"/>
+    <cfRule type="top10" dxfId="24" priority="25" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:B42">
-    <cfRule type="top10" dxfId="26" priority="24" rank="1"/>
+    <cfRule type="top10" dxfId="23" priority="24" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32:C42">
-    <cfRule type="top10" dxfId="25" priority="23" rank="1"/>
+    <cfRule type="top10" dxfId="22" priority="23" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:D42">
-    <cfRule type="top10" dxfId="24" priority="22" rank="1"/>
+    <cfRule type="top10" dxfId="21" priority="22" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:E42">
-    <cfRule type="top10" dxfId="23" priority="21" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="21" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32:F42">
-    <cfRule type="top10" dxfId="22" priority="20" rank="1"/>
+    <cfRule type="top10" dxfId="19" priority="20" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G42">
-    <cfRule type="top10" dxfId="21" priority="19" rank="1"/>
+    <cfRule type="top10" dxfId="18" priority="19" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H42">
-    <cfRule type="top10" dxfId="20" priority="18" rank="1"/>
+    <cfRule type="top10" dxfId="17" priority="18" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I32:I42">
-    <cfRule type="top10" dxfId="19" priority="17" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="17" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J32:J42">
-    <cfRule type="top10" dxfId="18" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="15" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K32:K42">
-    <cfRule type="top10" dxfId="17" priority="15" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="15" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L32:L42">
-    <cfRule type="top10" dxfId="16" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="13" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M32:M42">
-    <cfRule type="top10" dxfId="15" priority="13" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="13" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B46:B56">
-    <cfRule type="top10" dxfId="14" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="11" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C56">
-    <cfRule type="top10" dxfId="13" priority="11" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="11" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:D56">
-    <cfRule type="top10" dxfId="12" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E56">
-    <cfRule type="top10" dxfId="11" priority="9" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="9" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F46:F56">
-    <cfRule type="top10" dxfId="10" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46:G56">
-    <cfRule type="top10" dxfId="9" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="7" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46:H56">
-    <cfRule type="top10" dxfId="8" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:I56">
-    <cfRule type="top10" dxfId="7" priority="5" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="5" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46:J56">
-    <cfRule type="top10" dxfId="6" priority="4" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="4" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46:K56">
-    <cfRule type="top10" dxfId="5" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L46:L56">
-    <cfRule type="top10" dxfId="4" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M46:M56">
-    <cfRule type="top10" dxfId="3" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7E0276-EDA2-42E6-B561-01292315F489}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11357,7 +11713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1186EA-CB96-47DD-A9F0-2C597564D81D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">

--- a/Classification Cont.xlsx
+++ b/Classification Cont.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whatch2\Desktop\ClassificationCompetition\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Documents\SCHOOL\Towson\2018-2022 -- DSc - Computer Security\6_Fall 2018\COSC 757 - Data Mining\Assignments\Classification Competition - 11-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9485DF9-9BBE-4092-B870-4D255A4A36DA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Basic Learning" sheetId="3" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="Sheet5" sheetId="7" r:id="rId4"/>
     <sheet name="crossval" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="80">
   <si>
     <t>TN</t>
   </si>
@@ -263,19 +264,19 @@
     <t>RF-100-entropy</t>
   </si>
   <si>
-    <t>RF-2000</t>
-  </si>
-  <si>
     <t>FULL SET RF min-max</t>
   </si>
   <si>
     <t>Numeric Only min-max 1</t>
   </si>
+  <si>
+    <t>RF-250-entropy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -3302,11 +3303,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3497,7 +3498,7 @@
       </c>
       <c r="S6" s="19">
         <f>B69</f>
-        <v>0.94522636397025706</v>
+        <v>0.94267617443850704</v>
       </c>
       <c r="T6" s="19">
         <f>B76</f>
@@ -3569,7 +3570,7 @@
       </c>
       <c r="S7" s="18">
         <f t="shared" ref="S7:S10" si="10">B70</f>
-        <v>0.94267617443850704</v>
+        <v>0.94284942100995806</v>
       </c>
       <c r="T7" s="18">
         <f t="shared" ref="T7:T10" si="11">B77</f>
@@ -3641,7 +3642,7 @@
       </c>
       <c r="S8" s="18">
         <f t="shared" si="10"/>
-        <v>0.94284942100995806</v>
+        <v>0.94316819470142599</v>
       </c>
       <c r="T8" s="18">
         <f t="shared" si="11"/>
@@ -3713,7 +3714,7 @@
       </c>
       <c r="S9" s="18">
         <f t="shared" si="10"/>
-        <v>0.94316819470142599</v>
+        <v>0.94522636397025706</v>
       </c>
       <c r="T9" s="18">
         <f t="shared" si="11"/>
@@ -3785,7 +3786,7 @@
       </c>
       <c r="S10" s="17">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>0.950680166039514</v>
       </c>
       <c r="T10" s="17">
         <f t="shared" si="11"/>
@@ -3928,7 +3929,7 @@
       </c>
       <c r="S13" s="19">
         <f>C69</f>
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="T13" s="19">
         <f>C76</f>
@@ -4144,7 +4145,7 @@
       </c>
       <c r="S16" s="18">
         <f t="shared" si="24"/>
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="T16" s="18">
         <f t="shared" si="25"/>
@@ -4216,7 +4217,7 @@
       </c>
       <c r="S17" s="17">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="T17" s="17">
         <f t="shared" si="25"/>
@@ -4364,7 +4365,7 @@
       </c>
       <c r="S20" s="19">
         <f>D69</f>
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="T20" s="19">
         <f>D76</f>
@@ -4580,7 +4581,7 @@
       </c>
       <c r="S23" s="18">
         <f t="shared" si="38"/>
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="T23" s="18">
         <f t="shared" si="39"/>
@@ -4652,7 +4653,7 @@
       </c>
       <c r="S24" s="17">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="T24" s="17">
         <f t="shared" si="39"/>
@@ -5083,7 +5084,7 @@
       </c>
       <c r="S31" s="17">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="T31" s="17">
         <f t="shared" si="53"/>
@@ -5702,7 +5703,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B68" t="s">
         <v>6</v>
@@ -5722,16 +5723,16 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.94522636397025706</v>
+        <v>0.94267617443850704</v>
       </c>
       <c r="C69">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="D69">
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="E69">
         <v>0.94</v>
@@ -5742,10 +5743,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.94267617443850704</v>
+        <v>0.94284942100995806</v>
       </c>
       <c r="C70">
         <v>0.94</v>
@@ -5762,10 +5763,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.94284942100995806</v>
+        <v>0.94316819470142599</v>
       </c>
       <c r="C71">
         <v>0.94</v>
@@ -5782,16 +5783,16 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.94316819470142599</v>
+        <v>0.94522636397025706</v>
       </c>
       <c r="C72">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="D72">
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="E72">
         <v>0.94</v>
@@ -5802,7 +5803,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>79</v>
+      </c>
+      <c r="B73">
+        <v>0.950680166039514</v>
+      </c>
+      <c r="C73">
+        <v>0.95</v>
+      </c>
+      <c r="D73">
+        <v>0.95</v>
+      </c>
+      <c r="E73">
+        <v>0.95</v>
       </c>
       <c r="F73">
         <v>144303</v>
@@ -5810,7 +5823,7 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B75" t="s">
         <v>6</v>
@@ -6077,16 +6090,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6178,9 +6191,9 @@
         <f>A29</f>
         <v>Numeric Only 1</v>
       </c>
-      <c r="N5" s="27">
+      <c r="N5" s="27" t="str">
         <f>A37</f>
-        <v>0</v>
+        <v>Numeric Only min-max 1</v>
       </c>
       <c r="O5" s="27">
         <f>A45</f>
@@ -6244,7 +6257,7 @@
       </c>
       <c r="L6" s="19">
         <f>B22</f>
-        <v>0.64297772196951397</v>
+        <v>0.64724470562146497</v>
       </c>
       <c r="M6" s="19">
         <f>B30</f>
@@ -6252,7 +6265,7 @@
       </c>
       <c r="N6" s="19">
         <f>B38</f>
-        <v>0</v>
+        <v>0.66467318993236502</v>
       </c>
       <c r="O6" s="19">
         <f>B46</f>
@@ -6316,7 +6329,7 @@
       </c>
       <c r="L7" s="18">
         <f t="shared" ref="L7:L10" si="2">B23</f>
-        <v>0.64948899403756999</v>
+        <v>0.65204706730236095</v>
       </c>
       <c r="M7" s="18">
         <f t="shared" ref="M7:M10" si="3">B31</f>
@@ -6324,7 +6337,7 @@
       </c>
       <c r="N7" s="18">
         <f t="shared" ref="N7:N10" si="4">B39</f>
-        <v>0</v>
+        <v>0.803803082381638</v>
       </c>
       <c r="O7" s="18">
         <f t="shared" ref="O7:O10" si="5">B47</f>
@@ -6388,7 +6401,7 @@
       </c>
       <c r="L8" s="18">
         <f t="shared" si="2"/>
-        <v>0.65057004814848696</v>
+        <v>0.65145803304135697</v>
       </c>
       <c r="M8" s="18">
         <f t="shared" si="3"/>
@@ -6396,7 +6409,7 @@
       </c>
       <c r="N8" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.74379088590752795</v>
       </c>
       <c r="O8" s="18">
         <f t="shared" si="5"/>
@@ -6701,9 +6714,9 @@
         <f t="shared" si="24"/>
         <v>Numeric Only 1</v>
       </c>
-      <c r="N13" s="27">
+      <c r="N13" s="27" t="str">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>Numeric Only min-max 1</v>
       </c>
       <c r="O13" s="27">
         <f t="shared" si="24"/>
@@ -6775,7 +6788,7 @@
       </c>
       <c r="N14" s="19">
         <f>C38</f>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="O14" s="19">
         <f>C46</f>
@@ -6847,7 +6860,7 @@
       </c>
       <c r="N15" s="18">
         <f t="shared" ref="N15:N18" si="30">C39</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O15" s="18">
         <f t="shared" ref="O15:O18" si="31">C47</f>
@@ -6919,7 +6932,7 @@
       </c>
       <c r="N16" s="18">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="O16" s="18">
         <f t="shared" si="31"/>
@@ -7188,9 +7201,9 @@
         <f t="shared" si="50"/>
         <v>Numeric Only 1</v>
       </c>
-      <c r="N21" s="27">
+      <c r="N21" s="27" t="str">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>Numeric Only min-max 1</v>
       </c>
       <c r="O21" s="27">
         <f t="shared" si="50"/>
@@ -7226,13 +7239,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.64297772196951397</v>
+        <v>0.64724470562146497</v>
       </c>
       <c r="C22">
         <v>0.63</v>
       </c>
       <c r="D22">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="E22">
         <v>0.62</v>
@@ -7254,7 +7267,7 @@
       </c>
       <c r="L22" s="19">
         <f>D22</f>
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="M22" s="19">
         <f>D30</f>
@@ -7262,7 +7275,7 @@
       </c>
       <c r="N22" s="19">
         <f>D38</f>
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="O22" s="19">
         <f>D46</f>
@@ -7298,7 +7311,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.64948899403756999</v>
+        <v>0.65204706730236095</v>
       </c>
       <c r="C23">
         <v>0.64</v>
@@ -7307,7 +7320,7 @@
         <v>0.65</v>
       </c>
       <c r="E23">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="F23">
         <v>120253</v>
@@ -7334,7 +7347,7 @@
       </c>
       <c r="N23" s="18">
         <f t="shared" ref="N23:N26" si="56">D39</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O23" s="18">
         <f t="shared" ref="O23:O26" si="57">D47</f>
@@ -7370,7 +7383,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.65057004814848696</v>
+        <v>0.65145803304135697</v>
       </c>
       <c r="C24">
         <v>0.64</v>
@@ -7406,7 +7419,7 @@
       </c>
       <c r="N24" s="18">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="O24" s="18">
         <f t="shared" si="57"/>
@@ -7669,9 +7682,9 @@
         <f t="shared" si="75"/>
         <v>Numeric Only 1</v>
       </c>
-      <c r="N29" s="27">
+      <c r="N29" s="27" t="str">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>Numeric Only min-max 1</v>
       </c>
       <c r="O29" s="27">
         <f t="shared" si="75"/>
@@ -7731,7 +7744,7 @@
       </c>
       <c r="N30" s="19">
         <f>E38</f>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="O30" s="19">
         <f>E46</f>
@@ -7783,7 +7796,7 @@
       </c>
       <c r="L31" s="18">
         <f t="shared" si="78"/>
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="M31" s="18">
         <f t="shared" ref="M31:M34" si="80">E31</f>
@@ -7791,7 +7804,7 @@
       </c>
       <c r="N31" s="18">
         <f t="shared" ref="N31:N34" si="81">E39</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="O31" s="18">
         <f t="shared" ref="O31:O34" si="82">E47</f>
@@ -7851,7 +7864,7 @@
       </c>
       <c r="N32" s="18">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="O32" s="18">
         <f t="shared" si="82"/>
@@ -8063,7 +8076,9 @@
       </c>
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
+      <c r="A37" s="1" t="s">
+        <v>78</v>
+      </c>
       <c r="B37" t="s">
         <v>6</v>
       </c>
@@ -8084,6 +8099,18 @@
       <c r="A38" t="s">
         <v>27</v>
       </c>
+      <c r="B38">
+        <v>0.66467318993236502</v>
+      </c>
+      <c r="C38">
+        <v>0.64</v>
+      </c>
+      <c r="D38">
+        <v>0.65</v>
+      </c>
+      <c r="E38">
+        <v>0.63</v>
+      </c>
       <c r="F38">
         <v>120253</v>
       </c>
@@ -8092,6 +8119,18 @@
       <c r="A39" t="s">
         <v>28</v>
       </c>
+      <c r="B39">
+        <v>0.803803082381638</v>
+      </c>
+      <c r="C39">
+        <v>0.8</v>
+      </c>
+      <c r="D39">
+        <v>0.8</v>
+      </c>
+      <c r="E39">
+        <v>0.8</v>
+      </c>
       <c r="F39">
         <v>120253</v>
       </c>
@@ -8099,6 +8138,18 @@
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>29</v>
+      </c>
+      <c r="B40">
+        <v>0.74379088590752795</v>
+      </c>
+      <c r="C40">
+        <v>0.74</v>
+      </c>
+      <c r="D40">
+        <v>0.74</v>
+      </c>
+      <c r="E40">
+        <v>0.74</v>
       </c>
       <c r="F40">
         <v>120253</v>
@@ -8741,7 +8792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A3:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8850,7 +8901,7 @@
       </c>
       <c r="K4" s="19">
         <f>'Basic Learning'!S6</f>
-        <v>0.94522636397025706</v>
+        <v>0.94267617443850704</v>
       </c>
       <c r="L4" s="19">
         <f>'Basic Learning'!T6</f>
@@ -8903,7 +8954,7 @@
       </c>
       <c r="K5" s="18">
         <f>'Basic Learning'!S7</f>
-        <v>0.94267617443850704</v>
+        <v>0.94284942100995806</v>
       </c>
       <c r="L5" s="18">
         <f>'Basic Learning'!T7</f>
@@ -8956,7 +9007,7 @@
       </c>
       <c r="K6" s="18">
         <f>'Basic Learning'!S8</f>
-        <v>0.94284942100995806</v>
+        <v>0.94316819470142599</v>
       </c>
       <c r="L6" s="18">
         <f>'Basic Learning'!T8</f>
@@ -9009,7 +9060,7 @@
       </c>
       <c r="K7" s="18">
         <f>'Basic Learning'!S9</f>
-        <v>0.94316819470142599</v>
+        <v>0.94522636397025706</v>
       </c>
       <c r="L7" s="18">
         <f>'Basic Learning'!T9</f>
@@ -9062,7 +9113,7 @@
       </c>
       <c r="K8" s="17">
         <f>'Basic Learning'!S10</f>
-        <v>0</v>
+        <v>0.950680166039514</v>
       </c>
       <c r="L8" s="17">
         <f>'Basic Learning'!T10</f>
@@ -9087,7 +9138,7 @@
       </c>
       <c r="D9" s="19">
         <f>'Advanced Learning'!L6</f>
-        <v>0.64297772196951397</v>
+        <v>0.64724470562146497</v>
       </c>
       <c r="E9" s="19">
         <f>'Advanced Learning'!M6</f>
@@ -9095,7 +9146,7 @@
       </c>
       <c r="F9" s="19">
         <f>'Advanced Learning'!N6</f>
-        <v>0</v>
+        <v>0.66467318993236502</v>
       </c>
       <c r="G9" s="19">
         <f>'Advanced Learning'!O6</f>
@@ -9140,7 +9191,7 @@
       </c>
       <c r="D10" s="18">
         <f>'Advanced Learning'!L7</f>
-        <v>0.64948899403756999</v>
+        <v>0.65204706730236095</v>
       </c>
       <c r="E10" s="18">
         <f>'Advanced Learning'!M7</f>
@@ -9148,7 +9199,7 @@
       </c>
       <c r="F10" s="18">
         <f>'Advanced Learning'!N7</f>
-        <v>0</v>
+        <v>0.803803082381638</v>
       </c>
       <c r="G10" s="18">
         <f>'Advanced Learning'!O7</f>
@@ -9193,7 +9244,7 @@
       </c>
       <c r="D11" s="18">
         <f>'Advanced Learning'!L8</f>
-        <v>0.65057004814848696</v>
+        <v>0.65145803304135697</v>
       </c>
       <c r="E11" s="18">
         <f>'Advanced Learning'!M8</f>
@@ -9201,7 +9252,7 @@
       </c>
       <c r="F11" s="18">
         <f>'Advanced Learning'!N8</f>
-        <v>0</v>
+        <v>0.74379088590752795</v>
       </c>
       <c r="G11" s="18">
         <f>'Advanced Learning'!O8</f>
@@ -9486,7 +9537,7 @@
       </c>
       <c r="K18" s="6">
         <f>'Basic Learning'!S13</f>
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="L18" s="6">
         <f>'Basic Learning'!T13</f>
@@ -9645,7 +9696,7 @@
       </c>
       <c r="K21" s="9">
         <f>'Basic Learning'!S16</f>
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="L21" s="9">
         <f>'Basic Learning'!T16</f>
@@ -9698,7 +9749,7 @@
       </c>
       <c r="K22" s="12">
         <f>'Basic Learning'!S17</f>
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="L22" s="12">
         <f>'Basic Learning'!T17</f>
@@ -9731,7 +9782,7 @@
       </c>
       <c r="F23" s="6">
         <f>'Advanced Learning'!N14</f>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="G23" s="6">
         <f>'Advanced Learning'!O14</f>
@@ -9784,7 +9835,7 @@
       </c>
       <c r="F24" s="9">
         <f>'Advanced Learning'!N15</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G24" s="9">
         <f>'Advanced Learning'!O15</f>
@@ -9837,7 +9888,7 @@
       </c>
       <c r="F25" s="9">
         <f>'Advanced Learning'!N16</f>
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="G25" s="9">
         <f>'Advanced Learning'!O16</f>
@@ -10122,7 +10173,7 @@
       </c>
       <c r="K32" s="6">
         <f>'Basic Learning'!S20</f>
-        <v>0.95</v>
+        <v>0.94</v>
       </c>
       <c r="L32" s="6">
         <f>'Basic Learning'!T20</f>
@@ -10281,7 +10332,7 @@
       </c>
       <c r="K35" s="9">
         <f>'Basic Learning'!S23</f>
-        <v>0.94</v>
+        <v>0.95</v>
       </c>
       <c r="L35" s="9">
         <f>'Basic Learning'!T23</f>
@@ -10334,7 +10385,7 @@
       </c>
       <c r="K36" s="12">
         <f>'Basic Learning'!S24</f>
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="L36" s="12">
         <f>'Basic Learning'!T24</f>
@@ -10359,7 +10410,7 @@
       </c>
       <c r="D37" s="6">
         <f>'Advanced Learning'!L22</f>
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
       <c r="E37" s="6">
         <f>'Advanced Learning'!M22</f>
@@ -10367,7 +10418,7 @@
       </c>
       <c r="F37" s="6">
         <f>'Advanced Learning'!N22</f>
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="G37" s="6">
         <f>'Advanced Learning'!O22</f>
@@ -10420,7 +10471,7 @@
       </c>
       <c r="F38" s="9">
         <f>'Advanced Learning'!N23</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G38" s="9">
         <f>'Advanced Learning'!O23</f>
@@ -10473,7 +10524,7 @@
       </c>
       <c r="F39" s="9">
         <f>'Advanced Learning'!N24</f>
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="G39" s="9">
         <f>'Advanced Learning'!O24</f>
@@ -10970,7 +11021,7 @@
       </c>
       <c r="K50" s="12">
         <f>'Basic Learning'!S31</f>
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="L50" s="12">
         <f>'Basic Learning'!T31</f>
@@ -11003,7 +11054,7 @@
       </c>
       <c r="F51" s="6">
         <f>'Advanced Learning'!N30</f>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="G51" s="6">
         <f>'Advanced Learning'!O30</f>
@@ -11048,7 +11099,7 @@
       </c>
       <c r="D52" s="9">
         <f>'Advanced Learning'!L31</f>
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="E52" s="9">
         <f>'Advanced Learning'!M31</f>
@@ -11056,7 +11107,7 @@
       </c>
       <c r="F52" s="9">
         <f>'Advanced Learning'!N31</f>
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G52" s="9">
         <f>'Advanced Learning'!O31</f>
@@ -11109,7 +11160,7 @@
       </c>
       <c r="F53" s="9">
         <f>'Advanced Learning'!N32</f>
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="G53" s="9">
         <f>'Advanced Learning'!O32</f>
@@ -11449,7 +11500,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11713,7 +11764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">

--- a/Classification Cont.xlsx
+++ b/Classification Cont.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Documents\SCHOOL\Towson\2018-2022 -- DSc - Computer Security\6_Fall 2018\COSC 757 - Data Mining\Assignments\Classification Competition - 11-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9485DF9-9BBE-4092-B870-4D255A4A36DA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CAFA98-3256-48F6-9C84-7C153C6B57EA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6093,8 +6093,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6473,7 +6473,7 @@
       </c>
       <c r="L9" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.65094522674354105</v>
       </c>
       <c r="M9" s="18">
         <f t="shared" si="3"/>
@@ -6481,7 +6481,7 @@
       </c>
       <c r="N9" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.77036672580108601</v>
       </c>
       <c r="O9" s="18">
         <f t="shared" si="5"/>
@@ -6548,7 +6548,7 @@
       </c>
       <c r="L10" s="18">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.12628201574453901</v>
       </c>
       <c r="M10" s="18">
         <f t="shared" si="3"/>
@@ -6556,7 +6556,7 @@
       </c>
       <c r="N10" s="18">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.65524864175629205</v>
       </c>
       <c r="O10" s="18">
         <f t="shared" si="5"/>
@@ -6623,7 +6623,7 @@
       </c>
       <c r="L11" s="17">
         <f t="shared" ref="L11" si="15">B27</f>
-        <v>0</v>
+        <v>0.61309457811287205</v>
       </c>
       <c r="M11" s="17">
         <f t="shared" ref="M11" si="16">B35</f>
@@ -6631,7 +6631,7 @@
       </c>
       <c r="N11" s="17">
         <f>B43</f>
-        <v>0</v>
+        <v>0.61291440292715305</v>
       </c>
       <c r="O11" s="17">
         <f t="shared" ref="O11" si="17">B51</f>
@@ -6984,7 +6984,7 @@
       </c>
       <c r="L17" s="18">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="M17" s="18">
         <f t="shared" si="29"/>
@@ -6992,7 +6992,7 @@
       </c>
       <c r="N17" s="18">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="O17" s="18">
         <f t="shared" si="31"/>
@@ -7047,7 +7047,7 @@
       </c>
       <c r="L18" s="18">
         <f t="shared" si="28"/>
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="M18" s="18">
         <f t="shared" si="29"/>
@@ -7055,7 +7055,7 @@
       </c>
       <c r="N18" s="18">
         <f t="shared" si="30"/>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="O18" s="18">
         <f t="shared" si="31"/>
@@ -7110,7 +7110,7 @@
       </c>
       <c r="L19" s="17">
         <f t="shared" ref="L19" si="40">C27</f>
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="M19" s="17">
         <f t="shared" ref="M19" si="41">C35</f>
@@ -7118,7 +7118,7 @@
       </c>
       <c r="N19" s="17">
         <f t="shared" ref="N19" si="42">C43</f>
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="O19" s="17">
         <f t="shared" ref="O19" si="43">C51</f>
@@ -7454,6 +7454,18 @@
       <c r="A25" t="s">
         <v>30</v>
       </c>
+      <c r="B25">
+        <v>0.65094522674354105</v>
+      </c>
+      <c r="C25">
+        <v>0.64</v>
+      </c>
+      <c r="D25">
+        <v>0.65</v>
+      </c>
+      <c r="E25">
+        <v>0.63</v>
+      </c>
       <c r="F25">
         <v>120253</v>
       </c>
@@ -7471,7 +7483,7 @@
       </c>
       <c r="L25" s="18">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="M25" s="18">
         <f t="shared" si="55"/>
@@ -7479,7 +7491,7 @@
       </c>
       <c r="N25" s="18">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="O25" s="18">
         <f t="shared" si="57"/>
@@ -7514,6 +7526,18 @@
       <c r="A26" t="s">
         <v>31</v>
       </c>
+      <c r="B26">
+        <v>0.12628201574453901</v>
+      </c>
+      <c r="C26">
+        <v>0.74</v>
+      </c>
+      <c r="D26">
+        <v>0.13</v>
+      </c>
+      <c r="E26">
+        <v>0.12</v>
+      </c>
       <c r="F26">
         <v>120253</v>
       </c>
@@ -7531,7 +7555,7 @@
       </c>
       <c r="L26" s="18">
         <f t="shared" si="54"/>
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="M26" s="18">
         <f t="shared" si="55"/>
@@ -7539,7 +7563,7 @@
       </c>
       <c r="N26" s="18">
         <f t="shared" si="56"/>
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="O26" s="18">
         <f t="shared" si="57"/>
@@ -7574,6 +7598,18 @@
       <c r="A27" t="s">
         <v>32</v>
       </c>
+      <c r="B27">
+        <v>0.61309457811287205</v>
+      </c>
+      <c r="C27">
+        <v>0.62</v>
+      </c>
+      <c r="D27">
+        <v>0.61</v>
+      </c>
+      <c r="E27">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="F27">
         <v>120253</v>
       </c>
@@ -7591,7 +7627,7 @@
       </c>
       <c r="L27" s="17">
         <f t="shared" ref="L27" si="65">D27</f>
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="M27" s="17">
         <f t="shared" ref="M27" si="66">D35</f>
@@ -7599,7 +7635,7 @@
       </c>
       <c r="N27" s="17">
         <f t="shared" ref="N27" si="67">D43</f>
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="O27" s="17">
         <f t="shared" ref="O27" si="68">D51</f>
@@ -7916,7 +7952,7 @@
       </c>
       <c r="L33" s="18">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="M33" s="18">
         <f t="shared" si="80"/>
@@ -7924,7 +7960,7 @@
       </c>
       <c r="N33" s="18">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="O33" s="18">
         <f t="shared" si="82"/>
@@ -7976,7 +8012,7 @@
       </c>
       <c r="L34" s="18">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="M34" s="18">
         <f t="shared" si="80"/>
@@ -7984,7 +8020,7 @@
       </c>
       <c r="N34" s="18">
         <f t="shared" si="81"/>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="O34" s="18">
         <f t="shared" si="82"/>
@@ -8036,7 +8072,7 @@
       </c>
       <c r="L35" s="17">
         <f t="shared" si="78"/>
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="M35" s="17">
         <f t="shared" ref="M35" si="90">E35</f>
@@ -8044,7 +8080,7 @@
       </c>
       <c r="N35" s="17">
         <f t="shared" ref="N35" si="91">E43</f>
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="O35" s="17">
         <f t="shared" ref="O35" si="92">E51</f>
@@ -8159,6 +8195,18 @@
       <c r="A41" t="s">
         <v>30</v>
       </c>
+      <c r="B41">
+        <v>0.77036672580108601</v>
+      </c>
+      <c r="C41">
+        <v>0.74</v>
+      </c>
+      <c r="D41">
+        <v>0.74</v>
+      </c>
+      <c r="E41">
+        <v>0.74</v>
+      </c>
       <c r="F41">
         <v>120253</v>
       </c>
@@ -8167,6 +8215,18 @@
       <c r="A42" t="s">
         <v>31</v>
       </c>
+      <c r="B42">
+        <v>0.65524864175629205</v>
+      </c>
+      <c r="C42">
+        <v>0.64</v>
+      </c>
+      <c r="D42">
+        <v>0.65</v>
+      </c>
+      <c r="E42">
+        <v>0.64</v>
+      </c>
       <c r="F42">
         <v>120253</v>
       </c>
@@ -8174,6 +8234,18 @@
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>32</v>
+      </c>
+      <c r="B43">
+        <v>0.61291440292715305</v>
+      </c>
+      <c r="C43">
+        <v>0.61</v>
+      </c>
+      <c r="D43">
+        <v>0.61</v>
+      </c>
+      <c r="E43">
+        <v>0.61</v>
       </c>
       <c r="F43">
         <v>120253</v>
@@ -9297,7 +9369,7 @@
       </c>
       <c r="D12" s="18">
         <f>'Advanced Learning'!L9</f>
-        <v>0</v>
+        <v>0.65094522674354105</v>
       </c>
       <c r="E12" s="18">
         <f>'Advanced Learning'!M9</f>
@@ -9305,7 +9377,7 @@
       </c>
       <c r="F12" s="18">
         <f>'Advanced Learning'!N9</f>
-        <v>0</v>
+        <v>0.77036672580108601</v>
       </c>
       <c r="G12" s="18">
         <f>'Advanced Learning'!O9</f>
@@ -9350,7 +9422,7 @@
       </c>
       <c r="D13" s="18">
         <f>'Advanced Learning'!L10</f>
-        <v>0</v>
+        <v>0.12628201574453901</v>
       </c>
       <c r="E13" s="18">
         <f>'Advanced Learning'!M10</f>
@@ -9358,7 +9430,7 @@
       </c>
       <c r="F13" s="18">
         <f>'Advanced Learning'!N10</f>
-        <v>0</v>
+        <v>0.65524864175629205</v>
       </c>
       <c r="G13" s="18">
         <f>'Advanced Learning'!O10</f>
@@ -9403,7 +9475,7 @@
       </c>
       <c r="D14" s="17">
         <f>'Advanced Learning'!L11</f>
-        <v>0</v>
+        <v>0.61309457811287205</v>
       </c>
       <c r="E14" s="17">
         <f>'Advanced Learning'!M11</f>
@@ -9411,7 +9483,7 @@
       </c>
       <c r="F14" s="17">
         <f>'Advanced Learning'!N11</f>
-        <v>0</v>
+        <v>0.61291440292715305</v>
       </c>
       <c r="G14" s="17">
         <f>'Advanced Learning'!O11</f>
@@ -9933,7 +10005,7 @@
       </c>
       <c r="D26" s="9">
         <f>'Advanced Learning'!L17</f>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="E26" s="9">
         <f>'Advanced Learning'!M17</f>
@@ -9941,7 +10013,7 @@
       </c>
       <c r="F26" s="9">
         <f>'Advanced Learning'!N17</f>
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="G26" s="9">
         <f>'Advanced Learning'!O17</f>
@@ -9986,7 +10058,7 @@
       </c>
       <c r="D27" s="9">
         <f>'Advanced Learning'!L18</f>
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="E27" s="9">
         <f>'Advanced Learning'!M18</f>
@@ -9994,7 +10066,7 @@
       </c>
       <c r="F27" s="9">
         <f>'Advanced Learning'!N18</f>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="G27" s="9">
         <f>'Advanced Learning'!O18</f>
@@ -10039,7 +10111,7 @@
       </c>
       <c r="D28" s="12">
         <f>'Advanced Learning'!L19</f>
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="E28" s="12">
         <f>'Advanced Learning'!M19</f>
@@ -10047,7 +10119,7 @@
       </c>
       <c r="F28" s="12">
         <f>'Advanced Learning'!N19</f>
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="G28" s="12">
         <f>'Advanced Learning'!O19</f>
@@ -10569,7 +10641,7 @@
       </c>
       <c r="D40" s="9">
         <f>'Advanced Learning'!L25</f>
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="E40" s="9">
         <f>'Advanced Learning'!M25</f>
@@ -10577,7 +10649,7 @@
       </c>
       <c r="F40" s="9">
         <f>'Advanced Learning'!N25</f>
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="G40" s="9">
         <f>'Advanced Learning'!O25</f>
@@ -10622,7 +10694,7 @@
       </c>
       <c r="D41" s="9">
         <f>'Advanced Learning'!L26</f>
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="E41" s="9">
         <f>'Advanced Learning'!M26</f>
@@ -10630,7 +10702,7 @@
       </c>
       <c r="F41" s="9">
         <f>'Advanced Learning'!N26</f>
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="G41" s="9">
         <f>'Advanced Learning'!O26</f>
@@ -10675,7 +10747,7 @@
       </c>
       <c r="D42" s="12">
         <f>'Advanced Learning'!L27</f>
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="E42" s="12">
         <f>'Advanced Learning'!M27</f>
@@ -10683,7 +10755,7 @@
       </c>
       <c r="F42" s="12">
         <f>'Advanced Learning'!N27</f>
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="G42" s="12">
         <f>'Advanced Learning'!O27</f>
@@ -11205,7 +11277,7 @@
       </c>
       <c r="D54" s="9">
         <f>'Advanced Learning'!L33</f>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="E54" s="9">
         <f>'Advanced Learning'!M33</f>
@@ -11213,7 +11285,7 @@
       </c>
       <c r="F54" s="9">
         <f>'Advanced Learning'!N33</f>
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="G54" s="9">
         <f>'Advanced Learning'!O33</f>
@@ -11258,7 +11330,7 @@
       </c>
       <c r="D55" s="9">
         <f>'Advanced Learning'!L34</f>
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="E55" s="9">
         <f>'Advanced Learning'!M34</f>
@@ -11266,7 +11338,7 @@
       </c>
       <c r="F55" s="9">
         <f>'Advanced Learning'!N34</f>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="G55" s="9">
         <f>'Advanced Learning'!O34</f>
@@ -11311,7 +11383,7 @@
       </c>
       <c r="D56" s="12">
         <f>'Advanced Learning'!L35</f>
-        <v>0</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E56" s="12">
         <f>'Advanced Learning'!M35</f>
@@ -11319,7 +11391,7 @@
       </c>
       <c r="F56" s="12">
         <f>'Advanced Learning'!N35</f>
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="G56" s="12">
         <f>'Advanced Learning'!O35</f>

--- a/Classification Cont.xlsx
+++ b/Classification Cont.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Documents\SCHOOL\Towson\2018-2022 -- DSc - Computer Security\6_Fall 2018\COSC 757 - Data Mining\Assignments\Classification Competition - 11-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43CAFA98-3256-48F6-9C84-7C153C6B57EA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBBAFDE-8F7B-4FFD-9BA0-AD389C31B201}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="87">
   <si>
     <t>TN</t>
   </si>
@@ -271,6 +271,27 @@
   </si>
   <si>
     <t>RF-250-entropy</t>
+  </si>
+  <si>
+    <t>Deep Networks</t>
+  </si>
+  <si>
+    <t>250-100-10-7</t>
+  </si>
+  <si>
+    <t>250-100-10-7_32-16</t>
+  </si>
+  <si>
+    <t>250-100-10-7_1-64</t>
+  </si>
+  <si>
+    <t>250-100-10-7_1-64-bin</t>
+  </si>
+  <si>
+    <t>250-100-10-7_1-64-mult</t>
+  </si>
+  <si>
+    <t>250-100-10-7_RNN</t>
   </si>
 </sst>
 </file>
@@ -6093,8 +6114,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6195,9 +6216,9 @@
         <f>A37</f>
         <v>Numeric Only min-max 1</v>
       </c>
-      <c r="O5" s="27">
+      <c r="O5" s="27" t="str">
         <f>A45</f>
-        <v>0</v>
+        <v>Deep Networks</v>
       </c>
       <c r="P5" s="27">
         <f>A53</f>
@@ -6261,7 +6282,7 @@
       </c>
       <c r="M6" s="19">
         <f>B30</f>
-        <v>0</v>
+        <v>0.65996091584432803</v>
       </c>
       <c r="N6" s="19">
         <f>B38</f>
@@ -6269,7 +6290,7 @@
       </c>
       <c r="O6" s="19">
         <f>B46</f>
-        <v>0</v>
+        <v>0.93721587857142852</v>
       </c>
       <c r="P6" s="19">
         <f>B54</f>
@@ -6333,7 +6354,7 @@
       </c>
       <c r="M7" s="18">
         <f t="shared" ref="M7:M10" si="3">B31</f>
-        <v>0</v>
+        <v>0.48720756181394798</v>
       </c>
       <c r="N7" s="18">
         <f t="shared" ref="N7:N10" si="4">B39</f>
@@ -6341,7 +6362,7 @@
       </c>
       <c r="O7" s="18">
         <f t="shared" ref="O7:O10" si="5">B47</f>
-        <v>0</v>
+        <v>0.89939790000000008</v>
       </c>
       <c r="P7" s="18">
         <f t="shared" ref="P7:P10" si="6">B55</f>
@@ -6405,7 +6426,7 @@
       </c>
       <c r="M8" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.48079055327641601</v>
       </c>
       <c r="N8" s="18">
         <f t="shared" si="4"/>
@@ -6413,7 +6434,7 @@
       </c>
       <c r="O8" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.91746491571428568</v>
       </c>
       <c r="P8" s="18">
         <f t="shared" si="6"/>
@@ -6485,7 +6506,7 @@
       </c>
       <c r="O9" s="18">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.96847132285714288</v>
       </c>
       <c r="P9" s="18">
         <f t="shared" si="6"/>
@@ -6718,9 +6739,9 @@
         <f t="shared" si="24"/>
         <v>Numeric Only min-max 1</v>
       </c>
-      <c r="O13" s="27">
+      <c r="O13" s="27" t="str">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>Deep Networks</v>
       </c>
       <c r="P13" s="27">
         <f t="shared" si="24"/>
@@ -6784,7 +6805,7 @@
       </c>
       <c r="M14" s="19">
         <f>C30</f>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="N14" s="19">
         <f>C38</f>
@@ -6792,7 +6813,7 @@
       </c>
       <c r="O14" s="19">
         <f>C46</f>
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="P14" s="19">
         <f>C54</f>
@@ -6856,7 +6877,7 @@
       </c>
       <c r="M15" s="18">
         <f t="shared" ref="M15:M18" si="29">C31</f>
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="N15" s="18">
         <f t="shared" ref="N15:N18" si="30">C39</f>
@@ -6864,7 +6885,7 @@
       </c>
       <c r="O15" s="18">
         <f t="shared" ref="O15:O18" si="31">C47</f>
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="P15" s="18">
         <f t="shared" ref="P15:P18" si="32">C55</f>
@@ -6928,7 +6949,7 @@
       </c>
       <c r="M16" s="18">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="N16" s="18">
         <f t="shared" si="30"/>
@@ -6936,7 +6957,7 @@
       </c>
       <c r="O16" s="18">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="P16" s="18">
         <f t="shared" si="32"/>
@@ -6996,7 +7017,7 @@
       </c>
       <c r="O17" s="18">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="P17" s="18">
         <f t="shared" si="32"/>
@@ -7205,9 +7226,9 @@
         <f t="shared" si="50"/>
         <v>Numeric Only min-max 1</v>
       </c>
-      <c r="O21" s="27">
+      <c r="O21" s="27" t="str">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>Deep Networks</v>
       </c>
       <c r="P21" s="27">
         <f t="shared" si="50"/>
@@ -7250,8 +7271,8 @@
       <c r="E22">
         <v>0.62</v>
       </c>
-      <c r="F22">
-        <v>120253</v>
+      <c r="F22" s="1">
+        <v>144304</v>
       </c>
       <c r="I22" s="5" t="str">
         <f>A22</f>
@@ -7271,7 +7292,7 @@
       </c>
       <c r="M22" s="19">
         <f>D30</f>
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="N22" s="19">
         <f>D38</f>
@@ -7279,7 +7300,7 @@
       </c>
       <c r="O22" s="19">
         <f>D46</f>
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="P22" s="19">
         <f>D54</f>
@@ -7322,8 +7343,8 @@
       <c r="E23">
         <v>0.63</v>
       </c>
-      <c r="F23">
-        <v>120253</v>
+      <c r="F23" s="1">
+        <v>144304</v>
       </c>
       <c r="I23" s="8" t="str">
         <f t="shared" ref="I23:I26" si="53">A23</f>
@@ -7343,7 +7364,7 @@
       </c>
       <c r="M23" s="18">
         <f t="shared" ref="M23:M26" si="55">D31</f>
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="N23" s="18">
         <f t="shared" ref="N23:N26" si="56">D39</f>
@@ -7351,7 +7372,7 @@
       </c>
       <c r="O23" s="18">
         <f t="shared" ref="O23:O26" si="57">D47</f>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="P23" s="18">
         <f t="shared" ref="P23:P26" si="58">D55</f>
@@ -7394,8 +7415,8 @@
       <c r="E24">
         <v>0.63</v>
       </c>
-      <c r="F24">
-        <v>120253</v>
+      <c r="F24" s="1">
+        <v>144304</v>
       </c>
       <c r="I24" s="8" t="str">
         <f t="shared" si="53"/>
@@ -7415,7 +7436,7 @@
       </c>
       <c r="M24" s="18">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="N24" s="18">
         <f t="shared" si="56"/>
@@ -7423,7 +7444,7 @@
       </c>
       <c r="O24" s="18">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="P24" s="18">
         <f t="shared" si="58"/>
@@ -7466,8 +7487,8 @@
       <c r="E25">
         <v>0.63</v>
       </c>
-      <c r="F25">
-        <v>120253</v>
+      <c r="F25" s="1">
+        <v>144304</v>
       </c>
       <c r="I25" s="8" t="str">
         <f t="shared" si="53"/>
@@ -7495,7 +7516,7 @@
       </c>
       <c r="O25" s="18">
         <f t="shared" si="57"/>
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="P25" s="18">
         <f t="shared" si="58"/>
@@ -7538,8 +7559,8 @@
       <c r="E26">
         <v>0.12</v>
       </c>
-      <c r="F26">
-        <v>120253</v>
+      <c r="F26" s="1">
+        <v>144304</v>
       </c>
       <c r="I26" s="8" t="str">
         <f t="shared" si="53"/>
@@ -7610,8 +7631,8 @@
       <c r="E27">
         <v>0.56999999999999995</v>
       </c>
-      <c r="F27">
-        <v>120253</v>
+      <c r="F27" s="1">
+        <v>144304</v>
       </c>
       <c r="I27" s="11" t="str">
         <f t="shared" ref="I27" si="64">A27</f>
@@ -7722,9 +7743,9 @@
         <f t="shared" si="75"/>
         <v>Numeric Only min-max 1</v>
       </c>
-      <c r="O29" s="27">
+      <c r="O29" s="27" t="str">
         <f t="shared" si="75"/>
-        <v>0</v>
+        <v>Deep Networks</v>
       </c>
       <c r="P29" s="27">
         <f t="shared" si="75"/>
@@ -7755,8 +7776,20 @@
       <c r="A30" t="s">
         <v>27</v>
       </c>
-      <c r="F30">
-        <v>120253</v>
+      <c r="B30">
+        <v>0.65996091584432803</v>
+      </c>
+      <c r="C30">
+        <v>0.63</v>
+      </c>
+      <c r="D30">
+        <v>0.66</v>
+      </c>
+      <c r="E30">
+        <v>0.63</v>
+      </c>
+      <c r="F30" s="1">
+        <v>144304</v>
       </c>
       <c r="I30" s="5" t="str">
         <f>A30</f>
@@ -7776,7 +7809,7 @@
       </c>
       <c r="M30" s="19">
         <f>E30</f>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="N30" s="19">
         <f>E38</f>
@@ -7784,7 +7817,7 @@
       </c>
       <c r="O30" s="19">
         <f>E46</f>
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="P30" s="19">
         <f>E54</f>
@@ -7815,8 +7848,20 @@
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="F31">
-        <v>120253</v>
+      <c r="B31">
+        <v>0.48720756181394798</v>
+      </c>
+      <c r="C31">
+        <v>0.24</v>
+      </c>
+      <c r="D31">
+        <v>0.49</v>
+      </c>
+      <c r="E31">
+        <v>0.32</v>
+      </c>
+      <c r="F31" s="1">
+        <v>144304</v>
       </c>
       <c r="I31" s="8" t="str">
         <f t="shared" ref="I31:I34" si="79">A31</f>
@@ -7836,7 +7881,7 @@
       </c>
       <c r="M31" s="18">
         <f t="shared" ref="M31:M34" si="80">E31</f>
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="N31" s="18">
         <f t="shared" ref="N31:N34" si="81">E39</f>
@@ -7844,7 +7889,7 @@
       </c>
       <c r="O31" s="18">
         <f t="shared" ref="O31:O34" si="82">E47</f>
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="P31" s="18">
         <f t="shared" ref="P31:P34" si="83">E55</f>
@@ -7875,8 +7920,20 @@
       <c r="A32" t="s">
         <v>29</v>
       </c>
-      <c r="F32">
-        <v>120253</v>
+      <c r="B32">
+        <v>0.48079055327641601</v>
+      </c>
+      <c r="C32">
+        <v>0.37</v>
+      </c>
+      <c r="D32">
+        <v>0.48</v>
+      </c>
+      <c r="E32">
+        <v>0.33</v>
+      </c>
+      <c r="F32" s="1">
+        <v>144304</v>
       </c>
       <c r="I32" s="8" t="str">
         <f t="shared" si="79"/>
@@ -7896,7 +7953,7 @@
       </c>
       <c r="M32" s="18">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="N32" s="18">
         <f t="shared" si="81"/>
@@ -7904,7 +7961,7 @@
       </c>
       <c r="O32" s="18">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="P32" s="18">
         <f t="shared" si="83"/>
@@ -7935,8 +7992,8 @@
       <c r="A33" t="s">
         <v>30</v>
       </c>
-      <c r="F33">
-        <v>120253</v>
+      <c r="F33" s="1">
+        <v>144304</v>
       </c>
       <c r="I33" s="8" t="str">
         <f t="shared" si="79"/>
@@ -7964,7 +8021,7 @@
       </c>
       <c r="O33" s="18">
         <f t="shared" si="82"/>
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="P33" s="18">
         <f t="shared" si="83"/>
@@ -7995,8 +8052,8 @@
       <c r="A34" t="s">
         <v>31</v>
       </c>
-      <c r="F34">
-        <v>120253</v>
+      <c r="F34" s="1">
+        <v>144304</v>
       </c>
       <c r="I34" s="8" t="str">
         <f t="shared" si="79"/>
@@ -8055,8 +8112,8 @@
       <c r="A35" t="s">
         <v>32</v>
       </c>
-      <c r="F35">
-        <v>120253</v>
+      <c r="F35" s="1">
+        <v>144304</v>
       </c>
       <c r="I35" s="11" t="str">
         <f t="shared" ref="I35" si="89">A35</f>
@@ -8147,8 +8204,8 @@
       <c r="E38">
         <v>0.63</v>
       </c>
-      <c r="F38">
-        <v>120253</v>
+      <c r="F38" s="1">
+        <v>144304</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
@@ -8167,8 +8224,8 @@
       <c r="E39">
         <v>0.8</v>
       </c>
-      <c r="F39">
-        <v>120253</v>
+      <c r="F39" s="1">
+        <v>144304</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
@@ -8187,8 +8244,8 @@
       <c r="E40">
         <v>0.74</v>
       </c>
-      <c r="F40">
-        <v>120253</v>
+      <c r="F40" s="1">
+        <v>144304</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
@@ -8207,8 +8264,8 @@
       <c r="E41">
         <v>0.74</v>
       </c>
-      <c r="F41">
-        <v>120253</v>
+      <c r="F41" s="1">
+        <v>144304</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
@@ -8227,8 +8284,8 @@
       <c r="E42">
         <v>0.64</v>
       </c>
-      <c r="F42">
-        <v>120253</v>
+      <c r="F42" s="1">
+        <v>144304</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
@@ -8247,12 +8304,14 @@
       <c r="E43">
         <v>0.61</v>
       </c>
-      <c r="F43">
-        <v>120253</v>
+      <c r="F43" s="1">
+        <v>144304</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="B45" t="s">
         <v>6</v>
       </c>
@@ -8271,7 +8330,20 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>27</v>
+        <v>83</v>
+      </c>
+      <c r="B46">
+        <f>AVERAGE(0.83687909, 0.81979017, 0.96844162, 0.99526694, 0.98501774, 0.97060373, 0.98451186)</f>
+        <v>0.93721587857142852</v>
+      </c>
+      <c r="C46">
+        <v>0.78</v>
+      </c>
+      <c r="D46">
+        <v>0.77</v>
+      </c>
+      <c r="E46">
+        <v>0.76</v>
       </c>
       <c r="F46">
         <v>120253</v>
@@ -8279,7 +8351,20 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>28</v>
+        <v>84</v>
+      </c>
+      <c r="B47">
+        <f>AVERAGE(0.72299451, 0.69590587,0.95264858, 0.99526694,0.98354169, 0.97014636, 0.97528135)</f>
+        <v>0.89939790000000008</v>
+      </c>
+      <c r="C47">
+        <v>0.62</v>
+      </c>
+      <c r="D47">
+        <v>0.63</v>
+      </c>
+      <c r="E47">
+        <v>0.61</v>
       </c>
       <c r="F47">
         <v>120253</v>
@@ -8287,7 +8372,20 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>29</v>
+        <v>85</v>
+      </c>
+      <c r="B48">
+        <f>AVERAGE(0.77954873, 0.76406752, 0.95583629, 0.99526694,0.98354169,0.97014636, 0.97384688)</f>
+        <v>0.91746491571428568</v>
+      </c>
+      <c r="C48">
+        <v>0.69</v>
+      </c>
+      <c r="D48">
+        <v>0.7</v>
+      </c>
+      <c r="E48">
+        <v>0.69</v>
       </c>
       <c r="F48">
         <v>120253</v>
@@ -8295,7 +8393,20 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>30</v>
+        <v>82</v>
+      </c>
+      <c r="B49">
+        <f>AVERAGE(0.92409774,0.91172109,0.98151125,0.99745676,0.99081107,0.98283485, 0.9908665)</f>
+        <v>0.96847132285714288</v>
+      </c>
+      <c r="C49">
+        <v>0.9</v>
+      </c>
+      <c r="D49">
+        <v>0.88</v>
+      </c>
+      <c r="E49">
+        <v>0.89</v>
       </c>
       <c r="F49">
         <v>120253</v>
@@ -8303,7 +8414,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>86</v>
       </c>
       <c r="F50">
         <v>120253</v>
@@ -8311,7 +8422,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="F51">
         <v>120253</v>
@@ -9214,7 +9325,7 @@
       </c>
       <c r="E9" s="19">
         <f>'Advanced Learning'!M6</f>
-        <v>0</v>
+        <v>0.65996091584432803</v>
       </c>
       <c r="F9" s="19">
         <f>'Advanced Learning'!N6</f>
@@ -9222,7 +9333,7 @@
       </c>
       <c r="G9" s="19">
         <f>'Advanced Learning'!O6</f>
-        <v>0</v>
+        <v>0.93721587857142852</v>
       </c>
       <c r="H9" s="19">
         <f>'Advanced Learning'!P6</f>
@@ -9267,7 +9378,7 @@
       </c>
       <c r="E10" s="18">
         <f>'Advanced Learning'!M7</f>
-        <v>0</v>
+        <v>0.48720756181394798</v>
       </c>
       <c r="F10" s="18">
         <f>'Advanced Learning'!N7</f>
@@ -9275,7 +9386,7 @@
       </c>
       <c r="G10" s="18">
         <f>'Advanced Learning'!O7</f>
-        <v>0</v>
+        <v>0.89939790000000008</v>
       </c>
       <c r="H10" s="18">
         <f>'Advanced Learning'!P7</f>
@@ -9320,7 +9431,7 @@
       </c>
       <c r="E11" s="18">
         <f>'Advanced Learning'!M8</f>
-        <v>0</v>
+        <v>0.48079055327641601</v>
       </c>
       <c r="F11" s="18">
         <f>'Advanced Learning'!N8</f>
@@ -9328,7 +9439,7 @@
       </c>
       <c r="G11" s="18">
         <f>'Advanced Learning'!O8</f>
-        <v>0</v>
+        <v>0.91746491571428568</v>
       </c>
       <c r="H11" s="18">
         <f>'Advanced Learning'!P8</f>
@@ -9381,7 +9492,7 @@
       </c>
       <c r="G12" s="18">
         <f>'Advanced Learning'!O9</f>
-        <v>0</v>
+        <v>0.96847132285714288</v>
       </c>
       <c r="H12" s="18">
         <f>'Advanced Learning'!P9</f>
@@ -9850,7 +9961,7 @@
       </c>
       <c r="E23" s="6">
         <f>'Advanced Learning'!M14</f>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="F23" s="6">
         <f>'Advanced Learning'!N14</f>
@@ -9858,7 +9969,7 @@
       </c>
       <c r="G23" s="6">
         <f>'Advanced Learning'!O14</f>
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="H23" s="6">
         <f>'Advanced Learning'!P14</f>
@@ -9903,7 +10014,7 @@
       </c>
       <c r="E24" s="9">
         <f>'Advanced Learning'!M15</f>
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="F24" s="9">
         <f>'Advanced Learning'!N15</f>
@@ -9911,7 +10022,7 @@
       </c>
       <c r="G24" s="9">
         <f>'Advanced Learning'!O15</f>
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="H24" s="9">
         <f>'Advanced Learning'!P15</f>
@@ -9956,7 +10067,7 @@
       </c>
       <c r="E25" s="9">
         <f>'Advanced Learning'!M16</f>
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="F25" s="9">
         <f>'Advanced Learning'!N16</f>
@@ -9964,7 +10075,7 @@
       </c>
       <c r="G25" s="9">
         <f>'Advanced Learning'!O16</f>
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="H25" s="9">
         <f>'Advanced Learning'!P16</f>
@@ -10017,7 +10128,7 @@
       </c>
       <c r="G26" s="9">
         <f>'Advanced Learning'!O17</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="H26" s="9">
         <f>'Advanced Learning'!P17</f>
@@ -10486,7 +10597,7 @@
       </c>
       <c r="E37" s="6">
         <f>'Advanced Learning'!M22</f>
-        <v>0</v>
+        <v>0.66</v>
       </c>
       <c r="F37" s="6">
         <f>'Advanced Learning'!N22</f>
@@ -10494,7 +10605,7 @@
       </c>
       <c r="G37" s="6">
         <f>'Advanced Learning'!O22</f>
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="H37" s="6">
         <f>'Advanced Learning'!P22</f>
@@ -10539,7 +10650,7 @@
       </c>
       <c r="E38" s="9">
         <f>'Advanced Learning'!M23</f>
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="F38" s="9">
         <f>'Advanced Learning'!N23</f>
@@ -10547,7 +10658,7 @@
       </c>
       <c r="G38" s="9">
         <f>'Advanced Learning'!O23</f>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="H38" s="9">
         <f>'Advanced Learning'!P23</f>
@@ -10592,7 +10703,7 @@
       </c>
       <c r="E39" s="9">
         <f>'Advanced Learning'!M24</f>
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="F39" s="9">
         <f>'Advanced Learning'!N24</f>
@@ -10600,7 +10711,7 @@
       </c>
       <c r="G39" s="9">
         <f>'Advanced Learning'!O24</f>
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="H39" s="9">
         <f>'Advanced Learning'!P24</f>
@@ -10653,7 +10764,7 @@
       </c>
       <c r="G40" s="9">
         <f>'Advanced Learning'!O25</f>
-        <v>0</v>
+        <v>0.88</v>
       </c>
       <c r="H40" s="9">
         <f>'Advanced Learning'!P25</f>
@@ -11122,7 +11233,7 @@
       </c>
       <c r="E51" s="6">
         <f>'Advanced Learning'!M30</f>
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="F51" s="6">
         <f>'Advanced Learning'!N30</f>
@@ -11130,7 +11241,7 @@
       </c>
       <c r="G51" s="6">
         <f>'Advanced Learning'!O30</f>
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="H51" s="6">
         <f>'Advanced Learning'!P30</f>
@@ -11175,7 +11286,7 @@
       </c>
       <c r="E52" s="9">
         <f>'Advanced Learning'!M31</f>
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="F52" s="9">
         <f>'Advanced Learning'!N31</f>
@@ -11183,7 +11294,7 @@
       </c>
       <c r="G52" s="9">
         <f>'Advanced Learning'!O31</f>
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="H52" s="9">
         <f>'Advanced Learning'!P31</f>
@@ -11228,7 +11339,7 @@
       </c>
       <c r="E53" s="9">
         <f>'Advanced Learning'!M32</f>
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="F53" s="9">
         <f>'Advanced Learning'!N32</f>
@@ -11236,7 +11347,7 @@
       </c>
       <c r="G53" s="9">
         <f>'Advanced Learning'!O32</f>
-        <v>0</v>
+        <v>0.69</v>
       </c>
       <c r="H53" s="9">
         <f>'Advanced Learning'!P32</f>
@@ -11289,7 +11400,7 @@
       </c>
       <c r="G54" s="9">
         <f>'Advanced Learning'!O33</f>
-        <v>0</v>
+        <v>0.89</v>
       </c>
       <c r="H54" s="9">
         <f>'Advanced Learning'!P33</f>

--- a/Classification Cont.xlsx
+++ b/Classification Cont.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Documents\SCHOOL\Towson\2018-2022 -- DSc - Computer Security\6_Fall 2018\COSC 757 - Data Mining\Assignments\Classification Competition - 11-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBBAFDE-8F7B-4FFD-9BA0-AD389C31B201}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{996177B8-D450-425A-B864-A508478E4D92}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="86">
   <si>
     <t>TN</t>
   </si>
@@ -276,9 +276,6 @@
     <t>Deep Networks</t>
   </si>
   <si>
-    <t>250-100-10-7</t>
-  </si>
-  <si>
     <t>250-100-10-7_32-16</t>
   </si>
   <si>
@@ -291,7 +288,7 @@
     <t>250-100-10-7_1-64-mult</t>
   </si>
   <si>
-    <t>250-100-10-7_RNN</t>
+    <t>500-250-100-10-7_32-16</t>
   </si>
 </sst>
 </file>
@@ -3327,8 +3324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U87"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:A73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6114,14 +6111,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:U99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -6202,23 +6202,23 @@
       </c>
       <c r="K5" s="27" t="str">
         <f>A13</f>
-        <v>FULL SET 2</v>
+        <v>Binary Only 1</v>
       </c>
       <c r="L5" s="27" t="str">
         <f>A21</f>
-        <v>Binary Only 1</v>
+        <v>Numeric Only 1</v>
       </c>
       <c r="M5" s="27" t="str">
         <f>A29</f>
-        <v>Numeric Only 1</v>
+        <v>Numeric Only min-max 1</v>
       </c>
       <c r="N5" s="27" t="str">
         <f>A37</f>
-        <v>Numeric Only min-max 1</v>
-      </c>
-      <c r="O5" s="27" t="str">
+        <v>Deep Networks</v>
+      </c>
+      <c r="O5" s="27">
         <f>A45</f>
-        <v>Deep Networks</v>
+        <v>0</v>
       </c>
       <c r="P5" s="27">
         <f>A53</f>
@@ -6274,23 +6274,23 @@
       </c>
       <c r="K6" s="19">
         <f>B14</f>
-        <v>0.71413127841224</v>
+        <v>0.64724470562146497</v>
       </c>
       <c r="L6" s="19">
         <f>B22</f>
-        <v>0.64724470562146497</v>
+        <v>0.65996091584432803</v>
       </c>
       <c r="M6" s="19">
         <f>B30</f>
-        <v>0.65996091584432803</v>
+        <v>0.66467318993236502</v>
       </c>
       <c r="N6" s="19">
         <f>B38</f>
-        <v>0.66467318993236502</v>
+        <v>0.93721587857142852</v>
       </c>
       <c r="O6" s="19">
         <f>B46</f>
-        <v>0.93721587857142852</v>
+        <v>0</v>
       </c>
       <c r="P6" s="19">
         <f>B54</f>
@@ -6346,23 +6346,23 @@
       </c>
       <c r="K7" s="18">
         <f t="shared" ref="K7:K10" si="1">B15</f>
-        <v>0.85380862633507104</v>
+        <v>0.65204706730236095</v>
       </c>
       <c r="L7" s="18">
         <f t="shared" ref="L7:L10" si="2">B23</f>
-        <v>0.65204706730236095</v>
+        <v>0.48720756181394798</v>
       </c>
       <c r="M7" s="18">
         <f t="shared" ref="M7:M10" si="3">B31</f>
-        <v>0.48720756181394798</v>
+        <v>0.803803082381638</v>
       </c>
       <c r="N7" s="18">
         <f t="shared" ref="N7:N10" si="4">B39</f>
-        <v>0.803803082381638</v>
+        <v>0.89939790000000008</v>
       </c>
       <c r="O7" s="18">
         <f t="shared" ref="O7:O10" si="5">B47</f>
-        <v>0.89939790000000008</v>
+        <v>0</v>
       </c>
       <c r="P7" s="18">
         <f t="shared" ref="P7:P10" si="6">B55</f>
@@ -6418,23 +6418,23 @@
       </c>
       <c r="K8" s="18">
         <f t="shared" si="1"/>
-        <v>0.78661714158997598</v>
+        <v>0.65145803304135697</v>
       </c>
       <c r="L8" s="18">
         <f t="shared" si="2"/>
-        <v>0.65145803304135697</v>
+        <v>0.48079055327641601</v>
       </c>
       <c r="M8" s="18">
         <f t="shared" si="3"/>
-        <v>0.48079055327641601</v>
+        <v>0.74379088590752795</v>
       </c>
       <c r="N8" s="18">
         <f t="shared" si="4"/>
-        <v>0.74379088590752795</v>
+        <v>0.91746491571428568</v>
       </c>
       <c r="O8" s="18">
         <f t="shared" si="5"/>
-        <v>0.91746491571428568</v>
+        <v>0</v>
       </c>
       <c r="P8" s="18">
         <f t="shared" si="6"/>
@@ -6490,23 +6490,23 @@
       </c>
       <c r="K9" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L9" s="18">
+        <v>0.65094522674354105</v>
+      </c>
+      <c r="L9" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>0.65094522674354105</v>
+        <v>-</v>
       </c>
       <c r="M9" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.77036672580108601</v>
       </c>
       <c r="N9" s="18">
         <f t="shared" si="4"/>
-        <v>0.77036672580108601</v>
+        <v>0.96847132285714288</v>
       </c>
       <c r="O9" s="18">
         <f t="shared" si="5"/>
-        <v>0.96847132285714288</v>
+        <v>0</v>
       </c>
       <c r="P9" s="18">
         <f t="shared" si="6"/>
@@ -6565,19 +6565,19 @@
       </c>
       <c r="K10" s="18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L10" s="18">
+        <v>0.12628201574453901</v>
+      </c>
+      <c r="L10" s="18" t="str">
         <f t="shared" si="2"/>
-        <v>0.12628201574453901</v>
+        <v>-</v>
       </c>
       <c r="M10" s="18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.65524864175629205</v>
       </c>
       <c r="N10" s="18">
         <f t="shared" si="4"/>
-        <v>0.65524864175629205</v>
+        <v>0.95827459571428564</v>
       </c>
       <c r="O10" s="18">
         <f t="shared" si="5"/>
@@ -6640,19 +6640,19 @@
       </c>
       <c r="K11" s="17">
         <f t="shared" ref="K11" si="14">B19</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="17">
+        <v>0.61309457811287205</v>
+      </c>
+      <c r="L11" s="17" t="str">
         <f t="shared" ref="L11" si="15">B27</f>
-        <v>0.61309457811287205</v>
+        <v>-</v>
       </c>
       <c r="M11" s="17">
         <f t="shared" ref="M11" si="16">B35</f>
-        <v>0</v>
+        <v>0.61291440292715305</v>
       </c>
       <c r="N11" s="17">
         <f>B43</f>
-        <v>0.61291440292715305</v>
+        <v>0</v>
       </c>
       <c r="O11" s="17">
         <f t="shared" ref="O11" si="17">B51</f>
@@ -6699,7 +6699,7 @@
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B13" t="s">
         <v>6</v>
@@ -6725,23 +6725,23 @@
       </c>
       <c r="K13" s="27" t="str">
         <f t="shared" ref="K13:U13" si="24">K5</f>
-        <v>FULL SET 2</v>
+        <v>Binary Only 1</v>
       </c>
       <c r="L13" s="27" t="str">
         <f t="shared" si="24"/>
-        <v>Binary Only 1</v>
+        <v>Numeric Only 1</v>
       </c>
       <c r="M13" s="27" t="str">
         <f t="shared" si="24"/>
-        <v>Numeric Only 1</v>
+        <v>Numeric Only min-max 1</v>
       </c>
       <c r="N13" s="27" t="str">
         <f t="shared" si="24"/>
-        <v>Numeric Only min-max 1</v>
-      </c>
-      <c r="O13" s="27" t="str">
+        <v>Deep Networks</v>
+      </c>
+      <c r="O13" s="27">
         <f t="shared" si="24"/>
-        <v>Deep Networks</v>
+        <v>0</v>
       </c>
       <c r="P13" s="27">
         <f t="shared" si="24"/>
@@ -6773,16 +6773,16 @@
         <v>27</v>
       </c>
       <c r="B14">
-        <v>0.71413127841224</v>
+        <v>0.64724470562146497</v>
       </c>
       <c r="C14">
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
       <c r="D14">
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="E14">
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="F14" s="1">
         <v>144304</v>
@@ -6797,7 +6797,7 @@
       </c>
       <c r="K14" s="19">
         <f>C14</f>
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
       <c r="L14" s="19">
         <f>C22</f>
@@ -6805,15 +6805,15 @@
       </c>
       <c r="M14" s="19">
         <f>C30</f>
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="N14" s="19">
         <f>C38</f>
-        <v>0.64</v>
+        <v>0.78</v>
       </c>
       <c r="O14" s="19">
         <f>C46</f>
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="P14" s="19">
         <f>C54</f>
@@ -6845,16 +6845,16 @@
         <v>28</v>
       </c>
       <c r="B15">
-        <v>0.85380862633507104</v>
+        <v>0.65204706730236095</v>
       </c>
       <c r="C15">
-        <v>0.85</v>
+        <v>0.64</v>
       </c>
       <c r="D15">
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="E15">
-        <v>0.85</v>
+        <v>0.63</v>
       </c>
       <c r="F15" s="1">
         <v>144304</v>
@@ -6869,23 +6869,23 @@
       </c>
       <c r="K15" s="18">
         <f t="shared" ref="K15:K18" si="27">C15</f>
-        <v>0.85</v>
+        <v>0.64</v>
       </c>
       <c r="L15" s="18">
         <f t="shared" ref="L15:L18" si="28">C23</f>
-        <v>0.64</v>
+        <v>0.24</v>
       </c>
       <c r="M15" s="18">
         <f t="shared" ref="M15:M18" si="29">C31</f>
-        <v>0.24</v>
+        <v>0.8</v>
       </c>
       <c r="N15" s="18">
         <f t="shared" ref="N15:N18" si="30">C39</f>
-        <v>0.8</v>
+        <v>0.62</v>
       </c>
       <c r="O15" s="18">
         <f t="shared" ref="O15:O18" si="31">C47</f>
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="P15" s="18">
         <f t="shared" ref="P15:P18" si="32">C55</f>
@@ -6917,16 +6917,16 @@
         <v>29</v>
       </c>
       <c r="B16">
-        <v>0.78661714158997598</v>
+        <v>0.65145803304135697</v>
       </c>
       <c r="C16">
-        <v>0.78</v>
+        <v>0.64</v>
       </c>
       <c r="D16">
-        <v>0.79</v>
+        <v>0.65</v>
       </c>
       <c r="E16">
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
       <c r="F16" s="1">
         <v>144304</v>
@@ -6941,23 +6941,23 @@
       </c>
       <c r="K16" s="18">
         <f t="shared" si="27"/>
-        <v>0.78</v>
+        <v>0.64</v>
       </c>
       <c r="L16" s="18">
         <f t="shared" si="28"/>
-        <v>0.64</v>
+        <v>0.37</v>
       </c>
       <c r="M16" s="18">
         <f t="shared" si="29"/>
-        <v>0.37</v>
+        <v>0.74</v>
       </c>
       <c r="N16" s="18">
         <f t="shared" si="30"/>
-        <v>0.74</v>
+        <v>0.69</v>
       </c>
       <c r="O16" s="18">
         <f t="shared" si="31"/>
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="P16" s="18">
         <f t="shared" si="32"/>
@@ -6988,6 +6988,18 @@
       <c r="A17" t="s">
         <v>30</v>
       </c>
+      <c r="B17">
+        <v>0.65094522674354105</v>
+      </c>
+      <c r="C17">
+        <v>0.64</v>
+      </c>
+      <c r="D17">
+        <v>0.65</v>
+      </c>
+      <c r="E17">
+        <v>0.63</v>
+      </c>
       <c r="F17" s="1">
         <v>144304</v>
       </c>
@@ -7001,23 +7013,23 @@
       </c>
       <c r="K17" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="L17" s="18">
+        <v>0.64</v>
+      </c>
+      <c r="L17" s="18" t="str">
         <f t="shared" si="28"/>
-        <v>0.64</v>
+        <v>-</v>
       </c>
       <c r="M17" s="18">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="N17" s="18">
         <f t="shared" si="30"/>
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="O17" s="18">
         <f t="shared" si="31"/>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="P17" s="18">
         <f t="shared" si="32"/>
@@ -7048,9 +7060,18 @@
       <c r="A18" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="B18">
+        <v>0.12628201574453901</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0.74</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.13</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.12</v>
+      </c>
       <c r="F18" s="1">
         <v>144304</v>
       </c>
@@ -7064,19 +7085,19 @@
       </c>
       <c r="K18" s="18">
         <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="L18" s="18">
+        <v>0.74</v>
+      </c>
+      <c r="L18" s="18" t="str">
         <f t="shared" si="28"/>
-        <v>0.74</v>
+        <v>-</v>
       </c>
       <c r="M18" s="18">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="N18" s="18">
         <f t="shared" si="30"/>
-        <v>0.64</v>
+        <v>0.84</v>
       </c>
       <c r="O18" s="18">
         <f t="shared" si="31"/>
@@ -7111,9 +7132,18 @@
       <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+      <c r="B19">
+        <v>0.61309457811287205</v>
+      </c>
+      <c r="C19" s="3">
+        <v>0.62</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.61</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.56999999999999995</v>
+      </c>
       <c r="F19" s="1">
         <v>144304</v>
       </c>
@@ -7127,19 +7157,19 @@
       </c>
       <c r="K19" s="17">
         <f t="shared" ref="K19" si="39">C19</f>
-        <v>0</v>
-      </c>
-      <c r="L19" s="17">
+        <v>0.62</v>
+      </c>
+      <c r="L19" s="17" t="str">
         <f t="shared" ref="L19" si="40">C27</f>
-        <v>0.62</v>
+        <v>-</v>
       </c>
       <c r="M19" s="17">
         <f t="shared" ref="M19" si="41">C35</f>
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="N19" s="17">
         <f t="shared" ref="N19" si="42">C43</f>
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="O19" s="17">
         <f t="shared" ref="O19" si="43">C51</f>
@@ -7186,7 +7216,7 @@
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
         <v>6</v>
@@ -7212,23 +7242,23 @@
       </c>
       <c r="K21" s="27" t="str">
         <f t="shared" ref="K21:U21" si="50">K5</f>
-        <v>FULL SET 2</v>
+        <v>Binary Only 1</v>
       </c>
       <c r="L21" s="27" t="str">
         <f t="shared" si="50"/>
-        <v>Binary Only 1</v>
+        <v>Numeric Only 1</v>
       </c>
       <c r="M21" s="27" t="str">
         <f t="shared" si="50"/>
-        <v>Numeric Only 1</v>
+        <v>Numeric Only min-max 1</v>
       </c>
       <c r="N21" s="27" t="str">
         <f t="shared" si="50"/>
-        <v>Numeric Only min-max 1</v>
-      </c>
-      <c r="O21" s="27" t="str">
+        <v>Deep Networks</v>
+      </c>
+      <c r="O21" s="27">
         <f t="shared" si="50"/>
-        <v>Deep Networks</v>
+        <v>0</v>
       </c>
       <c r="P21" s="27">
         <f t="shared" si="50"/>
@@ -7260,16 +7290,16 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.64724470562146497</v>
+        <v>0.65996091584432803</v>
       </c>
       <c r="C22">
         <v>0.63</v>
       </c>
       <c r="D22">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="E22">
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="F22" s="1">
         <v>144304</v>
@@ -7284,23 +7314,23 @@
       </c>
       <c r="K22" s="19">
         <f t="shared" ref="K22:K27" si="52">D14</f>
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="L22" s="19">
         <f>D22</f>
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="M22" s="19">
         <f>D30</f>
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="N22" s="19">
         <f>D38</f>
-        <v>0.65</v>
+        <v>0.77</v>
       </c>
       <c r="O22" s="19">
         <f>D46</f>
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="P22" s="19">
         <f>D54</f>
@@ -7332,16 +7362,16 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.65204706730236095</v>
+        <v>0.48720756181394798</v>
       </c>
       <c r="C23">
-        <v>0.64</v>
+        <v>0.24</v>
       </c>
       <c r="D23">
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="E23">
-        <v>0.63</v>
+        <v>0.32</v>
       </c>
       <c r="F23" s="1">
         <v>144304</v>
@@ -7356,23 +7386,23 @@
       </c>
       <c r="K23" s="18">
         <f t="shared" si="52"/>
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="L23" s="18">
         <f t="shared" ref="L23:L26" si="54">D23</f>
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="M23" s="18">
         <f t="shared" ref="M23:M26" si="55">D31</f>
-        <v>0.49</v>
+        <v>0.8</v>
       </c>
       <c r="N23" s="18">
         <f t="shared" ref="N23:N26" si="56">D39</f>
-        <v>0.8</v>
+        <v>0.63</v>
       </c>
       <c r="O23" s="18">
         <f t="shared" ref="O23:O26" si="57">D47</f>
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="P23" s="18">
         <f t="shared" ref="P23:P26" si="58">D55</f>
@@ -7404,16 +7434,16 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.65145803304135697</v>
+        <v>0.48079055327641601</v>
       </c>
       <c r="C24">
-        <v>0.64</v>
+        <v>0.37</v>
       </c>
       <c r="D24">
-        <v>0.65</v>
+        <v>0.48</v>
       </c>
       <c r="E24">
-        <v>0.63</v>
+        <v>0.33</v>
       </c>
       <c r="F24" s="1">
         <v>144304</v>
@@ -7428,23 +7458,23 @@
       </c>
       <c r="K24" s="18">
         <f t="shared" si="52"/>
-        <v>0.79</v>
+        <v>0.65</v>
       </c>
       <c r="L24" s="18">
         <f t="shared" si="54"/>
-        <v>0.65</v>
+        <v>0.48</v>
       </c>
       <c r="M24" s="18">
         <f t="shared" si="55"/>
-        <v>0.48</v>
+        <v>0.74</v>
       </c>
       <c r="N24" s="18">
         <f t="shared" si="56"/>
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="O24" s="18">
         <f t="shared" si="57"/>
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="P24" s="18">
         <f t="shared" si="58"/>
@@ -7475,17 +7505,17 @@
       <c r="A25" t="s">
         <v>30</v>
       </c>
-      <c r="B25">
-        <v>0.65094522674354105</v>
-      </c>
-      <c r="C25">
-        <v>0.64</v>
-      </c>
-      <c r="D25">
-        <v>0.65</v>
-      </c>
-      <c r="E25">
-        <v>0.63</v>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E25" t="s">
+        <v>68</v>
       </c>
       <c r="F25" s="1">
         <v>144304</v>
@@ -7500,23 +7530,23 @@
       </c>
       <c r="K25" s="18">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="L25" s="18">
+        <v>0.65</v>
+      </c>
+      <c r="L25" s="18" t="str">
         <f t="shared" si="54"/>
-        <v>0.65</v>
+        <v>-</v>
       </c>
       <c r="M25" s="18">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="N25" s="18">
         <f t="shared" si="56"/>
-        <v>0.74</v>
+        <v>0.88</v>
       </c>
       <c r="O25" s="18">
         <f t="shared" si="57"/>
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="P25" s="18">
         <f t="shared" si="58"/>
@@ -7547,17 +7577,17 @@
       <c r="A26" t="s">
         <v>31</v>
       </c>
-      <c r="B26">
-        <v>0.12628201574453901</v>
-      </c>
-      <c r="C26">
-        <v>0.74</v>
-      </c>
-      <c r="D26">
-        <v>0.13</v>
-      </c>
-      <c r="E26">
-        <v>0.12</v>
+      <c r="B26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
+        <v>68</v>
       </c>
       <c r="F26" s="1">
         <v>144304</v>
@@ -7572,19 +7602,19 @@
       </c>
       <c r="K26" s="18">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="L26" s="18">
+        <v>0.13</v>
+      </c>
+      <c r="L26" s="18" t="str">
         <f t="shared" si="54"/>
-        <v>0.13</v>
+        <v>-</v>
       </c>
       <c r="M26" s="18">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="N26" s="18">
         <f t="shared" si="56"/>
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="O26" s="18">
         <f t="shared" si="57"/>
@@ -7619,17 +7649,17 @@
       <c r="A27" t="s">
         <v>32</v>
       </c>
-      <c r="B27">
-        <v>0.61309457811287205</v>
-      </c>
-      <c r="C27">
-        <v>0.62</v>
-      </c>
-      <c r="D27">
-        <v>0.61</v>
-      </c>
-      <c r="E27">
-        <v>0.56999999999999995</v>
+      <c r="B27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" t="s">
+        <v>68</v>
       </c>
       <c r="F27" s="1">
         <v>144304</v>
@@ -7644,19 +7674,19 @@
       </c>
       <c r="K27" s="17">
         <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="L27" s="17">
+        <v>0.61</v>
+      </c>
+      <c r="L27" s="17" t="str">
         <f t="shared" ref="L27" si="65">D27</f>
-        <v>0.61</v>
+        <v>-</v>
       </c>
       <c r="M27" s="17">
         <f t="shared" ref="M27" si="66">D35</f>
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="N27" s="17">
         <f t="shared" ref="N27" si="67">D43</f>
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="O27" s="17">
         <f t="shared" ref="O27" si="68">D51</f>
@@ -7703,7 +7733,7 @@
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
         <v>6</v>
@@ -7729,23 +7759,23 @@
       </c>
       <c r="K29" s="27" t="str">
         <f t="shared" ref="K29:U29" si="75">K5</f>
-        <v>FULL SET 2</v>
+        <v>Binary Only 1</v>
       </c>
       <c r="L29" s="27" t="str">
         <f t="shared" si="75"/>
-        <v>Binary Only 1</v>
+        <v>Numeric Only 1</v>
       </c>
       <c r="M29" s="27" t="str">
         <f t="shared" si="75"/>
-        <v>Numeric Only 1</v>
+        <v>Numeric Only min-max 1</v>
       </c>
       <c r="N29" s="27" t="str">
         <f t="shared" si="75"/>
-        <v>Numeric Only min-max 1</v>
-      </c>
-      <c r="O29" s="27" t="str">
+        <v>Deep Networks</v>
+      </c>
+      <c r="O29" s="27">
         <f t="shared" si="75"/>
-        <v>Deep Networks</v>
+        <v>0</v>
       </c>
       <c r="P29" s="27">
         <f t="shared" si="75"/>
@@ -7777,13 +7807,13 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>0.65996091584432803</v>
+        <v>0.66467318993236502</v>
       </c>
       <c r="C30">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="D30">
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="E30">
         <v>0.63</v>
@@ -7801,11 +7831,11 @@
       </c>
       <c r="K30" s="19">
         <f t="shared" ref="K30:K35" si="77">E14</f>
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="L30" s="19">
         <f t="shared" ref="L30:L35" si="78">E22</f>
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="M30" s="19">
         <f>E30</f>
@@ -7813,11 +7843,11 @@
       </c>
       <c r="N30" s="19">
         <f>E38</f>
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="O30" s="19">
         <f>E46</f>
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="P30" s="19">
         <f>E54</f>
@@ -7849,16 +7879,16 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>0.48720756181394798</v>
+        <v>0.803803082381638</v>
       </c>
       <c r="C31">
-        <v>0.24</v>
+        <v>0.8</v>
       </c>
       <c r="D31">
-        <v>0.49</v>
+        <v>0.8</v>
       </c>
       <c r="E31">
-        <v>0.32</v>
+        <v>0.8</v>
       </c>
       <c r="F31" s="1">
         <v>144304</v>
@@ -7873,23 +7903,23 @@
       </c>
       <c r="K31" s="18">
         <f t="shared" si="77"/>
-        <v>0.85</v>
+        <v>0.63</v>
       </c>
       <c r="L31" s="18">
         <f t="shared" si="78"/>
-        <v>0.63</v>
+        <v>0.32</v>
       </c>
       <c r="M31" s="18">
         <f t="shared" ref="M31:M34" si="80">E31</f>
-        <v>0.32</v>
+        <v>0.8</v>
       </c>
       <c r="N31" s="18">
         <f t="shared" ref="N31:N34" si="81">E39</f>
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="O31" s="18">
         <f t="shared" ref="O31:O34" si="82">E47</f>
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="P31" s="18">
         <f t="shared" ref="P31:P34" si="83">E55</f>
@@ -7921,16 +7951,16 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <v>0.48079055327641601</v>
+        <v>0.74379088590752795</v>
       </c>
       <c r="C32">
-        <v>0.37</v>
+        <v>0.74</v>
       </c>
       <c r="D32">
-        <v>0.48</v>
+        <v>0.74</v>
       </c>
       <c r="E32">
-        <v>0.33</v>
+        <v>0.74</v>
       </c>
       <c r="F32" s="1">
         <v>144304</v>
@@ -7945,23 +7975,23 @@
       </c>
       <c r="K32" s="18">
         <f t="shared" si="77"/>
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
       <c r="L32" s="18">
         <f t="shared" si="78"/>
-        <v>0.63</v>
+        <v>0.33</v>
       </c>
       <c r="M32" s="18">
         <f t="shared" si="80"/>
-        <v>0.33</v>
+        <v>0.74</v>
       </c>
       <c r="N32" s="18">
         <f t="shared" si="81"/>
-        <v>0.74</v>
+        <v>0.69</v>
       </c>
       <c r="O32" s="18">
         <f t="shared" si="82"/>
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="P32" s="18">
         <f t="shared" si="83"/>
@@ -7992,6 +8022,18 @@
       <c r="A33" t="s">
         <v>30</v>
       </c>
+      <c r="B33">
+        <v>0.77036672580108601</v>
+      </c>
+      <c r="C33">
+        <v>0.74</v>
+      </c>
+      <c r="D33">
+        <v>0.74</v>
+      </c>
+      <c r="E33">
+        <v>0.74</v>
+      </c>
       <c r="F33" s="1">
         <v>144304</v>
       </c>
@@ -8005,23 +8047,23 @@
       </c>
       <c r="K33" s="18">
         <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="L33" s="18">
+        <v>0.63</v>
+      </c>
+      <c r="L33" s="18" t="str">
         <f t="shared" si="78"/>
-        <v>0.63</v>
+        <v>-</v>
       </c>
       <c r="M33" s="18">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="N33" s="18">
         <f t="shared" si="81"/>
-        <v>0.74</v>
+        <v>0.89</v>
       </c>
       <c r="O33" s="18">
         <f t="shared" si="82"/>
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="P33" s="18">
         <f t="shared" si="83"/>
@@ -8052,6 +8094,18 @@
       <c r="A34" t="s">
         <v>31</v>
       </c>
+      <c r="B34">
+        <v>0.65524864175629205</v>
+      </c>
+      <c r="C34">
+        <v>0.64</v>
+      </c>
+      <c r="D34">
+        <v>0.65</v>
+      </c>
+      <c r="E34">
+        <v>0.64</v>
+      </c>
       <c r="F34" s="1">
         <v>144304</v>
       </c>
@@ -8065,19 +8119,19 @@
       </c>
       <c r="K34" s="18">
         <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="L34" s="18">
+        <v>0.12</v>
+      </c>
+      <c r="L34" s="18" t="str">
         <f t="shared" si="78"/>
-        <v>0.12</v>
+        <v>-</v>
       </c>
       <c r="M34" s="18">
         <f t="shared" si="80"/>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="N34" s="18">
         <f t="shared" si="81"/>
-        <v>0.64</v>
+        <v>0.84</v>
       </c>
       <c r="O34" s="18">
         <f t="shared" si="82"/>
@@ -8112,6 +8166,18 @@
       <c r="A35" t="s">
         <v>32</v>
       </c>
+      <c r="B35">
+        <v>0.61291440292715305</v>
+      </c>
+      <c r="C35">
+        <v>0.61</v>
+      </c>
+      <c r="D35">
+        <v>0.61</v>
+      </c>
+      <c r="E35">
+        <v>0.61</v>
+      </c>
       <c r="F35" s="1">
         <v>144304</v>
       </c>
@@ -8125,19 +8191,19 @@
       </c>
       <c r="K35" s="17">
         <f t="shared" si="77"/>
-        <v>0</v>
-      </c>
-      <c r="L35" s="17">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="L35" s="17" t="str">
         <f t="shared" si="78"/>
-        <v>0.56999999999999995</v>
+        <v>-</v>
       </c>
       <c r="M35" s="17">
         <f t="shared" ref="M35" si="90">E35</f>
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="N35" s="17">
         <f t="shared" ref="N35" si="91">E43</f>
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="O35" s="17">
         <f t="shared" ref="O35" si="92">E51</f>
@@ -8170,7 +8236,7 @@
     </row>
     <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
         <v>6</v>
@@ -8190,128 +8256,111 @@
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="B38">
-        <v>0.66467318993236502</v>
+        <v>0.93721587857142852</v>
       </c>
       <c r="C38">
-        <v>0.64</v>
+        <v>0.78</v>
       </c>
       <c r="D38">
-        <v>0.65</v>
+        <v>0.77</v>
       </c>
       <c r="E38">
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="F38" s="1">
-        <v>144304</v>
+        <v>120253</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="B39">
-        <v>0.803803082381638</v>
+        <v>0.89939790000000008</v>
       </c>
       <c r="C39">
-        <v>0.8</v>
+        <v>0.62</v>
       </c>
       <c r="D39">
-        <v>0.8</v>
+        <v>0.63</v>
       </c>
       <c r="E39">
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="F39" s="1">
-        <v>144304</v>
+        <v>120253</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="B40">
-        <v>0.74379088590752795</v>
+        <v>0.91746491571428568</v>
       </c>
       <c r="C40">
-        <v>0.74</v>
+        <v>0.69</v>
       </c>
       <c r="D40">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="E40">
-        <v>0.74</v>
+        <v>0.69</v>
       </c>
       <c r="F40" s="1">
-        <v>144304</v>
+        <v>120253</v>
       </c>
     </row>
     <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="B41">
-        <v>0.77036672580108601</v>
+        <v>0.96847132285714288</v>
       </c>
       <c r="C41">
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="D41">
-        <v>0.74</v>
+        <v>0.88</v>
       </c>
       <c r="E41">
-        <v>0.74</v>
+        <v>0.89</v>
       </c>
       <c r="F41" s="1">
-        <v>144304</v>
+        <v>120253</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="B42">
-        <v>0.65524864175629205</v>
+        <v>0.95827459571428564</v>
       </c>
       <c r="C42">
-        <v>0.64</v>
+        <v>0.84</v>
       </c>
       <c r="D42">
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="E42">
-        <v>0.64</v>
+        <v>0.84</v>
       </c>
       <c r="F42" s="1">
-        <v>144304</v>
+        <v>120253</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>32</v>
-      </c>
-      <c r="B43">
-        <v>0.61291440292715305</v>
-      </c>
-      <c r="C43">
-        <v>0.61</v>
-      </c>
-      <c r="D43">
-        <v>0.61</v>
-      </c>
-      <c r="E43">
-        <v>0.61</v>
-      </c>
       <c r="F43" s="1">
-        <v>144304</v>
+        <v>120253</v>
       </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>80</v>
-      </c>
+      <c r="A45" s="1"/>
       <c r="B45" t="s">
         <v>6</v>
       </c>
@@ -8330,20 +8379,7 @@
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>83</v>
-      </c>
-      <c r="B46">
-        <f>AVERAGE(0.83687909, 0.81979017, 0.96844162, 0.99526694, 0.98501774, 0.97060373, 0.98451186)</f>
-        <v>0.93721587857142852</v>
-      </c>
-      <c r="C46">
-        <v>0.78</v>
-      </c>
-      <c r="D46">
-        <v>0.77</v>
-      </c>
-      <c r="E46">
-        <v>0.76</v>
+        <v>27</v>
       </c>
       <c r="F46">
         <v>120253</v>
@@ -8351,20 +8387,7 @@
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>84</v>
-      </c>
-      <c r="B47">
-        <f>AVERAGE(0.72299451, 0.69590587,0.95264858, 0.99526694,0.98354169, 0.97014636, 0.97528135)</f>
-        <v>0.89939790000000008</v>
-      </c>
-      <c r="C47">
-        <v>0.62</v>
-      </c>
-      <c r="D47">
-        <v>0.63</v>
-      </c>
-      <c r="E47">
-        <v>0.61</v>
+        <v>28</v>
       </c>
       <c r="F47">
         <v>120253</v>
@@ -8372,20 +8395,7 @@
     </row>
     <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>85</v>
-      </c>
-      <c r="B48">
-        <f>AVERAGE(0.77954873, 0.76406752, 0.95583629, 0.99526694,0.98354169,0.97014636, 0.97384688)</f>
-        <v>0.91746491571428568</v>
-      </c>
-      <c r="C48">
-        <v>0.69</v>
-      </c>
-      <c r="D48">
-        <v>0.7</v>
-      </c>
-      <c r="E48">
-        <v>0.69</v>
+        <v>29</v>
       </c>
       <c r="F48">
         <v>120253</v>
@@ -8393,20 +8403,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49">
-        <f>AVERAGE(0.92409774,0.91172109,0.98151125,0.99745676,0.99081107,0.98283485, 0.9908665)</f>
-        <v>0.96847132285714288</v>
-      </c>
-      <c r="C49">
-        <v>0.9</v>
-      </c>
-      <c r="D49">
-        <v>0.88</v>
-      </c>
-      <c r="E49">
-        <v>0.89</v>
+        <v>30</v>
       </c>
       <c r="F49">
         <v>120253</v>
@@ -8414,7 +8411,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="F50">
         <v>120253</v>
@@ -8422,7 +8419,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="F51">
         <v>120253</v>
@@ -8979,7 +8976,7 @@
   <dimension ref="A3:M56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9317,23 +9314,23 @@
       </c>
       <c r="C9" s="19">
         <f>'Advanced Learning'!K6</f>
-        <v>0.71413127841224</v>
+        <v>0.64724470562146497</v>
       </c>
       <c r="D9" s="19">
         <f>'Advanced Learning'!L6</f>
-        <v>0.64724470562146497</v>
+        <v>0.65996091584432803</v>
       </c>
       <c r="E9" s="19">
         <f>'Advanced Learning'!M6</f>
-        <v>0.65996091584432803</v>
+        <v>0.66467318993236502</v>
       </c>
       <c r="F9" s="19">
         <f>'Advanced Learning'!N6</f>
-        <v>0.66467318993236502</v>
+        <v>0.93721587857142852</v>
       </c>
       <c r="G9" s="19">
         <f>'Advanced Learning'!O6</f>
-        <v>0.93721587857142852</v>
+        <v>0</v>
       </c>
       <c r="H9" s="19">
         <f>'Advanced Learning'!P6</f>
@@ -9370,23 +9367,23 @@
       </c>
       <c r="C10" s="18">
         <f>'Advanced Learning'!K7</f>
-        <v>0.85380862633507104</v>
+        <v>0.65204706730236095</v>
       </c>
       <c r="D10" s="18">
         <f>'Advanced Learning'!L7</f>
-        <v>0.65204706730236095</v>
+        <v>0.48720756181394798</v>
       </c>
       <c r="E10" s="18">
         <f>'Advanced Learning'!M7</f>
-        <v>0.48720756181394798</v>
+        <v>0.803803082381638</v>
       </c>
       <c r="F10" s="18">
         <f>'Advanced Learning'!N7</f>
-        <v>0.803803082381638</v>
+        <v>0.89939790000000008</v>
       </c>
       <c r="G10" s="18">
         <f>'Advanced Learning'!O7</f>
-        <v>0.89939790000000008</v>
+        <v>0</v>
       </c>
       <c r="H10" s="18">
         <f>'Advanced Learning'!P7</f>
@@ -9423,23 +9420,23 @@
       </c>
       <c r="C11" s="18">
         <f>'Advanced Learning'!K8</f>
-        <v>0.78661714158997598</v>
+        <v>0.65145803304135697</v>
       </c>
       <c r="D11" s="18">
         <f>'Advanced Learning'!L8</f>
-        <v>0.65145803304135697</v>
+        <v>0.48079055327641601</v>
       </c>
       <c r="E11" s="18">
         <f>'Advanced Learning'!M8</f>
-        <v>0.48079055327641601</v>
+        <v>0.74379088590752795</v>
       </c>
       <c r="F11" s="18">
         <f>'Advanced Learning'!N8</f>
-        <v>0.74379088590752795</v>
+        <v>0.91746491571428568</v>
       </c>
       <c r="G11" s="18">
         <f>'Advanced Learning'!O8</f>
-        <v>0.91746491571428568</v>
+        <v>0</v>
       </c>
       <c r="H11" s="18">
         <f>'Advanced Learning'!P8</f>
@@ -9476,23 +9473,23 @@
       </c>
       <c r="C12" s="18">
         <f>'Advanced Learning'!K9</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="18">
+        <v>0.65094522674354105</v>
+      </c>
+      <c r="D12" s="18" t="str">
         <f>'Advanced Learning'!L9</f>
-        <v>0.65094522674354105</v>
+        <v>-</v>
       </c>
       <c r="E12" s="18">
         <f>'Advanced Learning'!M9</f>
-        <v>0</v>
+        <v>0.77036672580108601</v>
       </c>
       <c r="F12" s="18">
         <f>'Advanced Learning'!N9</f>
-        <v>0.77036672580108601</v>
+        <v>0.96847132285714288</v>
       </c>
       <c r="G12" s="18">
         <f>'Advanced Learning'!O9</f>
-        <v>0.96847132285714288</v>
+        <v>0</v>
       </c>
       <c r="H12" s="18">
         <f>'Advanced Learning'!P9</f>
@@ -9529,19 +9526,19 @@
       </c>
       <c r="C13" s="18">
         <f>'Advanced Learning'!K10</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="18">
+        <v>0.12628201574453901</v>
+      </c>
+      <c r="D13" s="18" t="str">
         <f>'Advanced Learning'!L10</f>
-        <v>0.12628201574453901</v>
+        <v>-</v>
       </c>
       <c r="E13" s="18">
         <f>'Advanced Learning'!M10</f>
-        <v>0</v>
+        <v>0.65524864175629205</v>
       </c>
       <c r="F13" s="18">
         <f>'Advanced Learning'!N10</f>
-        <v>0.65524864175629205</v>
+        <v>0.95827459571428564</v>
       </c>
       <c r="G13" s="18">
         <f>'Advanced Learning'!O10</f>
@@ -9582,19 +9579,19 @@
       </c>
       <c r="C14" s="17">
         <f>'Advanced Learning'!K11</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="17">
+        <v>0.61309457811287205</v>
+      </c>
+      <c r="D14" s="17" t="str">
         <f>'Advanced Learning'!L11</f>
-        <v>0.61309457811287205</v>
+        <v>-</v>
       </c>
       <c r="E14" s="17">
         <f>'Advanced Learning'!M11</f>
-        <v>0</v>
+        <v>0.61291440292715305</v>
       </c>
       <c r="F14" s="17">
         <f>'Advanced Learning'!N11</f>
-        <v>0.61291440292715305</v>
+        <v>0</v>
       </c>
       <c r="G14" s="17">
         <f>'Advanced Learning'!O11</f>
@@ -9953,7 +9950,7 @@
       </c>
       <c r="C23" s="6">
         <f>'Advanced Learning'!K14</f>
-        <v>0.7</v>
+        <v>0.63</v>
       </c>
       <c r="D23" s="6">
         <f>'Advanced Learning'!L14</f>
@@ -9961,15 +9958,15 @@
       </c>
       <c r="E23" s="6">
         <f>'Advanced Learning'!M14</f>
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
       <c r="F23" s="6">
         <f>'Advanced Learning'!N14</f>
-        <v>0.64</v>
+        <v>0.78</v>
       </c>
       <c r="G23" s="6">
         <f>'Advanced Learning'!O14</f>
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="H23" s="6">
         <f>'Advanced Learning'!P14</f>
@@ -10006,23 +10003,23 @@
       </c>
       <c r="C24" s="9">
         <f>'Advanced Learning'!K15</f>
-        <v>0.85</v>
+        <v>0.64</v>
       </c>
       <c r="D24" s="9">
         <f>'Advanced Learning'!L15</f>
-        <v>0.64</v>
+        <v>0.24</v>
       </c>
       <c r="E24" s="9">
         <f>'Advanced Learning'!M15</f>
-        <v>0.24</v>
+        <v>0.8</v>
       </c>
       <c r="F24" s="9">
         <f>'Advanced Learning'!N15</f>
-        <v>0.8</v>
+        <v>0.62</v>
       </c>
       <c r="G24" s="9">
         <f>'Advanced Learning'!O15</f>
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="H24" s="9">
         <f>'Advanced Learning'!P15</f>
@@ -10059,23 +10056,23 @@
       </c>
       <c r="C25" s="9">
         <f>'Advanced Learning'!K16</f>
-        <v>0.78</v>
+        <v>0.64</v>
       </c>
       <c r="D25" s="9">
         <f>'Advanced Learning'!L16</f>
-        <v>0.64</v>
+        <v>0.37</v>
       </c>
       <c r="E25" s="9">
         <f>'Advanced Learning'!M16</f>
-        <v>0.37</v>
+        <v>0.74</v>
       </c>
       <c r="F25" s="9">
         <f>'Advanced Learning'!N16</f>
-        <v>0.74</v>
+        <v>0.69</v>
       </c>
       <c r="G25" s="9">
         <f>'Advanced Learning'!O16</f>
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="H25" s="9">
         <f>'Advanced Learning'!P16</f>
@@ -10112,23 +10109,23 @@
       </c>
       <c r="C26" s="9">
         <f>'Advanced Learning'!K17</f>
-        <v>0</v>
-      </c>
-      <c r="D26" s="9">
+        <v>0.64</v>
+      </c>
+      <c r="D26" s="9" t="str">
         <f>'Advanced Learning'!L17</f>
-        <v>0.64</v>
+        <v>-</v>
       </c>
       <c r="E26" s="9">
         <f>'Advanced Learning'!M17</f>
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="F26" s="9">
         <f>'Advanced Learning'!N17</f>
-        <v>0.74</v>
+        <v>0.9</v>
       </c>
       <c r="G26" s="9">
         <f>'Advanced Learning'!O17</f>
-        <v>0.9</v>
+        <v>0</v>
       </c>
       <c r="H26" s="9">
         <f>'Advanced Learning'!P17</f>
@@ -10165,19 +10162,19 @@
       </c>
       <c r="C27" s="9">
         <f>'Advanced Learning'!K18</f>
-        <v>0</v>
-      </c>
-      <c r="D27" s="9">
+        <v>0.74</v>
+      </c>
+      <c r="D27" s="9" t="str">
         <f>'Advanced Learning'!L18</f>
-        <v>0.74</v>
+        <v>-</v>
       </c>
       <c r="E27" s="9">
         <f>'Advanced Learning'!M18</f>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="F27" s="9">
         <f>'Advanced Learning'!N18</f>
-        <v>0.64</v>
+        <v>0.84</v>
       </c>
       <c r="G27" s="9">
         <f>'Advanced Learning'!O18</f>
@@ -10218,19 +10215,19 @@
       </c>
       <c r="C28" s="12">
         <f>'Advanced Learning'!K19</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="12">
+        <v>0.62</v>
+      </c>
+      <c r="D28" s="12" t="str">
         <f>'Advanced Learning'!L19</f>
-        <v>0.62</v>
+        <v>-</v>
       </c>
       <c r="E28" s="12">
         <f>'Advanced Learning'!M19</f>
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="F28" s="12">
         <f>'Advanced Learning'!N19</f>
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="G28" s="12">
         <f>'Advanced Learning'!O19</f>
@@ -10589,23 +10586,23 @@
       </c>
       <c r="C37" s="6">
         <f>'Advanced Learning'!K22</f>
-        <v>0.71</v>
+        <v>0.65</v>
       </c>
       <c r="D37" s="6">
         <f>'Advanced Learning'!L22</f>
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="E37" s="6">
         <f>'Advanced Learning'!M22</f>
-        <v>0.66</v>
+        <v>0.65</v>
       </c>
       <c r="F37" s="6">
         <f>'Advanced Learning'!N22</f>
-        <v>0.65</v>
+        <v>0.77</v>
       </c>
       <c r="G37" s="6">
         <f>'Advanced Learning'!O22</f>
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="H37" s="6">
         <f>'Advanced Learning'!P22</f>
@@ -10642,23 +10639,23 @@
       </c>
       <c r="C38" s="9">
         <f>'Advanced Learning'!K23</f>
-        <v>0.85</v>
+        <v>0.65</v>
       </c>
       <c r="D38" s="9">
         <f>'Advanced Learning'!L23</f>
-        <v>0.65</v>
+        <v>0.49</v>
       </c>
       <c r="E38" s="9">
         <f>'Advanced Learning'!M23</f>
-        <v>0.49</v>
+        <v>0.8</v>
       </c>
       <c r="F38" s="9">
         <f>'Advanced Learning'!N23</f>
-        <v>0.8</v>
+        <v>0.63</v>
       </c>
       <c r="G38" s="9">
         <f>'Advanced Learning'!O23</f>
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="H38" s="9">
         <f>'Advanced Learning'!P23</f>
@@ -10695,23 +10692,23 @@
       </c>
       <c r="C39" s="9">
         <f>'Advanced Learning'!K24</f>
-        <v>0.79</v>
+        <v>0.65</v>
       </c>
       <c r="D39" s="9">
         <f>'Advanced Learning'!L24</f>
-        <v>0.65</v>
+        <v>0.48</v>
       </c>
       <c r="E39" s="9">
         <f>'Advanced Learning'!M24</f>
-        <v>0.48</v>
+        <v>0.74</v>
       </c>
       <c r="F39" s="9">
         <f>'Advanced Learning'!N24</f>
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="G39" s="9">
         <f>'Advanced Learning'!O24</f>
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H39" s="9">
         <f>'Advanced Learning'!P24</f>
@@ -10748,23 +10745,23 @@
       </c>
       <c r="C40" s="9">
         <f>'Advanced Learning'!K25</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="9">
+        <v>0.65</v>
+      </c>
+      <c r="D40" s="9" t="str">
         <f>'Advanced Learning'!L25</f>
-        <v>0.65</v>
+        <v>-</v>
       </c>
       <c r="E40" s="9">
         <f>'Advanced Learning'!M25</f>
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="F40" s="9">
         <f>'Advanced Learning'!N25</f>
-        <v>0.74</v>
+        <v>0.88</v>
       </c>
       <c r="G40" s="9">
         <f>'Advanced Learning'!O25</f>
-        <v>0.88</v>
+        <v>0</v>
       </c>
       <c r="H40" s="9">
         <f>'Advanced Learning'!P25</f>
@@ -10801,19 +10798,19 @@
       </c>
       <c r="C41" s="9">
         <f>'Advanced Learning'!K26</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="9">
+        <v>0.13</v>
+      </c>
+      <c r="D41" s="9" t="str">
         <f>'Advanced Learning'!L26</f>
-        <v>0.13</v>
+        <v>-</v>
       </c>
       <c r="E41" s="9">
         <f>'Advanced Learning'!M26</f>
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="F41" s="9">
         <f>'Advanced Learning'!N26</f>
-        <v>0.65</v>
+        <v>0.85</v>
       </c>
       <c r="G41" s="9">
         <f>'Advanced Learning'!O26</f>
@@ -10854,19 +10851,19 @@
       </c>
       <c r="C42" s="12">
         <f>'Advanced Learning'!K27</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="12">
+        <v>0.61</v>
+      </c>
+      <c r="D42" s="12" t="str">
         <f>'Advanced Learning'!L27</f>
-        <v>0.61</v>
+        <v>-</v>
       </c>
       <c r="E42" s="12">
         <f>'Advanced Learning'!M27</f>
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="F42" s="12">
         <f>'Advanced Learning'!N27</f>
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="G42" s="12">
         <f>'Advanced Learning'!O27</f>
@@ -11225,11 +11222,11 @@
       </c>
       <c r="C51" s="6">
         <f>'Advanced Learning'!K30</f>
-        <v>0.7</v>
+        <v>0.62</v>
       </c>
       <c r="D51" s="6">
         <f>'Advanced Learning'!L30</f>
-        <v>0.62</v>
+        <v>0.63</v>
       </c>
       <c r="E51" s="6">
         <f>'Advanced Learning'!M30</f>
@@ -11237,11 +11234,11 @@
       </c>
       <c r="F51" s="6">
         <f>'Advanced Learning'!N30</f>
-        <v>0.63</v>
+        <v>0.76</v>
       </c>
       <c r="G51" s="6">
         <f>'Advanced Learning'!O30</f>
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="H51" s="6">
         <f>'Advanced Learning'!P30</f>
@@ -11278,23 +11275,23 @@
       </c>
       <c r="C52" s="9">
         <f>'Advanced Learning'!K31</f>
-        <v>0.85</v>
+        <v>0.63</v>
       </c>
       <c r="D52" s="9">
         <f>'Advanced Learning'!L31</f>
-        <v>0.63</v>
+        <v>0.32</v>
       </c>
       <c r="E52" s="9">
         <f>'Advanced Learning'!M31</f>
-        <v>0.32</v>
+        <v>0.8</v>
       </c>
       <c r="F52" s="9">
         <f>'Advanced Learning'!N31</f>
-        <v>0.8</v>
+        <v>0.61</v>
       </c>
       <c r="G52" s="9">
         <f>'Advanced Learning'!O31</f>
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="H52" s="9">
         <f>'Advanced Learning'!P31</f>
@@ -11331,23 +11328,23 @@
       </c>
       <c r="C53" s="9">
         <f>'Advanced Learning'!K32</f>
-        <v>0.78</v>
+        <v>0.63</v>
       </c>
       <c r="D53" s="9">
         <f>'Advanced Learning'!L32</f>
-        <v>0.63</v>
+        <v>0.33</v>
       </c>
       <c r="E53" s="9">
         <f>'Advanced Learning'!M32</f>
-        <v>0.33</v>
+        <v>0.74</v>
       </c>
       <c r="F53" s="9">
         <f>'Advanced Learning'!N32</f>
-        <v>0.74</v>
+        <v>0.69</v>
       </c>
       <c r="G53" s="9">
         <f>'Advanced Learning'!O32</f>
-        <v>0.69</v>
+        <v>0</v>
       </c>
       <c r="H53" s="9">
         <f>'Advanced Learning'!P32</f>
@@ -11384,23 +11381,23 @@
       </c>
       <c r="C54" s="9">
         <f>'Advanced Learning'!K33</f>
-        <v>0</v>
-      </c>
-      <c r="D54" s="9">
+        <v>0.63</v>
+      </c>
+      <c r="D54" s="9" t="str">
         <f>'Advanced Learning'!L33</f>
-        <v>0.63</v>
+        <v>-</v>
       </c>
       <c r="E54" s="9">
         <f>'Advanced Learning'!M33</f>
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="F54" s="9">
         <f>'Advanced Learning'!N33</f>
-        <v>0.74</v>
+        <v>0.89</v>
       </c>
       <c r="G54" s="9">
         <f>'Advanced Learning'!O33</f>
-        <v>0.89</v>
+        <v>0</v>
       </c>
       <c r="H54" s="9">
         <f>'Advanced Learning'!P33</f>
@@ -11437,19 +11434,19 @@
       </c>
       <c r="C55" s="9">
         <f>'Advanced Learning'!K34</f>
-        <v>0</v>
-      </c>
-      <c r="D55" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="D55" s="9" t="str">
         <f>'Advanced Learning'!L34</f>
-        <v>0.12</v>
+        <v>-</v>
       </c>
       <c r="E55" s="9">
         <f>'Advanced Learning'!M34</f>
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="F55" s="9">
         <f>'Advanced Learning'!N34</f>
-        <v>0.64</v>
+        <v>0.84</v>
       </c>
       <c r="G55" s="9">
         <f>'Advanced Learning'!O34</f>
@@ -11490,19 +11487,19 @@
       </c>
       <c r="C56" s="12">
         <f>'Advanced Learning'!K35</f>
-        <v>0</v>
-      </c>
-      <c r="D56" s="12">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="D56" s="12" t="str">
         <f>'Advanced Learning'!L35</f>
-        <v>0.56999999999999995</v>
+        <v>-</v>
       </c>
       <c r="E56" s="12">
         <f>'Advanced Learning'!M35</f>
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="F56" s="12">
         <f>'Advanced Learning'!N35</f>
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="G56" s="12">
         <f>'Advanced Learning'!O35</f>
